--- a/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="8.制酸操作（日）4.3m无此表" sheetId="1" r:id="rId1"/>
     <sheet name="_zhisuan_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -52,86 +55,7 @@
     <t xml:space="preserve"> 制 酸 操 作 记 录</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SGSSG-BSMCSA33-G012-02A</t>
-    </r>
+    <t xml:space="preserve"> SGSSG-BSMCSA33-G012-02A</t>
   </si>
   <si>
     <r>
@@ -571,13 +495,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,13 +566,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -655,55 +573,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,15 +609,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -746,41 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -790,19 +640,77 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -826,7 +734,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +818,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,151 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,50 +1167,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,11 +1189,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,16 +1227,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1372,19 +1280,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1393,119 +1301,119 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1520,6 +1428,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1565,6 +1476,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2048,6 +1962,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2308,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2364,327 +2291,330 @@
       <c r="AQ1" s="4"/>
     </row>
     <row r="2" customFormat="1" ht="16.5" spans="2:40">
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="23" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
+      <c r="AE2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
     </row>
     <row r="3" customFormat="1" spans="1:43">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="32"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="34"/>
     </row>
     <row r="4" customFormat="1" ht="18.95" customHeight="1" spans="1:43">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10" t="s">
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="33"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="35"/>
     </row>
     <row r="5" customFormat="1" ht="33.6" customHeight="1" spans="1:43">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="28" t="s">
+      <c r="Z5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="13" t="s">
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AD5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AF5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AG5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="13" t="s">
+      <c r="AH5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AI5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AK5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AL5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AM5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="13" t="s">
+      <c r="AN5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="13" t="s">
+      <c r="AO5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="13" t="s">
+      <c r="AP5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="34" t="s">
+      <c r="AQ5" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="26.1" customHeight="1" spans="2:43">
-      <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="28" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="28" t="s">
+      <c r="AA6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="34"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="36"/>
     </row>
     <row r="7" customFormat="1" ht="81" spans="2:44">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2813,4345 +2743,4345 @@
       <c r="AR7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="2:43">
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>0</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A2="","",_zhisuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B2="","",_zhisuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C2="","",_zhisuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D2="","",_zhisuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E2="","",_zhisuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F2="","",_zhisuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G2="","",_zhisuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H2="","",_zhisuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I2="","",_zhisuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J2="","",_zhisuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="16" t="str">
+      <c r="M8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K2="","",_zhisuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="16" t="str">
+      <c r="N8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L2="","",_zhisuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="16" t="str">
+      <c r="O8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M2="","",_zhisuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="16" t="str">
+      <c r="P8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N2="","",_zhisuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="16" t="str">
+      <c r="Q8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O2="","",_zhisuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="16" t="str">
+      <c r="R8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P2="","",_zhisuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="16" t="str">
+      <c r="S8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q2="","",_zhisuan_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="16" t="str">
+      <c r="T8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R2="","",_zhisuan_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="16" t="str">
+      <c r="U8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S2="","",_zhisuan_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="16" t="str">
+      <c r="V8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T2="","",_zhisuan_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="16" t="str">
+      <c r="W8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U2="","",_zhisuan_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="16" t="str">
+      <c r="X8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V2="","",_zhisuan_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="16" t="str">
+      <c r="Y8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W2="","",_zhisuan_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="16" t="str">
+      <c r="Z8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X2="","",_zhisuan_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="16" t="str">
+      <c r="AA8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y2="","",_zhisuan_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="16" t="str">
+      <c r="AB8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z2="","",_zhisuan_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="16" t="str">
+      <c r="AC8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA2="","",_zhisuan_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="16" t="str">
+      <c r="AD8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB2="","",_zhisuan_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="16" t="str">
+      <c r="AE8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC2="","",_zhisuan_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="16" t="str">
+      <c r="AF8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD2="","",_zhisuan_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="16" t="str">
+      <c r="AG8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE2="","",_zhisuan_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="16" t="str">
+      <c r="AH8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF2="","",_zhisuan_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="16" t="str">
+      <c r="AI8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG2="","",_zhisuan_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="16" t="str">
+      <c r="AJ8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH2="","",_zhisuan_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK8" s="16" t="str">
+      <c r="AK8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI2="","",_zhisuan_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="16" t="str">
+      <c r="AL8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ2="","",_zhisuan_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM8" s="16" t="str">
+      <c r="AM8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK2="","",_zhisuan_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN8" s="16" t="str">
+      <c r="AN8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL2="","",_zhisuan_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="16" t="str">
+      <c r="AO8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM2="","",_zhisuan_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP8" s="16" t="str">
+      <c r="AP8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN2="","",_zhisuan_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ8" s="35" t="str">
+      <c r="AQ8" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO2="","",_zhisuan_day_hour!AO2)</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:43">
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A3="","",_zhisuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B3="","",_zhisuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C3="","",_zhisuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D3="","",_zhisuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E3="","",_zhisuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F3="","",_zhisuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G3="","",_zhisuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H3="","",_zhisuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I3="","",_zhisuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="16" t="str">
+      <c r="L9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J3="","",_zhisuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="16" t="str">
+      <c r="M9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K3="","",_zhisuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="16" t="str">
+      <c r="N9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L3="","",_zhisuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="16" t="str">
+      <c r="O9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M3="","",_zhisuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="16" t="str">
+      <c r="P9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N3="","",_zhisuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="16" t="str">
+      <c r="Q9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O3="","",_zhisuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="16" t="str">
+      <c r="R9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P3="","",_zhisuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="16" t="str">
+      <c r="S9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q3="","",_zhisuan_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="16" t="str">
+      <c r="T9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R3="","",_zhisuan_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="16" t="str">
+      <c r="U9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S3="","",_zhisuan_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="16" t="str">
+      <c r="V9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T3="","",_zhisuan_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="16" t="str">
+      <c r="W9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U3="","",_zhisuan_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="16" t="str">
+      <c r="X9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V3="","",_zhisuan_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="16" t="str">
+      <c r="Y9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W3="","",_zhisuan_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="16" t="str">
+      <c r="Z9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X3="","",_zhisuan_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="16" t="str">
+      <c r="AA9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y3="","",_zhisuan_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="16" t="str">
+      <c r="AB9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z3="","",_zhisuan_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="16" t="str">
+      <c r="AC9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA3="","",_zhisuan_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="16" t="str">
+      <c r="AD9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB3="","",_zhisuan_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="16" t="str">
+      <c r="AE9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC3="","",_zhisuan_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="16" t="str">
+      <c r="AF9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD3="","",_zhisuan_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="16" t="str">
+      <c r="AG9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE3="","",_zhisuan_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="16" t="str">
+      <c r="AH9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF3="","",_zhisuan_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="16" t="str">
+      <c r="AI9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG3="","",_zhisuan_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="16" t="str">
+      <c r="AJ9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH3="","",_zhisuan_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="16" t="str">
+      <c r="AK9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI3="","",_zhisuan_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="16" t="str">
+      <c r="AL9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ3="","",_zhisuan_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="16" t="str">
+      <c r="AM9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK3="","",_zhisuan_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="16" t="str">
+      <c r="AN9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL3="","",_zhisuan_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="16" t="str">
+      <c r="AO9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM3="","",_zhisuan_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="16" t="str">
+      <c r="AP9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN3="","",_zhisuan_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="35" t="str">
+      <c r="AQ9" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO3="","",_zhisuan_day_hour!AO3)</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:43">
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A4="","",_zhisuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B4="","",_zhisuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C4="","",_zhisuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D4="","",_zhisuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E4="","",_zhisuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F4="","",_zhisuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G4="","",_zhisuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H4="","",_zhisuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="16" t="str">
+      <c r="K10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I4="","",_zhisuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J4="","",_zhisuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="16" t="str">
+      <c r="M10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K4="","",_zhisuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="16" t="str">
+      <c r="N10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L4="","",_zhisuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="16" t="str">
+      <c r="O10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M4="","",_zhisuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="16" t="str">
+      <c r="P10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N4="","",_zhisuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="16" t="str">
+      <c r="Q10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O4="","",_zhisuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="16" t="str">
+      <c r="R10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P4="","",_zhisuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="16" t="str">
+      <c r="S10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q4="","",_zhisuan_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="16" t="str">
+      <c r="T10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R4="","",_zhisuan_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="16" t="str">
+      <c r="U10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S4="","",_zhisuan_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="16" t="str">
+      <c r="V10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T4="","",_zhisuan_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="16" t="str">
+      <c r="W10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U4="","",_zhisuan_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="16" t="str">
+      <c r="X10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V4="","",_zhisuan_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="16" t="str">
+      <c r="Y10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W4="","",_zhisuan_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="16" t="str">
+      <c r="Z10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X4="","",_zhisuan_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="16" t="str">
+      <c r="AA10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y4="","",_zhisuan_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="16" t="str">
+      <c r="AB10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z4="","",_zhisuan_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="16" t="str">
+      <c r="AC10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA4="","",_zhisuan_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="16" t="str">
+      <c r="AD10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB4="","",_zhisuan_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="16" t="str">
+      <c r="AE10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC4="","",_zhisuan_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="16" t="str">
+      <c r="AF10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD4="","",_zhisuan_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="16" t="str">
+      <c r="AG10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE4="","",_zhisuan_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="16" t="str">
+      <c r="AH10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF4="","",_zhisuan_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="16" t="str">
+      <c r="AI10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG4="","",_zhisuan_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="16" t="str">
+      <c r="AJ10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH4="","",_zhisuan_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="16" t="str">
+      <c r="AK10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI4="","",_zhisuan_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="16" t="str">
+      <c r="AL10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ4="","",_zhisuan_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="16" t="str">
+      <c r="AM10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK4="","",_zhisuan_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="16" t="str">
+      <c r="AN10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL4="","",_zhisuan_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="16" t="str">
+      <c r="AO10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM4="","",_zhisuan_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="16" t="str">
+      <c r="AP10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN4="","",_zhisuan_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="35" t="str">
+      <c r="AQ10" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO4="","",_zhisuan_day_hour!AO4)</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.1" customHeight="1" spans="2:43">
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>0.125</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A5="","",_zhisuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B5="","",_zhisuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C5="","",_zhisuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D5="","",_zhisuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E5="","",_zhisuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F5="","",_zhisuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G5="","",_zhisuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H5="","",_zhisuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I5="","",_zhisuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J5="","",_zhisuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="16" t="str">
+      <c r="M11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K5="","",_zhisuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="16" t="str">
+      <c r="N11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L5="","",_zhisuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="16" t="str">
+      <c r="O11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M5="","",_zhisuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="16" t="str">
+      <c r="P11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N5="","",_zhisuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="16" t="str">
+      <c r="Q11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O5="","",_zhisuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="16" t="str">
+      <c r="R11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P5="","",_zhisuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="16" t="str">
+      <c r="S11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q5="","",_zhisuan_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="16" t="str">
+      <c r="T11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R5="","",_zhisuan_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="16" t="str">
+      <c r="U11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S5="","",_zhisuan_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="16" t="str">
+      <c r="V11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T5="","",_zhisuan_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="16" t="str">
+      <c r="W11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U5="","",_zhisuan_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="16" t="str">
+      <c r="X11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V5="","",_zhisuan_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="16" t="str">
+      <c r="Y11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W5="","",_zhisuan_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="16" t="str">
+      <c r="Z11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X5="","",_zhisuan_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="16" t="str">
+      <c r="AA11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y5="","",_zhisuan_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="16" t="str">
+      <c r="AB11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z5="","",_zhisuan_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="16" t="str">
+      <c r="AC11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA5="","",_zhisuan_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="16" t="str">
+      <c r="AD11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB5="","",_zhisuan_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="16" t="str">
+      <c r="AE11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC5="","",_zhisuan_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="16" t="str">
+      <c r="AF11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD5="","",_zhisuan_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="16" t="str">
+      <c r="AG11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE5="","",_zhisuan_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="16" t="str">
+      <c r="AH11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF5="","",_zhisuan_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="16" t="str">
+      <c r="AI11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG5="","",_zhisuan_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="16" t="str">
+      <c r="AJ11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH5="","",_zhisuan_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="16" t="str">
+      <c r="AK11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI5="","",_zhisuan_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="16" t="str">
+      <c r="AL11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ5="","",_zhisuan_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="16" t="str">
+      <c r="AM11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK5="","",_zhisuan_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="16" t="str">
+      <c r="AN11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL5="","",_zhisuan_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="16" t="str">
+      <c r="AO11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM5="","",_zhisuan_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="16" t="str">
+      <c r="AP11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN5="","",_zhisuan_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="35" t="str">
+      <c r="AQ11" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO5="","",_zhisuan_day_hour!AO5)</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24.95" customHeight="1" spans="2:43">
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>0.166666666666667</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A6="","",_zhisuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B6="","",_zhisuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C6="","",_zhisuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D6="","",_zhisuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E6="","",_zhisuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F6="","",_zhisuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G6="","",_zhisuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H6="","",_zhisuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I6="","",_zhisuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J6="","",_zhisuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="16" t="str">
+      <c r="M12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K6="","",_zhisuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="16" t="str">
+      <c r="N12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L6="","",_zhisuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M6="","",_zhisuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N6="","",_zhisuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="16" t="str">
+      <c r="Q12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O6="","",_zhisuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="16" t="str">
+      <c r="R12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P6="","",_zhisuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="16" t="str">
+      <c r="S12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q6="","",_zhisuan_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="16" t="str">
+      <c r="T12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R6="","",_zhisuan_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="16" t="str">
+      <c r="U12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S6="","",_zhisuan_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="16" t="str">
+      <c r="V12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T6="","",_zhisuan_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="16" t="str">
+      <c r="W12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U6="","",_zhisuan_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="16" t="str">
+      <c r="X12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V6="","",_zhisuan_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="16" t="str">
+      <c r="Y12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W6="","",_zhisuan_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="16" t="str">
+      <c r="Z12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X6="","",_zhisuan_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="16" t="str">
+      <c r="AA12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y6="","",_zhisuan_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="16" t="str">
+      <c r="AB12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z6="","",_zhisuan_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="16" t="str">
+      <c r="AC12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA6="","",_zhisuan_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="16" t="str">
+      <c r="AD12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB6="","",_zhisuan_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="16" t="str">
+      <c r="AE12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC6="","",_zhisuan_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="16" t="str">
+      <c r="AF12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD6="","",_zhisuan_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="16" t="str">
+      <c r="AG12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE6="","",_zhisuan_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="16" t="str">
+      <c r="AH12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF6="","",_zhisuan_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="16" t="str">
+      <c r="AI12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG6="","",_zhisuan_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="16" t="str">
+      <c r="AJ12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH6="","",_zhisuan_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="16" t="str">
+      <c r="AK12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI6="","",_zhisuan_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="16" t="str">
+      <c r="AL12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ6="","",_zhisuan_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="16" t="str">
+      <c r="AM12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK6="","",_zhisuan_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="16" t="str">
+      <c r="AN12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL6="","",_zhisuan_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="16" t="str">
+      <c r="AO12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM6="","",_zhisuan_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="16" t="str">
+      <c r="AP12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN6="","",_zhisuan_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="35" t="str">
+      <c r="AQ12" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO6="","",_zhisuan_day_hour!AO6)</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:43">
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>0.208333333333333</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A7="","",_zhisuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B7="","",_zhisuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C7="","",_zhisuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D7="","",_zhisuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E7="","",_zhisuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F7="","",_zhisuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G7="","",_zhisuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H7="","",_zhisuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I7="","",_zhisuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="16" t="str">
+      <c r="L13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J7="","",_zhisuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K7="","",_zhisuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="16" t="str">
+      <c r="N13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L7="","",_zhisuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="16" t="str">
+      <c r="O13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M7="","",_zhisuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="16" t="str">
+      <c r="P13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N7="","",_zhisuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="16" t="str">
+      <c r="Q13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O7="","",_zhisuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="16" t="str">
+      <c r="R13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P7="","",_zhisuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="16" t="str">
+      <c r="S13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q7="","",_zhisuan_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="16" t="str">
+      <c r="T13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R7="","",_zhisuan_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="16" t="str">
+      <c r="U13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S7="","",_zhisuan_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="16" t="str">
+      <c r="V13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T7="","",_zhisuan_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="16" t="str">
+      <c r="W13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U7="","",_zhisuan_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="16" t="str">
+      <c r="X13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V7="","",_zhisuan_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="16" t="str">
+      <c r="Y13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W7="","",_zhisuan_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="16" t="str">
+      <c r="Z13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X7="","",_zhisuan_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="16" t="str">
+      <c r="AA13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y7="","",_zhisuan_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="16" t="str">
+      <c r="AB13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z7="","",_zhisuan_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="16" t="str">
+      <c r="AC13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA7="","",_zhisuan_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="16" t="str">
+      <c r="AD13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB7="","",_zhisuan_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="16" t="str">
+      <c r="AE13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC7="","",_zhisuan_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="16" t="str">
+      <c r="AF13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD7="","",_zhisuan_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="16" t="str">
+      <c r="AG13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE7="","",_zhisuan_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="16" t="str">
+      <c r="AH13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF7="","",_zhisuan_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="16" t="str">
+      <c r="AI13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG7="","",_zhisuan_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="16" t="str">
+      <c r="AJ13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH7="","",_zhisuan_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="16" t="str">
+      <c r="AK13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI7="","",_zhisuan_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="16" t="str">
+      <c r="AL13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ7="","",_zhisuan_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="16" t="str">
+      <c r="AM13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK7="","",_zhisuan_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="16" t="str">
+      <c r="AN13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL7="","",_zhisuan_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="16" t="str">
+      <c r="AO13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM7="","",_zhisuan_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="16" t="str">
+      <c r="AP13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN7="","",_zhisuan_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="35" t="str">
+      <c r="AQ13" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO7="","",_zhisuan_day_hour!AO7)</f>
         <v/>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="2:44">
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>0.25</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A8="","",_zhisuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B8="","",_zhisuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C8="","",_zhisuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D8="","",_zhisuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E8="","",_zhisuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F8="","",_zhisuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G8="","",_zhisuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H8="","",_zhisuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I8="","",_zhisuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J8="","",_zhisuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K8="","",_zhisuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="16" t="str">
+      <c r="N14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L8="","",_zhisuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="16" t="str">
+      <c r="O14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M8="","",_zhisuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="16" t="str">
+      <c r="P14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N8="","",_zhisuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="16" t="str">
+      <c r="Q14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O8="","",_zhisuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="16" t="str">
+      <c r="R14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P8="","",_zhisuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="16" t="str">
+      <c r="S14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q8="","",_zhisuan_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="16" t="str">
+      <c r="T14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R8="","",_zhisuan_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="16" t="str">
+      <c r="U14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S8="","",_zhisuan_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="16" t="str">
+      <c r="V14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T8="","",_zhisuan_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="16" t="str">
+      <c r="W14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U8="","",_zhisuan_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="16" t="str">
+      <c r="X14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V8="","",_zhisuan_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="16" t="str">
+      <c r="Y14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W8="","",_zhisuan_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="16" t="str">
+      <c r="Z14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X8="","",_zhisuan_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="16" t="str">
+      <c r="AA14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y8="","",_zhisuan_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="16" t="str">
+      <c r="AB14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z8="","",_zhisuan_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="16" t="str">
+      <c r="AC14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA8="","",_zhisuan_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="16" t="str">
+      <c r="AD14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB8="","",_zhisuan_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="16" t="str">
+      <c r="AE14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC8="","",_zhisuan_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="16" t="str">
+      <c r="AF14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD8="","",_zhisuan_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="16" t="str">
+      <c r="AG14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE8="","",_zhisuan_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="16" t="str">
+      <c r="AH14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF8="","",_zhisuan_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="16" t="str">
+      <c r="AI14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG8="","",_zhisuan_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="16" t="str">
+      <c r="AJ14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH8="","",_zhisuan_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="16" t="str">
+      <c r="AK14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI8="","",_zhisuan_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="16" t="str">
+      <c r="AL14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ8="","",_zhisuan_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="16" t="str">
+      <c r="AM14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK8="","",_zhisuan_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="16" t="str">
+      <c r="AN14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL8="","",_zhisuan_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="16" t="str">
+      <c r="AO14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM8="","",_zhisuan_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="16" t="str">
+      <c r="AP14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN8="","",_zhisuan_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="35" t="str">
+      <c r="AQ14" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO8="","",_zhisuan_day_hour!AO8)</f>
         <v/>
       </c>
       <c r="AR14"/>
     </row>
     <row r="15" customFormat="1" spans="2:43">
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>0.291666666666667</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A9="","",_zhisuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B9="","",_zhisuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C9="","",_zhisuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D9="","",_zhisuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E9="","",_zhisuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="16" t="str">
+      <c r="H15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F9="","",_zhisuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G9="","",_zhisuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H9="","",_zhisuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I9="","",_zhisuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J9="","",_zhisuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K9="","",_zhisuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="16" t="str">
+      <c r="N15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L9="","",_zhisuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="16" t="str">
+      <c r="O15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M9="","",_zhisuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="16" t="str">
+      <c r="P15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N9="","",_zhisuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="16" t="str">
+      <c r="Q15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O9="","",_zhisuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="16" t="str">
+      <c r="R15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P9="","",_zhisuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="16" t="str">
+      <c r="S15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q9="","",_zhisuan_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="16" t="str">
+      <c r="T15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R9="","",_zhisuan_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="16" t="str">
+      <c r="U15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S9="","",_zhisuan_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="16" t="str">
+      <c r="V15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T9="","",_zhisuan_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="16" t="str">
+      <c r="W15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U9="","",_zhisuan_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="16" t="str">
+      <c r="X15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V9="","",_zhisuan_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="16" t="str">
+      <c r="Y15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W9="","",_zhisuan_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="16" t="str">
+      <c r="Z15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X9="","",_zhisuan_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="16" t="str">
+      <c r="AA15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y9="","",_zhisuan_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="16" t="str">
+      <c r="AB15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z9="","",_zhisuan_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="16" t="str">
+      <c r="AC15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA9="","",_zhisuan_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="16" t="str">
+      <c r="AD15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB9="","",_zhisuan_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="16" t="str">
+      <c r="AE15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC9="","",_zhisuan_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="16" t="str">
+      <c r="AF15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD9="","",_zhisuan_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="16" t="str">
+      <c r="AG15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE9="","",_zhisuan_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="16" t="str">
+      <c r="AH15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF9="","",_zhisuan_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="16" t="str">
+      <c r="AI15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG9="","",_zhisuan_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="16" t="str">
+      <c r="AJ15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH9="","",_zhisuan_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="16" t="str">
+      <c r="AK15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI9="","",_zhisuan_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="16" t="str">
+      <c r="AL15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ9="","",_zhisuan_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="16" t="str">
+      <c r="AM15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK9="","",_zhisuan_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="16" t="str">
+      <c r="AN15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL9="","",_zhisuan_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="16" t="str">
+      <c r="AO15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM9="","",_zhisuan_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="16" t="str">
+      <c r="AP15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN9="","",_zhisuan_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="35" t="str">
+      <c r="AQ15" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO9="","",_zhisuan_day_hour!AO9)</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:43">
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A10="","",_zhisuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B10="","",_zhisuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C10="","",_zhisuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D10="","",_zhisuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E10="","",_zhisuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F10="","",_zhisuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G10="","",_zhisuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H10="","",_zhisuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="16" t="str">
+      <c r="K16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I10="","",_zhisuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J10="","",_zhisuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="16" t="str">
+      <c r="M16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K10="","",_zhisuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L10="","",_zhisuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="16" t="str">
+      <c r="O16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M10="","",_zhisuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="16" t="str">
+      <c r="P16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N10="","",_zhisuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="16" t="str">
+      <c r="Q16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O10="","",_zhisuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="16" t="str">
+      <c r="R16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P10="","",_zhisuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="16" t="str">
+      <c r="S16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q10="","",_zhisuan_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="16" t="str">
+      <c r="T16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R10="","",_zhisuan_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="16" t="str">
+      <c r="U16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S10="","",_zhisuan_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="16" t="str">
+      <c r="V16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T10="","",_zhisuan_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="16" t="str">
+      <c r="W16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U10="","",_zhisuan_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="16" t="str">
+      <c r="X16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V10="","",_zhisuan_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="16" t="str">
+      <c r="Y16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W10="","",_zhisuan_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="16" t="str">
+      <c r="Z16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X10="","",_zhisuan_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="16" t="str">
+      <c r="AA16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y10="","",_zhisuan_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="16" t="str">
+      <c r="AB16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z10="","",_zhisuan_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="16" t="str">
+      <c r="AC16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA10="","",_zhisuan_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="16" t="str">
+      <c r="AD16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB10="","",_zhisuan_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="16" t="str">
+      <c r="AE16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC10="","",_zhisuan_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="16" t="str">
+      <c r="AF16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD10="","",_zhisuan_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="16" t="str">
+      <c r="AG16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE10="","",_zhisuan_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="16" t="str">
+      <c r="AH16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF10="","",_zhisuan_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="16" t="str">
+      <c r="AI16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG10="","",_zhisuan_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="16" t="str">
+      <c r="AJ16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH10="","",_zhisuan_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="16" t="str">
+      <c r="AK16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI10="","",_zhisuan_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="16" t="str">
+      <c r="AL16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ10="","",_zhisuan_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="16" t="str">
+      <c r="AM16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK10="","",_zhisuan_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="16" t="str">
+      <c r="AN16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL10="","",_zhisuan_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="16" t="str">
+      <c r="AO16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM10="","",_zhisuan_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="16" t="str">
+      <c r="AP16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN10="","",_zhisuan_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="35" t="str">
+      <c r="AQ16" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO10="","",_zhisuan_day_hour!AO10)</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:43">
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>0.375</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A11="","",_zhisuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B11="","",_zhisuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C11="","",_zhisuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D11="","",_zhisuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E11="","",_zhisuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="16" t="str">
+      <c r="H17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F11="","",_zhisuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G11="","",_zhisuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H11="","",_zhisuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="16" t="str">
+      <c r="K17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I11="","",_zhisuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J11="","",_zhisuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K11="","",_zhisuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L11="","",_zhisuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="16" t="str">
+      <c r="O17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M11="","",_zhisuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="16" t="str">
+      <c r="P17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N11="","",_zhisuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="16" t="str">
+      <c r="Q17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O11="","",_zhisuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="16" t="str">
+      <c r="R17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P11="","",_zhisuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="16" t="str">
+      <c r="S17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q11="","",_zhisuan_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="16" t="str">
+      <c r="T17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R11="","",_zhisuan_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="16" t="str">
+      <c r="U17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S11="","",_zhisuan_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="16" t="str">
+      <c r="V17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T11="","",_zhisuan_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="16" t="str">
+      <c r="W17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U11="","",_zhisuan_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="16" t="str">
+      <c r="X17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V11="","",_zhisuan_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="16" t="str">
+      <c r="Y17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W11="","",_zhisuan_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="16" t="str">
+      <c r="Z17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X11="","",_zhisuan_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="16" t="str">
+      <c r="AA17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y11="","",_zhisuan_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="16" t="str">
+      <c r="AB17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z11="","",_zhisuan_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="16" t="str">
+      <c r="AC17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA11="","",_zhisuan_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="16" t="str">
+      <c r="AD17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB11="","",_zhisuan_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="16" t="str">
+      <c r="AE17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC11="","",_zhisuan_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="16" t="str">
+      <c r="AF17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD11="","",_zhisuan_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="16" t="str">
+      <c r="AG17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE11="","",_zhisuan_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="16" t="str">
+      <c r="AH17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF11="","",_zhisuan_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="16" t="str">
+      <c r="AI17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG11="","",_zhisuan_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="16" t="str">
+      <c r="AJ17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH11="","",_zhisuan_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="16" t="str">
+      <c r="AK17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI11="","",_zhisuan_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="16" t="str">
+      <c r="AL17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ11="","",_zhisuan_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="16" t="str">
+      <c r="AM17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK11="","",_zhisuan_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="16" t="str">
+      <c r="AN17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL11="","",_zhisuan_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="16" t="str">
+      <c r="AO17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM11="","",_zhisuan_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="16" t="str">
+      <c r="AP17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN11="","",_zhisuan_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="35" t="str">
+      <c r="AQ17" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO11="","",_zhisuan_day_hour!AO11)</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:43">
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>0.416666666666666</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A12="","",_zhisuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B12="","",_zhisuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C12="","",_zhisuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D12="","",_zhisuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E12="","",_zhisuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F12="","",_zhisuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G12="","",_zhisuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H12="","",_zhisuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I12="","",_zhisuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J12="","",_zhisuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K12="","",_zhisuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L12="","",_zhisuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M12="","",_zhisuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="16" t="str">
+      <c r="P18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N12="","",_zhisuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="16" t="str">
+      <c r="Q18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O12="","",_zhisuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="16" t="str">
+      <c r="R18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P12="","",_zhisuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="16" t="str">
+      <c r="S18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q12="","",_zhisuan_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="16" t="str">
+      <c r="T18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R12="","",_zhisuan_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="16" t="str">
+      <c r="U18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S12="","",_zhisuan_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="16" t="str">
+      <c r="V18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T12="","",_zhisuan_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="16" t="str">
+      <c r="W18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U12="","",_zhisuan_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="16" t="str">
+      <c r="X18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V12="","",_zhisuan_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="16" t="str">
+      <c r="Y18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W12="","",_zhisuan_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="16" t="str">
+      <c r="Z18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X12="","",_zhisuan_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="16" t="str">
+      <c r="AA18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y12="","",_zhisuan_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="16" t="str">
+      <c r="AB18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z12="","",_zhisuan_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="16" t="str">
+      <c r="AC18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA12="","",_zhisuan_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="16" t="str">
+      <c r="AD18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB12="","",_zhisuan_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="16" t="str">
+      <c r="AE18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC12="","",_zhisuan_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="16" t="str">
+      <c r="AF18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD12="","",_zhisuan_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="16" t="str">
+      <c r="AG18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE12="","",_zhisuan_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="16" t="str">
+      <c r="AH18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF12="","",_zhisuan_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="16" t="str">
+      <c r="AI18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG12="","",_zhisuan_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="16" t="str">
+      <c r="AJ18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH12="","",_zhisuan_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="16" t="str">
+      <c r="AK18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI12="","",_zhisuan_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="16" t="str">
+      <c r="AL18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ12="","",_zhisuan_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="16" t="str">
+      <c r="AM18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK12="","",_zhisuan_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="16" t="str">
+      <c r="AN18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL12="","",_zhisuan_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="16" t="str">
+      <c r="AO18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM12="","",_zhisuan_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="16" t="str">
+      <c r="AP18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN12="","",_zhisuan_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="35" t="str">
+      <c r="AQ18" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO12="","",_zhisuan_day_hour!AO12)</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:43">
-      <c r="B19" s="15">
+      <c r="B19" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A13="","",_zhisuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B13="","",_zhisuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C13="","",_zhisuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D13="","",_zhisuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E13="","",_zhisuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F13="","",_zhisuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G13="","",_zhisuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H13="","",_zhisuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I13="","",_zhisuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J13="","",_zhisuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K13="","",_zhisuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L13="","",_zhisuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M13="","",_zhisuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="16" t="str">
+      <c r="P19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N13="","",_zhisuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="16" t="str">
+      <c r="Q19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O13="","",_zhisuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="16" t="str">
+      <c r="R19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P13="","",_zhisuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="16" t="str">
+      <c r="S19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q13="","",_zhisuan_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="16" t="str">
+      <c r="T19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R13="","",_zhisuan_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="16" t="str">
+      <c r="U19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S13="","",_zhisuan_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="16" t="str">
+      <c r="V19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T13="","",_zhisuan_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="16" t="str">
+      <c r="W19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U13="","",_zhisuan_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="16" t="str">
+      <c r="X19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V13="","",_zhisuan_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="16" t="str">
+      <c r="Y19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W13="","",_zhisuan_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="16" t="str">
+      <c r="Z19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X13="","",_zhisuan_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="16" t="str">
+      <c r="AA19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y13="","",_zhisuan_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="16" t="str">
+      <c r="AB19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z13="","",_zhisuan_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="16" t="str">
+      <c r="AC19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA13="","",_zhisuan_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="16" t="str">
+      <c r="AD19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB13="","",_zhisuan_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="16" t="str">
+      <c r="AE19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC13="","",_zhisuan_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="16" t="str">
+      <c r="AF19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD13="","",_zhisuan_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="16" t="str">
+      <c r="AG19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE13="","",_zhisuan_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="16" t="str">
+      <c r="AH19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF13="","",_zhisuan_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="16" t="str">
+      <c r="AI19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG13="","",_zhisuan_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="16" t="str">
+      <c r="AJ19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH13="","",_zhisuan_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="16" t="str">
+      <c r="AK19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI13="","",_zhisuan_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="16" t="str">
+      <c r="AL19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ13="","",_zhisuan_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="16" t="str">
+      <c r="AM19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK13="","",_zhisuan_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="16" t="str">
+      <c r="AN19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL13="","",_zhisuan_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="16" t="str">
+      <c r="AO19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM13="","",_zhisuan_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="16" t="str">
+      <c r="AP19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN13="","",_zhisuan_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="35" t="str">
+      <c r="AQ19" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO13="","",_zhisuan_day_hour!AO13)</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:43">
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>0.5</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A14="","",_zhisuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B14="","",_zhisuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C14="","",_zhisuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D14="","",_zhisuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E14="","",_zhisuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F14="","",_zhisuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G14="","",_zhisuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H14="","",_zhisuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I14="","",_zhisuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J14="","",_zhisuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K14="","",_zhisuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L14="","",_zhisuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M14="","",_zhisuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="16" t="str">
+      <c r="P20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N14="","",_zhisuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="16" t="str">
+      <c r="Q20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O14="","",_zhisuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="16" t="str">
+      <c r="R20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P14="","",_zhisuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="16" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q14="","",_zhisuan_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="16" t="str">
+      <c r="T20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R14="","",_zhisuan_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="16" t="str">
+      <c r="U20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S14="","",_zhisuan_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="16" t="str">
+      <c r="V20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T14="","",_zhisuan_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="16" t="str">
+      <c r="W20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U14="","",_zhisuan_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="16" t="str">
+      <c r="X20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V14="","",_zhisuan_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="16" t="str">
+      <c r="Y20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W14="","",_zhisuan_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="16" t="str">
+      <c r="Z20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X14="","",_zhisuan_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="16" t="str">
+      <c r="AA20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y14="","",_zhisuan_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="16" t="str">
+      <c r="AB20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z14="","",_zhisuan_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="16" t="str">
+      <c r="AC20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA14="","",_zhisuan_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="16" t="str">
+      <c r="AD20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB14="","",_zhisuan_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="16" t="str">
+      <c r="AE20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC14="","",_zhisuan_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="16" t="str">
+      <c r="AF20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD14="","",_zhisuan_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="16" t="str">
+      <c r="AG20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE14="","",_zhisuan_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="16" t="str">
+      <c r="AH20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF14="","",_zhisuan_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="16" t="str">
+      <c r="AI20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG14="","",_zhisuan_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="16" t="str">
+      <c r="AJ20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH14="","",_zhisuan_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="16" t="str">
+      <c r="AK20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI14="","",_zhisuan_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="16" t="str">
+      <c r="AL20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ14="","",_zhisuan_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="16" t="str">
+      <c r="AM20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK14="","",_zhisuan_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="16" t="str">
+      <c r="AN20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL14="","",_zhisuan_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="16" t="str">
+      <c r="AO20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM14="","",_zhisuan_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="16" t="str">
+      <c r="AP20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN14="","",_zhisuan_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="35" t="str">
+      <c r="AQ20" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO14="","",_zhisuan_day_hour!AO14)</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:43">
-      <c r="B21" s="15">
+      <c r="B21" s="16">
         <v>0.541666666666666</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A15="","",_zhisuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B15="","",_zhisuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C15="","",_zhisuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D15="","",_zhisuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E15="","",_zhisuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F15="","",_zhisuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G15="","",_zhisuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H15="","",_zhisuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I15="","",_zhisuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J15="","",_zhisuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K15="","",_zhisuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L15="","",_zhisuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M15="","",_zhisuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="16" t="str">
+      <c r="P21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N15="","",_zhisuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="16" t="str">
+      <c r="Q21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O15="","",_zhisuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="16" t="str">
+      <c r="R21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P15="","",_zhisuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="16" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q15="","",_zhisuan_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="16" t="str">
+      <c r="T21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R15="","",_zhisuan_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="16" t="str">
+      <c r="U21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S15="","",_zhisuan_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="16" t="str">
+      <c r="V21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T15="","",_zhisuan_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="16" t="str">
+      <c r="W21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U15="","",_zhisuan_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="16" t="str">
+      <c r="X21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V15="","",_zhisuan_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="16" t="str">
+      <c r="Y21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W15="","",_zhisuan_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="16" t="str">
+      <c r="Z21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X15="","",_zhisuan_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="16" t="str">
+      <c r="AA21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y15="","",_zhisuan_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="16" t="str">
+      <c r="AB21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z15="","",_zhisuan_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="16" t="str">
+      <c r="AC21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA15="","",_zhisuan_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="16" t="str">
+      <c r="AD21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB15="","",_zhisuan_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="16" t="str">
+      <c r="AE21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC15="","",_zhisuan_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="16" t="str">
+      <c r="AF21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD15="","",_zhisuan_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="16" t="str">
+      <c r="AG21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE15="","",_zhisuan_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="16" t="str">
+      <c r="AH21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF15="","",_zhisuan_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="16" t="str">
+      <c r="AI21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG15="","",_zhisuan_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="16" t="str">
+      <c r="AJ21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH15="","",_zhisuan_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="16" t="str">
+      <c r="AK21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI15="","",_zhisuan_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="16" t="str">
+      <c r="AL21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ15="","",_zhisuan_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="16" t="str">
+      <c r="AM21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK15="","",_zhisuan_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="16" t="str">
+      <c r="AN21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL15="","",_zhisuan_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="16" t="str">
+      <c r="AO21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM15="","",_zhisuan_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="16" t="str">
+      <c r="AP21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN15="","",_zhisuan_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="35" t="str">
+      <c r="AQ21" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO15="","",_zhisuan_day_hour!AO15)</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:43">
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <v>0.583333333333333</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A16="","",_zhisuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B16="","",_zhisuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C16="","",_zhisuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D16="","",_zhisuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E16="","",_zhisuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F16="","",_zhisuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G16="","",_zhisuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H16="","",_zhisuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I16="","",_zhisuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J16="","",_zhisuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K16="","",_zhisuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L16="","",_zhisuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M16="","",_zhisuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="16" t="str">
+      <c r="P22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N16="","",_zhisuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="16" t="str">
+      <c r="Q22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O16="","",_zhisuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="16" t="str">
+      <c r="R22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P16="","",_zhisuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="16" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q16="","",_zhisuan_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="16" t="str">
+      <c r="T22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R16="","",_zhisuan_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="16" t="str">
+      <c r="U22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S16="","",_zhisuan_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="16" t="str">
+      <c r="V22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T16="","",_zhisuan_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="16" t="str">
+      <c r="W22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U16="","",_zhisuan_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="16" t="str">
+      <c r="X22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V16="","",_zhisuan_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="16" t="str">
+      <c r="Y22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W16="","",_zhisuan_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="16" t="str">
+      <c r="Z22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X16="","",_zhisuan_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="16" t="str">
+      <c r="AA22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y16="","",_zhisuan_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="16" t="str">
+      <c r="AB22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z16="","",_zhisuan_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="16" t="str">
+      <c r="AC22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA16="","",_zhisuan_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="16" t="str">
+      <c r="AD22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB16="","",_zhisuan_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="16" t="str">
+      <c r="AE22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC16="","",_zhisuan_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="16" t="str">
+      <c r="AF22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD16="","",_zhisuan_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="16" t="str">
+      <c r="AG22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE16="","",_zhisuan_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="16" t="str">
+      <c r="AH22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF16="","",_zhisuan_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="16" t="str">
+      <c r="AI22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG16="","",_zhisuan_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="16" t="str">
+      <c r="AJ22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH16="","",_zhisuan_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="16" t="str">
+      <c r="AK22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI16="","",_zhisuan_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="16" t="str">
+      <c r="AL22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ16="","",_zhisuan_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="16" t="str">
+      <c r="AM22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK16="","",_zhisuan_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="16" t="str">
+      <c r="AN22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL16="","",_zhisuan_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="16" t="str">
+      <c r="AO22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM16="","",_zhisuan_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="16" t="str">
+      <c r="AP22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN16="","",_zhisuan_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="35" t="str">
+      <c r="AQ22" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO16="","",_zhisuan_day_hour!AO16)</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:43">
-      <c r="B23" s="15">
+      <c r="B23" s="16">
         <v>0.625</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A17="","",_zhisuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B17="","",_zhisuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C17="","",_zhisuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D17="","",_zhisuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E17="","",_zhisuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F17="","",_zhisuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G17="","",_zhisuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H17="","",_zhisuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I17="","",_zhisuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J17="","",_zhisuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K17="","",_zhisuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L17="","",_zhisuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M17="","",_zhisuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="16" t="str">
+      <c r="P23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N17="","",_zhisuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="16" t="str">
+      <c r="Q23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O17="","",_zhisuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="16" t="str">
+      <c r="R23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P17="","",_zhisuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="16" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q17="","",_zhisuan_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="16" t="str">
+      <c r="T23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R17="","",_zhisuan_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="16" t="str">
+      <c r="U23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S17="","",_zhisuan_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="16" t="str">
+      <c r="V23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T17="","",_zhisuan_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="16" t="str">
+      <c r="W23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U17="","",_zhisuan_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="16" t="str">
+      <c r="X23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V17="","",_zhisuan_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="16" t="str">
+      <c r="Y23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W17="","",_zhisuan_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="16" t="str">
+      <c r="Z23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X17="","",_zhisuan_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="16" t="str">
+      <c r="AA23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y17="","",_zhisuan_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="16" t="str">
+      <c r="AB23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z17="","",_zhisuan_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="16" t="str">
+      <c r="AC23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA17="","",_zhisuan_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="16" t="str">
+      <c r="AD23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB17="","",_zhisuan_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="16" t="str">
+      <c r="AE23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC17="","",_zhisuan_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="16" t="str">
+      <c r="AF23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD17="","",_zhisuan_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="16" t="str">
+      <c r="AG23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE17="","",_zhisuan_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="16" t="str">
+      <c r="AH23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF17="","",_zhisuan_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="16" t="str">
+      <c r="AI23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG17="","",_zhisuan_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="16" t="str">
+      <c r="AJ23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH17="","",_zhisuan_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="16" t="str">
+      <c r="AK23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI17="","",_zhisuan_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="16" t="str">
+      <c r="AL23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ17="","",_zhisuan_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="16" t="str">
+      <c r="AM23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK17="","",_zhisuan_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="16" t="str">
+      <c r="AN23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL17="","",_zhisuan_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="16" t="str">
+      <c r="AO23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM17="","",_zhisuan_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="16" t="str">
+      <c r="AP23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN17="","",_zhisuan_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="35" t="str">
+      <c r="AQ23" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO17="","",_zhisuan_day_hour!AO17)</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:43">
-      <c r="B24" s="15">
+      <c r="B24" s="16">
         <v>0.666666666666667</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A18="","",_zhisuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B18="","",_zhisuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C18="","",_zhisuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D18="","",_zhisuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E18="","",_zhisuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F18="","",_zhisuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G18="","",_zhisuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H18="","",_zhisuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I18="","",_zhisuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J18="","",_zhisuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K18="","",_zhisuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L18="","",_zhisuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M18="","",_zhisuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="16" t="str">
+      <c r="P24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N18="","",_zhisuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="16" t="str">
+      <c r="Q24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O18="","",_zhisuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="16" t="str">
+      <c r="R24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P18="","",_zhisuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="16" t="str">
+      <c r="S24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q18="","",_zhisuan_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="16" t="str">
+      <c r="T24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R18="","",_zhisuan_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="16" t="str">
+      <c r="U24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S18="","",_zhisuan_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="16" t="str">
+      <c r="V24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T18="","",_zhisuan_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="16" t="str">
+      <c r="W24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U18="","",_zhisuan_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="16" t="str">
+      <c r="X24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V18="","",_zhisuan_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="16" t="str">
+      <c r="Y24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W18="","",_zhisuan_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="16" t="str">
+      <c r="Z24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X18="","",_zhisuan_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="16" t="str">
+      <c r="AA24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y18="","",_zhisuan_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="16" t="str">
+      <c r="AB24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z18="","",_zhisuan_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="16" t="str">
+      <c r="AC24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA18="","",_zhisuan_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="16" t="str">
+      <c r="AD24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB18="","",_zhisuan_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="16" t="str">
+      <c r="AE24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC18="","",_zhisuan_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="16" t="str">
+      <c r="AF24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD18="","",_zhisuan_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="16" t="str">
+      <c r="AG24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE18="","",_zhisuan_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="16" t="str">
+      <c r="AH24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF18="","",_zhisuan_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="16" t="str">
+      <c r="AI24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG18="","",_zhisuan_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="16" t="str">
+      <c r="AJ24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH18="","",_zhisuan_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="16" t="str">
+      <c r="AK24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI18="","",_zhisuan_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="16" t="str">
+      <c r="AL24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ18="","",_zhisuan_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="16" t="str">
+      <c r="AM24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK18="","",_zhisuan_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="16" t="str">
+      <c r="AN24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL18="","",_zhisuan_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="16" t="str">
+      <c r="AO24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM18="","",_zhisuan_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="16" t="str">
+      <c r="AP24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN18="","",_zhisuan_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="35" t="str">
+      <c r="AQ24" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO18="","",_zhisuan_day_hour!AO18)</f>
         <v/>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:43">
-      <c r="B25" s="15">
+      <c r="B25" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A19="","",_zhisuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B19="","",_zhisuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C19="","",_zhisuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D19="","",_zhisuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E19="","",_zhisuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F19="","",_zhisuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G19="","",_zhisuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H19="","",_zhisuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I19="","",_zhisuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J19="","",_zhisuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K19="","",_zhisuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="16" t="str">
+      <c r="N25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L19="","",_zhisuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M19="","",_zhisuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="16" t="str">
+      <c r="P25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N19="","",_zhisuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="16" t="str">
+      <c r="Q25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O19="","",_zhisuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="16" t="str">
+      <c r="R25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P19="","",_zhisuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="16" t="str">
+      <c r="S25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q19="","",_zhisuan_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="16" t="str">
+      <c r="T25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R19="","",_zhisuan_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="16" t="str">
+      <c r="U25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S19="","",_zhisuan_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="16" t="str">
+      <c r="V25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T19="","",_zhisuan_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="16" t="str">
+      <c r="W25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U19="","",_zhisuan_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="16" t="str">
+      <c r="X25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V19="","",_zhisuan_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="16" t="str">
+      <c r="Y25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W19="","",_zhisuan_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="16" t="str">
+      <c r="Z25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X19="","",_zhisuan_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="16" t="str">
+      <c r="AA25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y19="","",_zhisuan_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="16" t="str">
+      <c r="AB25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z19="","",_zhisuan_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="16" t="str">
+      <c r="AC25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA19="","",_zhisuan_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="16" t="str">
+      <c r="AD25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB19="","",_zhisuan_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="16" t="str">
+      <c r="AE25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC19="","",_zhisuan_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="16" t="str">
+      <c r="AF25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD19="","",_zhisuan_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="16" t="str">
+      <c r="AG25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE19="","",_zhisuan_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="16" t="str">
+      <c r="AH25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF19="","",_zhisuan_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="16" t="str">
+      <c r="AI25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG19="","",_zhisuan_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="16" t="str">
+      <c r="AJ25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH19="","",_zhisuan_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="16" t="str">
+      <c r="AK25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI19="","",_zhisuan_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="16" t="str">
+      <c r="AL25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ19="","",_zhisuan_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="16" t="str">
+      <c r="AM25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK19="","",_zhisuan_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="16" t="str">
+      <c r="AN25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL19="","",_zhisuan_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="16" t="str">
+      <c r="AO25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM19="","",_zhisuan_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="16" t="str">
+      <c r="AP25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN19="","",_zhisuan_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="35" t="str">
+      <c r="AQ25" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO19="","",_zhisuan_day_hour!AO19)</f>
         <v/>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:43">
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>0.75</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A20="","",_zhisuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B20="","",_zhisuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C20="","",_zhisuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D20="","",_zhisuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E20="","",_zhisuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F20="","",_zhisuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G20="","",_zhisuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H20="","",_zhisuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I20="","",_zhisuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J20="","",_zhisuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K20="","",_zhisuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="16" t="str">
+      <c r="N26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L20="","",_zhisuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="16" t="str">
+      <c r="O26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M20="","",_zhisuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="16" t="str">
+      <c r="P26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N20="","",_zhisuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="16" t="str">
+      <c r="Q26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O20="","",_zhisuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="16" t="str">
+      <c r="R26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P20="","",_zhisuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="16" t="str">
+      <c r="S26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q20="","",_zhisuan_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="16" t="str">
+      <c r="T26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R20="","",_zhisuan_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="16" t="str">
+      <c r="U26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S20="","",_zhisuan_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="16" t="str">
+      <c r="V26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T20="","",_zhisuan_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="16" t="str">
+      <c r="W26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U20="","",_zhisuan_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="16" t="str">
+      <c r="X26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V20="","",_zhisuan_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="16" t="str">
+      <c r="Y26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W20="","",_zhisuan_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="16" t="str">
+      <c r="Z26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X20="","",_zhisuan_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="16" t="str">
+      <c r="AA26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y20="","",_zhisuan_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="16" t="str">
+      <c r="AB26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z20="","",_zhisuan_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="16" t="str">
+      <c r="AC26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA20="","",_zhisuan_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="16" t="str">
+      <c r="AD26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB20="","",_zhisuan_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="16" t="str">
+      <c r="AE26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC20="","",_zhisuan_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="16" t="str">
+      <c r="AF26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD20="","",_zhisuan_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="16" t="str">
+      <c r="AG26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE20="","",_zhisuan_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="16" t="str">
+      <c r="AH26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF20="","",_zhisuan_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="16" t="str">
+      <c r="AI26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG20="","",_zhisuan_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="16" t="str">
+      <c r="AJ26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH20="","",_zhisuan_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="16" t="str">
+      <c r="AK26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI20="","",_zhisuan_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="16" t="str">
+      <c r="AL26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ20="","",_zhisuan_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="16" t="str">
+      <c r="AM26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK20="","",_zhisuan_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="16" t="str">
+      <c r="AN26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL20="","",_zhisuan_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="16" t="str">
+      <c r="AO26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM20="","",_zhisuan_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="16" t="str">
+      <c r="AP26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN20="","",_zhisuan_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="35" t="str">
+      <c r="AQ26" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO20="","",_zhisuan_day_hour!AO20)</f>
         <v/>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:43">
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A21="","",_zhisuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B21="","",_zhisuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C21="","",_zhisuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D21="","",_zhisuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E21="","",_zhisuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F21="","",_zhisuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G21="","",_zhisuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H21="","",_zhisuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I21="","",_zhisuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J21="","",_zhisuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K21="","",_zhisuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="16" t="str">
+      <c r="N27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L21="","",_zhisuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="16" t="str">
+      <c r="O27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M21="","",_zhisuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="16" t="str">
+      <c r="P27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N21="","",_zhisuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="16" t="str">
+      <c r="Q27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O21="","",_zhisuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="16" t="str">
+      <c r="R27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P21="","",_zhisuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="16" t="str">
+      <c r="S27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q21="","",_zhisuan_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="16" t="str">
+      <c r="T27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R21="","",_zhisuan_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="16" t="str">
+      <c r="U27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S21="","",_zhisuan_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="16" t="str">
+      <c r="V27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T21="","",_zhisuan_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="16" t="str">
+      <c r="W27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U21="","",_zhisuan_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="16" t="str">
+      <c r="X27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V21="","",_zhisuan_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="16" t="str">
+      <c r="Y27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W21="","",_zhisuan_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="16" t="str">
+      <c r="Z27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X21="","",_zhisuan_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="16" t="str">
+      <c r="AA27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y21="","",_zhisuan_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="16" t="str">
+      <c r="AB27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z21="","",_zhisuan_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="16" t="str">
+      <c r="AC27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA21="","",_zhisuan_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="16" t="str">
+      <c r="AD27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB21="","",_zhisuan_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="16" t="str">
+      <c r="AE27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC21="","",_zhisuan_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="16" t="str">
+      <c r="AF27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD21="","",_zhisuan_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="16" t="str">
+      <c r="AG27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE21="","",_zhisuan_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="16" t="str">
+      <c r="AH27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF21="","",_zhisuan_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="16" t="str">
+      <c r="AI27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG21="","",_zhisuan_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="16" t="str">
+      <c r="AJ27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH21="","",_zhisuan_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="16" t="str">
+      <c r="AK27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI21="","",_zhisuan_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="16" t="str">
+      <c r="AL27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ21="","",_zhisuan_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="16" t="str">
+      <c r="AM27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK21="","",_zhisuan_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="16" t="str">
+      <c r="AN27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL21="","",_zhisuan_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="16" t="str">
+      <c r="AO27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM21="","",_zhisuan_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="16" t="str">
+      <c r="AP27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN21="","",_zhisuan_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="35" t="str">
+      <c r="AQ27" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO21="","",_zhisuan_day_hour!AO21)</f>
         <v/>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:43">
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>0.833333333333333</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A22="","",_zhisuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B22="","",_zhisuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C22="","",_zhisuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D22="","",_zhisuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E22="","",_zhisuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F22="","",_zhisuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G22="","",_zhisuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H22="","",_zhisuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I22="","",_zhisuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J22="","",_zhisuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K22="","",_zhisuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L22="","",_zhisuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="16" t="str">
+      <c r="O28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M22="","",_zhisuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="16" t="str">
+      <c r="P28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N22="","",_zhisuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="16" t="str">
+      <c r="Q28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O22="","",_zhisuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="16" t="str">
+      <c r="R28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P22="","",_zhisuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="16" t="str">
+      <c r="S28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q22="","",_zhisuan_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="16" t="str">
+      <c r="T28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R22="","",_zhisuan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="16" t="str">
+      <c r="U28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S22="","",_zhisuan_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="16" t="str">
+      <c r="V28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T22="","",_zhisuan_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="16" t="str">
+      <c r="W28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U22="","",_zhisuan_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="16" t="str">
+      <c r="X28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V22="","",_zhisuan_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="16" t="str">
+      <c r="Y28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W22="","",_zhisuan_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="16" t="str">
+      <c r="Z28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X22="","",_zhisuan_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="16" t="str">
+      <c r="AA28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y22="","",_zhisuan_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="16" t="str">
+      <c r="AB28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z22="","",_zhisuan_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="16" t="str">
+      <c r="AC28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA22="","",_zhisuan_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="16" t="str">
+      <c r="AD28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB22="","",_zhisuan_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="16" t="str">
+      <c r="AE28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC22="","",_zhisuan_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="16" t="str">
+      <c r="AF28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD22="","",_zhisuan_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="16" t="str">
+      <c r="AG28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE22="","",_zhisuan_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="16" t="str">
+      <c r="AH28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF22="","",_zhisuan_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="16" t="str">
+      <c r="AI28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG22="","",_zhisuan_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="16" t="str">
+      <c r="AJ28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH22="","",_zhisuan_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="16" t="str">
+      <c r="AK28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI22="","",_zhisuan_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="16" t="str">
+      <c r="AL28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ22="","",_zhisuan_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="16" t="str">
+      <c r="AM28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK22="","",_zhisuan_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="16" t="str">
+      <c r="AN28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL22="","",_zhisuan_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="16" t="str">
+      <c r="AO28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM22="","",_zhisuan_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="16" t="str">
+      <c r="AP28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN22="","",_zhisuan_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="35" t="str">
+      <c r="AQ28" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO22="","",_zhisuan_day_hour!AO22)</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:43">
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>0.875</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A23="","",_zhisuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B23="","",_zhisuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C23="","",_zhisuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D23="","",_zhisuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E23="","",_zhisuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F23="","",_zhisuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G23="","",_zhisuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H23="","",_zhisuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I23="","",_zhisuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J23="","",_zhisuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K23="","",_zhisuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L23="","",_zhisuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="16" t="str">
+      <c r="O29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M23="","",_zhisuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="16" t="str">
+      <c r="P29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N23="","",_zhisuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="16" t="str">
+      <c r="Q29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O23="","",_zhisuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="16" t="str">
+      <c r="R29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P23="","",_zhisuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="16" t="str">
+      <c r="S29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q23="","",_zhisuan_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="16" t="str">
+      <c r="T29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R23="","",_zhisuan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="16" t="str">
+      <c r="U29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S23="","",_zhisuan_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="16" t="str">
+      <c r="V29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T23="","",_zhisuan_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="16" t="str">
+      <c r="W29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U23="","",_zhisuan_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="16" t="str">
+      <c r="X29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V23="","",_zhisuan_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="16" t="str">
+      <c r="Y29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W23="","",_zhisuan_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="16" t="str">
+      <c r="Z29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X23="","",_zhisuan_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="16" t="str">
+      <c r="AA29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y23="","",_zhisuan_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="16" t="str">
+      <c r="AB29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z23="","",_zhisuan_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="16" t="str">
+      <c r="AC29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA23="","",_zhisuan_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="16" t="str">
+      <c r="AD29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB23="","",_zhisuan_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="16" t="str">
+      <c r="AE29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC23="","",_zhisuan_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="16" t="str">
+      <c r="AF29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD23="","",_zhisuan_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="16" t="str">
+      <c r="AG29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE23="","",_zhisuan_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="16" t="str">
+      <c r="AH29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF23="","",_zhisuan_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="16" t="str">
+      <c r="AI29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG23="","",_zhisuan_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="16" t="str">
+      <c r="AJ29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH23="","",_zhisuan_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="16" t="str">
+      <c r="AK29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI23="","",_zhisuan_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="16" t="str">
+      <c r="AL29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ23="","",_zhisuan_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="16" t="str">
+      <c r="AM29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK23="","",_zhisuan_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="16" t="str">
+      <c r="AN29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL23="","",_zhisuan_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="16" t="str">
+      <c r="AO29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM23="","",_zhisuan_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="16" t="str">
+      <c r="AP29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN23="","",_zhisuan_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="35" t="str">
+      <c r="AQ29" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO23="","",_zhisuan_day_hour!AO23)</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:43">
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>0.916666666666667</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A24="","",_zhisuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B24="","",_zhisuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="16" t="str">
+      <c r="E30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C24="","",_zhisuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D24="","",_zhisuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E24="","",_zhisuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="16" t="str">
+      <c r="H30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F24="","",_zhisuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="16" t="str">
+      <c r="I30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G24="","",_zhisuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="16" t="str">
+      <c r="J30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H24="","",_zhisuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="16" t="str">
+      <c r="K30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I24="","",_zhisuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J24="","",_zhisuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="16" t="str">
+      <c r="M30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K24="","",_zhisuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="16" t="str">
+      <c r="N30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L24="","",_zhisuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="16" t="str">
+      <c r="O30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M24="","",_zhisuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="16" t="str">
+      <c r="P30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N24="","",_zhisuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="16" t="str">
+      <c r="Q30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O24="","",_zhisuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="16" t="str">
+      <c r="R30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P24="","",_zhisuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="16" t="str">
+      <c r="S30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q24="","",_zhisuan_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="16" t="str">
+      <c r="T30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R24="","",_zhisuan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="16" t="str">
+      <c r="U30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S24="","",_zhisuan_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="16" t="str">
+      <c r="V30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T24="","",_zhisuan_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="16" t="str">
+      <c r="W30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U24="","",_zhisuan_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="16" t="str">
+      <c r="X30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V24="","",_zhisuan_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="16" t="str">
+      <c r="Y30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W24="","",_zhisuan_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="16" t="str">
+      <c r="Z30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X24="","",_zhisuan_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="16" t="str">
+      <c r="AA30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y24="","",_zhisuan_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="16" t="str">
+      <c r="AB30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z24="","",_zhisuan_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="16" t="str">
+      <c r="AC30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA24="","",_zhisuan_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="16" t="str">
+      <c r="AD30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB24="","",_zhisuan_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="16" t="str">
+      <c r="AE30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC24="","",_zhisuan_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="16" t="str">
+      <c r="AF30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD24="","",_zhisuan_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="16" t="str">
+      <c r="AG30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE24="","",_zhisuan_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="16" t="str">
+      <c r="AH30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF24="","",_zhisuan_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="16" t="str">
+      <c r="AI30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG24="","",_zhisuan_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="16" t="str">
+      <c r="AJ30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH24="","",_zhisuan_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="16" t="str">
+      <c r="AK30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI24="","",_zhisuan_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="16" t="str">
+      <c r="AL30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ24="","",_zhisuan_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="16" t="str">
+      <c r="AM30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK24="","",_zhisuan_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="16" t="str">
+      <c r="AN30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL24="","",_zhisuan_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="16" t="str">
+      <c r="AO30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM24="","",_zhisuan_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="16" t="str">
+      <c r="AP30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN24="","",_zhisuan_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="35" t="str">
+      <c r="AQ30" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO24="","",_zhisuan_day_hour!AO24)</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:43">
-      <c r="B31" s="15">
+      <c r="B31" s="16">
         <v>0.958333333333333</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A25="","",_zhisuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="16" t="str">
+      <c r="D31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B25="","",_zhisuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="16" t="str">
+      <c r="E31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C25="","",_zhisuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="16" t="str">
+      <c r="F31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D25="","",_zhisuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="16" t="str">
+      <c r="G31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E25="","",_zhisuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="16" t="str">
+      <c r="H31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F25="","",_zhisuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="16" t="str">
+      <c r="I31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G25="","",_zhisuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="16" t="str">
+      <c r="J31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H25="","",_zhisuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="16" t="str">
+      <c r="K31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I25="","",_zhisuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="16" t="str">
+      <c r="L31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J25="","",_zhisuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="16" t="str">
+      <c r="M31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K25="","",_zhisuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="16" t="str">
+      <c r="N31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L25="","",_zhisuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="16" t="str">
+      <c r="O31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M25="","",_zhisuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="16" t="str">
+      <c r="P31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N25="","",_zhisuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="16" t="str">
+      <c r="Q31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O25="","",_zhisuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="16" t="str">
+      <c r="R31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P25="","",_zhisuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="16" t="str">
+      <c r="S31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q25="","",_zhisuan_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="16" t="str">
+      <c r="T31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R25="","",_zhisuan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="16" t="str">
+      <c r="U31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S25="","",_zhisuan_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="16" t="str">
+      <c r="V31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T25="","",_zhisuan_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="16" t="str">
+      <c r="W31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U25="","",_zhisuan_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="16" t="str">
+      <c r="X31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V25="","",_zhisuan_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="16" t="str">
+      <c r="Y31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W25="","",_zhisuan_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="16" t="str">
+      <c r="Z31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X25="","",_zhisuan_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="16" t="str">
+      <c r="AA31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y25="","",_zhisuan_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="16" t="str">
+      <c r="AB31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z25="","",_zhisuan_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="16" t="str">
+      <c r="AC31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA25="","",_zhisuan_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="16" t="str">
+      <c r="AD31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB25="","",_zhisuan_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="16" t="str">
+      <c r="AE31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC25="","",_zhisuan_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="16" t="str">
+      <c r="AF31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD25="","",_zhisuan_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="16" t="str">
+      <c r="AG31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE25="","",_zhisuan_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="16" t="str">
+      <c r="AH31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF25="","",_zhisuan_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="16" t="str">
+      <c r="AI31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG25="","",_zhisuan_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="16" t="str">
+      <c r="AJ31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH25="","",_zhisuan_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="16" t="str">
+      <c r="AK31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI25="","",_zhisuan_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="16" t="str">
+      <c r="AL31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ25="","",_zhisuan_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="16" t="str">
+      <c r="AM31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK25="","",_zhisuan_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="16" t="str">
+      <c r="AN31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL25="","",_zhisuan_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="16" t="str">
+      <c r="AO31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM25="","",_zhisuan_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="16" t="str">
+      <c r="AP31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN25="","",_zhisuan_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="35" t="str">
+      <c r="AQ31" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO25="","",_zhisuan_day_hour!AO25)</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:43">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="35"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="37"/>
     </row>
     <row r="33" customFormat="1" spans="2:43">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="35"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="37"/>
     </row>
     <row r="34" customFormat="1" spans="2:43">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="16"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="35"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="37"/>
     </row>
     <row r="35" customFormat="1" spans="2:43">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="35"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="37"/>
     </row>
     <row r="36" customFormat="1" ht="72.6" customHeight="1" spans="2:43">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="22" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="24" t="s">
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="16"/>
-      <c r="AK36" s="16"/>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="16"/>
-      <c r="AN36" s="16"/>
-      <c r="AO36" s="16"/>
-      <c r="AP36" s="16"/>
-      <c r="AQ36" s="35"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="37"/>
     </row>
     <row r="37" customFormat="1" ht="16.5" spans="2:43">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="23" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="26" t="s">
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="36"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="38"/>
     </row>
     <row r="38" customFormat="1"/>
     <row r="39" customFormat="1"/>
@@ -7160,9 +7090,11 @@
     <row r="42" customFormat="1"/>
     <row r="43" customFormat="1" ht="77.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
     <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="B2:AN2"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AE2:AK2"/>
     <mergeCell ref="C3:AQ3"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:Q4"/>

--- a/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="8.制酸操作（日）4.3m无此表" sheetId="1" r:id="rId1"/>
     <sheet name="_zhisuan_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -496,11 +494,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -572,15 +570,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,16 +586,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,6 +602,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,46 +683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -679,19 +691,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -700,18 +710,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -734,25 +732,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,55 +834,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,31 +864,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,37 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,45 +1163,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1222,8 +1181,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,6 +1207,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1268,10 +1266,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,136 +1278,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1962,19 +1960,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2236,7 +2221,7 @@
   <dimension ref="A1:AR43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AB2"/>
+      <selection activeCell="O2" sqref="O2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2304,9 +2289,9 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="23" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="O2" s="23">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
@@ -7295,4 +7280,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="8.制酸操作（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,6 +37,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t xml:space="preserve"> 制 酸 操 作 记 录</t>
   </si>
@@ -61,6 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -70,7 +73,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -79,6 +82,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,7 +364,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -369,6 +373,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -377,7 +382,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -387,7 +392,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -395,6 +400,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -404,6 +410,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -412,7 +419,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -422,7 +429,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -430,6 +437,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -439,6 +447,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -447,7 +456,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -457,7 +466,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -466,6 +475,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -474,7 +484,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -483,6 +493,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -492,15 +503,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,35 +519,40 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -548,6 +560,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -555,369 +568,66 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1162,256 +872,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1422,14 +893,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,17 +979,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1455,121 +988,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1580,7 +1011,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1594,7 +1025,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1786,7 +1217,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1832,7 +1263,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1878,7 +1309,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1924,7 +1355,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2212,394 +1643,394 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="43" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="23.1" customHeight="1" spans="2:43">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:44" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="2:40">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="23">
-        <f>_metadata!B1</f>
+    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="40">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="6" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
-    <row r="3" customFormat="1" spans="1:43">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="34"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="17"/>
     </row>
-    <row r="4" customFormat="1" ht="18.95" customHeight="1" spans="1:43">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:44" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="35"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="19"/>
     </row>
-    <row r="5" customFormat="1" ht="33.6" customHeight="1" spans="1:43">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:44" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="30" t="s">
+      <c r="Z5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="14" t="s">
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AC5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AH5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AI5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AJ5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AK5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="14" t="s">
+      <c r="AL5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AM5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AN5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AO5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="14" t="s">
+      <c r="AP5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="36" t="s">
+      <c r="AQ5" s="39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="26.1" customHeight="1" spans="2:43">
-      <c r="B6" s="10"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:44" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="36"/>
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="30" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="30" t="s">
+      <c r="AA6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="36"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="39"/>
     </row>
-    <row r="7" customFormat="1" ht="81" spans="2:44">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:44" ht="81" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2727,4260 +2158,4260 @@
       </c>
       <c r="AR7" s="3"/>
     </row>
-    <row r="8" customFormat="1" spans="2:43">
-      <c r="B8" s="16">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A2="","",_zhisuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B2="","",_zhisuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C2="","",_zhisuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D2="","",_zhisuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E2="","",_zhisuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="17" t="str">
+      <c r="H8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F2="","",_zhisuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="17" t="str">
+      <c r="I8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G2="","",_zhisuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="17" t="str">
+      <c r="J8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H2="","",_zhisuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I2="","",_zhisuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J2="","",_zhisuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K2="","",_zhisuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L2="","",_zhisuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M2="","",_zhisuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N2="","",_zhisuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O2="","",_zhisuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P2="","",_zhisuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="S8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q2="","",_zhisuan_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="T8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R2="","",_zhisuan_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S2="","",_zhisuan_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T2="","",_zhisuan_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U2="","",_zhisuan_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V2="","",_zhisuan_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="17" t="str">
+      <c r="Y8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W2="","",_zhisuan_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X2="","",_zhisuan_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="17" t="str">
+      <c r="AA8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y2="","",_zhisuan_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="17" t="str">
+      <c r="AB8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z2="","",_zhisuan_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="17" t="str">
+      <c r="AC8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA2="","",_zhisuan_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB2="","",_zhisuan_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC2="","",_zhisuan_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD2="","",_zhisuan_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE2="","",_zhisuan_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="17" t="str">
+      <c r="AH8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF2="","",_zhisuan_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="17" t="str">
+      <c r="AI8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG2="","",_zhisuan_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="17" t="str">
+      <c r="AJ8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH2="","",_zhisuan_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK8" s="17" t="str">
+      <c r="AK8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI2="","",_zhisuan_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="17" t="str">
+      <c r="AL8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ2="","",_zhisuan_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM8" s="17" t="str">
+      <c r="AM8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK2="","",_zhisuan_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN8" s="17" t="str">
+      <c r="AN8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL2="","",_zhisuan_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="17" t="str">
+      <c r="AO8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM2="","",_zhisuan_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP8" s="17" t="str">
+      <c r="AP8" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN2="","",_zhisuan_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ8" s="37" t="str">
+      <c r="AQ8" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO2="","",_zhisuan_day_hour!AO2)</f>
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:43">
-      <c r="B9" s="16">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C9" s="17" t="str">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A3="","",_zhisuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B3="","",_zhisuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C3="","",_zhisuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D3="","",_zhisuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E3="","",_zhisuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="17" t="str">
+      <c r="H9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F3="","",_zhisuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="17" t="str">
+      <c r="I9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G3="","",_zhisuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="17" t="str">
+      <c r="J9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H3="","",_zhisuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I3="","",_zhisuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J3="","",_zhisuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K3="","",_zhisuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L3="","",_zhisuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M3="","",_zhisuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="17" t="str">
+      <c r="P9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N3="","",_zhisuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="17" t="str">
+      <c r="Q9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O3="","",_zhisuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P3="","",_zhisuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="17" t="str">
+      <c r="S9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q3="","",_zhisuan_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="17" t="str">
+      <c r="T9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R3="","",_zhisuan_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="17" t="str">
+      <c r="U9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S3="","",_zhisuan_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="17" t="str">
+      <c r="V9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T3="","",_zhisuan_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="17" t="str">
+      <c r="W9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U3="","",_zhisuan_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="17" t="str">
+      <c r="X9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V3="","",_zhisuan_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="17" t="str">
+      <c r="Y9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W3="","",_zhisuan_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="17" t="str">
+      <c r="Z9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X3="","",_zhisuan_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="17" t="str">
+      <c r="AA9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y3="","",_zhisuan_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="17" t="str">
+      <c r="AB9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z3="","",_zhisuan_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="17" t="str">
+      <c r="AC9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA3="","",_zhisuan_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="17" t="str">
+      <c r="AD9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB3="","",_zhisuan_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="17" t="str">
+      <c r="AE9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC3="","",_zhisuan_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD3="","",_zhisuan_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="17" t="str">
+      <c r="AG9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE3="","",_zhisuan_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="17" t="str">
+      <c r="AH9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF3="","",_zhisuan_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="17" t="str">
+      <c r="AI9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG3="","",_zhisuan_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="17" t="str">
+      <c r="AJ9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH3="","",_zhisuan_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="17" t="str">
+      <c r="AK9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI3="","",_zhisuan_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="17" t="str">
+      <c r="AL9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ3="","",_zhisuan_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="17" t="str">
+      <c r="AM9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK3="","",_zhisuan_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="17" t="str">
+      <c r="AN9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL3="","",_zhisuan_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="17" t="str">
+      <c r="AO9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM3="","",_zhisuan_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="17" t="str">
+      <c r="AP9" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN3="","",_zhisuan_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="37" t="str">
+      <c r="AQ9" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO3="","",_zhisuan_day_hour!AO3)</f>
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="2:43">
-      <c r="B10" s="16">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C10" s="17" t="str">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B10" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A4="","",_zhisuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B4="","",_zhisuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C4="","",_zhisuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D4="","",_zhisuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E4="","",_zhisuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="17" t="str">
+      <c r="H10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F4="","",_zhisuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="17" t="str">
+      <c r="I10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G4="","",_zhisuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="17" t="str">
+      <c r="J10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H4="","",_zhisuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I4="","",_zhisuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J4="","",_zhisuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K4="","",_zhisuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L4="","",_zhisuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M4="","",_zhisuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="17" t="str">
+      <c r="P10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N4="","",_zhisuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="17" t="str">
+      <c r="Q10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O4="","",_zhisuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P4="","",_zhisuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="17" t="str">
+      <c r="S10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q4="","",_zhisuan_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="17" t="str">
+      <c r="T10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R4="","",_zhisuan_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="17" t="str">
+      <c r="U10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S4="","",_zhisuan_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="17" t="str">
+      <c r="V10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T4="","",_zhisuan_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="17" t="str">
+      <c r="W10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U4="","",_zhisuan_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="17" t="str">
+      <c r="X10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V4="","",_zhisuan_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="17" t="str">
+      <c r="Y10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W4="","",_zhisuan_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="17" t="str">
+      <c r="Z10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X4="","",_zhisuan_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="17" t="str">
+      <c r="AA10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y4="","",_zhisuan_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="17" t="str">
+      <c r="AB10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z4="","",_zhisuan_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="17" t="str">
+      <c r="AC10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA4="","",_zhisuan_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="17" t="str">
+      <c r="AD10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB4="","",_zhisuan_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="17" t="str">
+      <c r="AE10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC4="","",_zhisuan_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD4="","",_zhisuan_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="17" t="str">
+      <c r="AG10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE4="","",_zhisuan_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="17" t="str">
+      <c r="AH10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF4="","",_zhisuan_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="17" t="str">
+      <c r="AI10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG4="","",_zhisuan_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="17" t="str">
+      <c r="AJ10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH4="","",_zhisuan_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="17" t="str">
+      <c r="AK10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI4="","",_zhisuan_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="17" t="str">
+      <c r="AL10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ4="","",_zhisuan_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="17" t="str">
+      <c r="AM10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK4="","",_zhisuan_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="17" t="str">
+      <c r="AN10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL4="","",_zhisuan_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="17" t="str">
+      <c r="AO10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM4="","",_zhisuan_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="17" t="str">
+      <c r="AP10" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN4="","",_zhisuan_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="37" t="str">
+      <c r="AQ10" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO4="","",_zhisuan_day_hour!AO4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.1" customHeight="1" spans="2:43">
-      <c r="B11" s="16">
+    <row r="11" spans="1:44" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7">
         <v>0.125</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A5="","",_zhisuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B5="","",_zhisuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C5="","",_zhisuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D5="","",_zhisuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E5="","",_zhisuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="17" t="str">
+      <c r="H11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F5="","",_zhisuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="17" t="str">
+      <c r="I11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G5="","",_zhisuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="17" t="str">
+      <c r="J11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H5="","",_zhisuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I5="","",_zhisuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J5="","",_zhisuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K5="","",_zhisuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L5="","",_zhisuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M5="","",_zhisuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N5="","",_zhisuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O5="","",_zhisuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P5="","",_zhisuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="17" t="str">
+      <c r="S11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q5="","",_zhisuan_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="17" t="str">
+      <c r="T11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R5="","",_zhisuan_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="17" t="str">
+      <c r="U11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S5="","",_zhisuan_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="V11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T5="","",_zhisuan_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="17" t="str">
+      <c r="W11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U5="","",_zhisuan_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="17" t="str">
+      <c r="X11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V5="","",_zhisuan_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="17" t="str">
+      <c r="Y11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W5="","",_zhisuan_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="17" t="str">
+      <c r="Z11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X5="","",_zhisuan_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="17" t="str">
+      <c r="AA11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y5="","",_zhisuan_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="17" t="str">
+      <c r="AB11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z5="","",_zhisuan_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="17" t="str">
+      <c r="AC11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA5="","",_zhisuan_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="17" t="str">
+      <c r="AD11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB5="","",_zhisuan_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="17" t="str">
+      <c r="AE11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC5="","",_zhisuan_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="17" t="str">
+      <c r="AF11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD5="","",_zhisuan_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="17" t="str">
+      <c r="AG11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE5="","",_zhisuan_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="17" t="str">
+      <c r="AH11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF5="","",_zhisuan_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="17" t="str">
+      <c r="AI11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG5="","",_zhisuan_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="17" t="str">
+      <c r="AJ11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH5="","",_zhisuan_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="17" t="str">
+      <c r="AK11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI5="","",_zhisuan_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="17" t="str">
+      <c r="AL11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ5="","",_zhisuan_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="17" t="str">
+      <c r="AM11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK5="","",_zhisuan_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="17" t="str">
+      <c r="AN11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL5="","",_zhisuan_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="17" t="str">
+      <c r="AO11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM5="","",_zhisuan_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="17" t="str">
+      <c r="AP11" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN5="","",_zhisuan_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="37" t="str">
+      <c r="AQ11" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO5="","",_zhisuan_day_hour!AO5)</f>
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="24.95" customHeight="1" spans="2:43">
-      <c r="B12" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C12" s="17" t="str">
+    <row r="12" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A6="","",_zhisuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B6="","",_zhisuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C6="","",_zhisuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D6="","",_zhisuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="17" t="str">
+      <c r="G12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E6="","",_zhisuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="17" t="str">
+      <c r="H12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F6="","",_zhisuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G6="","",_zhisuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="17" t="str">
+      <c r="J12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H6="","",_zhisuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I6="","",_zhisuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J6="","",_zhisuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="17" t="str">
+      <c r="M12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K6="","",_zhisuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L6="","",_zhisuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M6="","",_zhisuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="P12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N6="","",_zhisuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="17" t="str">
+      <c r="Q12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O6="","",_zhisuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="R12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P6="","",_zhisuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="17" t="str">
+      <c r="S12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q6="","",_zhisuan_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="17" t="str">
+      <c r="T12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R6="","",_zhisuan_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="17" t="str">
+      <c r="U12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S6="","",_zhisuan_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="17" t="str">
+      <c r="V12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T6="","",_zhisuan_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="17" t="str">
+      <c r="W12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U6="","",_zhisuan_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="X12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V6="","",_zhisuan_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="17" t="str">
+      <c r="Y12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W6="","",_zhisuan_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="17" t="str">
+      <c r="Z12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X6="","",_zhisuan_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="17" t="str">
+      <c r="AA12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y6="","",_zhisuan_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="17" t="str">
+      <c r="AB12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z6="","",_zhisuan_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="17" t="str">
+      <c r="AC12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA6="","",_zhisuan_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AD12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB6="","",_zhisuan_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="17" t="str">
+      <c r="AE12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC6="","",_zhisuan_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="17" t="str">
+      <c r="AF12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD6="","",_zhisuan_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="17" t="str">
+      <c r="AG12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE6="","",_zhisuan_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="17" t="str">
+      <c r="AH12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF6="","",_zhisuan_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="17" t="str">
+      <c r="AI12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG6="","",_zhisuan_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="17" t="str">
+      <c r="AJ12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH6="","",_zhisuan_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="17" t="str">
+      <c r="AK12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI6="","",_zhisuan_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="17" t="str">
+      <c r="AL12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ6="","",_zhisuan_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="17" t="str">
+      <c r="AM12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK6="","",_zhisuan_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="17" t="str">
+      <c r="AN12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL6="","",_zhisuan_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="17" t="str">
+      <c r="AO12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM6="","",_zhisuan_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="17" t="str">
+      <c r="AP12" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN6="","",_zhisuan_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="37" t="str">
+      <c r="AQ12" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO6="","",_zhisuan_day_hour!AO6)</f>
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:43">
-      <c r="B13" s="16">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C13" s="17" t="str">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A7="","",_zhisuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B7="","",_zhisuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C7="","",_zhisuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D7="","",_zhisuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="17" t="str">
+      <c r="G13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E7="","",_zhisuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="17" t="str">
+      <c r="H13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F7="","",_zhisuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="17" t="str">
+      <c r="I13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G7="","",_zhisuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="17" t="str">
+      <c r="J13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H7="","",_zhisuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I7="","",_zhisuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J7="","",_zhisuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K7="","",_zhisuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L7="","",_zhisuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M7="","",_zhisuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="17" t="str">
+      <c r="P13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N7="","",_zhisuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="17" t="str">
+      <c r="Q13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O7="","",_zhisuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="17" t="str">
+      <c r="R13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P7="","",_zhisuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="17" t="str">
+      <c r="S13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q7="","",_zhisuan_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="17" t="str">
+      <c r="T13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R7="","",_zhisuan_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="17" t="str">
+      <c r="U13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S7="","",_zhisuan_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="17" t="str">
+      <c r="V13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T7="","",_zhisuan_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="17" t="str">
+      <c r="W13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U7="","",_zhisuan_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="17" t="str">
+      <c r="X13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V7="","",_zhisuan_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="17" t="str">
+      <c r="Y13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W7="","",_zhisuan_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="17" t="str">
+      <c r="Z13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X7="","",_zhisuan_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="17" t="str">
+      <c r="AA13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y7="","",_zhisuan_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="17" t="str">
+      <c r="AB13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z7="","",_zhisuan_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="17" t="str">
+      <c r="AC13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA7="","",_zhisuan_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="17" t="str">
+      <c r="AD13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB7="","",_zhisuan_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="17" t="str">
+      <c r="AE13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC7="","",_zhisuan_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="17" t="str">
+      <c r="AF13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD7="","",_zhisuan_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="17" t="str">
+      <c r="AG13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE7="","",_zhisuan_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="17" t="str">
+      <c r="AH13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF7="","",_zhisuan_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="17" t="str">
+      <c r="AI13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG7="","",_zhisuan_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="17" t="str">
+      <c r="AJ13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH7="","",_zhisuan_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="17" t="str">
+      <c r="AK13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI7="","",_zhisuan_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="17" t="str">
+      <c r="AL13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ7="","",_zhisuan_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="17" t="str">
+      <c r="AM13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK7="","",_zhisuan_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="17" t="str">
+      <c r="AN13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL7="","",_zhisuan_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="17" t="str">
+      <c r="AO13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM7="","",_zhisuan_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="17" t="str">
+      <c r="AP13" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN7="","",_zhisuan_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="37" t="str">
+      <c r="AQ13" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO7="","",_zhisuan_day_hour!AO7)</f>
         <v/>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="2:44">
-      <c r="B14" s="16">
+    <row r="14" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
         <v>0.25</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A8="","",_zhisuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B8="","",_zhisuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C8="","",_zhisuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D8="","",_zhisuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="17" t="str">
+      <c r="G14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E8="","",_zhisuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="17" t="str">
+      <c r="H14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F8="","",_zhisuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="I14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G8="","",_zhisuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="17" t="str">
+      <c r="J14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H8="","",_zhisuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I8="","",_zhisuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J8="","",_zhisuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K8="","",_zhisuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L8="","",_zhisuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M8="","",_zhisuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N8="","",_zhisuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O8="","",_zhisuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P8="","",_zhisuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="S14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q8="","",_zhisuan_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R8="","",_zhisuan_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S8="","",_zhisuan_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T8="","",_zhisuan_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U8="","",_zhisuan_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V8="","",_zhisuan_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="17" t="str">
+      <c r="Y14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W8="","",_zhisuan_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X8="","",_zhisuan_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="17" t="str">
+      <c r="AA14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y8="","",_zhisuan_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="17" t="str">
+      <c r="AB14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z8="","",_zhisuan_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="17" t="str">
+      <c r="AC14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA8="","",_zhisuan_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB8="","",_zhisuan_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC8="","",_zhisuan_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD8="","",_zhisuan_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE8="","",_zhisuan_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="17" t="str">
+      <c r="AH14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF8="","",_zhisuan_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="17" t="str">
+      <c r="AI14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG8="","",_zhisuan_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="17" t="str">
+      <c r="AJ14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH8="","",_zhisuan_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="17" t="str">
+      <c r="AK14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI8="","",_zhisuan_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="17" t="str">
+      <c r="AL14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ8="","",_zhisuan_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="17" t="str">
+      <c r="AM14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK8="","",_zhisuan_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="17" t="str">
+      <c r="AN14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL8="","",_zhisuan_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="17" t="str">
+      <c r="AO14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM8="","",_zhisuan_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="17" t="str">
+      <c r="AP14" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN8="","",_zhisuan_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="37" t="str">
+      <c r="AQ14" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO8="","",_zhisuan_day_hour!AO8)</f>
         <v/>
       </c>
       <c r="AR14"/>
     </row>
-    <row r="15" customFormat="1" spans="2:43">
-      <c r="B15" s="16">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C15" s="17" t="str">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A9="","",_zhisuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B9="","",_zhisuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C9="","",_zhisuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D9="","",_zhisuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="17" t="str">
+      <c r="G15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E9="","",_zhisuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="17" t="str">
+      <c r="H15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F9="","",_zhisuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="17" t="str">
+      <c r="I15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G9="","",_zhisuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="17" t="str">
+      <c r="J15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H9="","",_zhisuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I9="","",_zhisuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J9="","",_zhisuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="17" t="str">
+      <c r="M15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K9="","",_zhisuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L9="","",_zhisuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M9="","",_zhisuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="str">
+      <c r="P15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N9="","",_zhisuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="17" t="str">
+      <c r="Q15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O9="","",_zhisuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="17" t="str">
+      <c r="R15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P9="","",_zhisuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="str">
+      <c r="S15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q9="","",_zhisuan_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="17" t="str">
+      <c r="T15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R9="","",_zhisuan_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="17" t="str">
+      <c r="U15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S9="","",_zhisuan_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="17" t="str">
+      <c r="V15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T9="","",_zhisuan_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="17" t="str">
+      <c r="W15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U9="","",_zhisuan_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="17" t="str">
+      <c r="X15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V9="","",_zhisuan_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="17" t="str">
+      <c r="Y15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W9="","",_zhisuan_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="17" t="str">
+      <c r="Z15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X9="","",_zhisuan_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="17" t="str">
+      <c r="AA15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y9="","",_zhisuan_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="17" t="str">
+      <c r="AB15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z9="","",_zhisuan_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="17" t="str">
+      <c r="AC15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA9="","",_zhisuan_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="17" t="str">
+      <c r="AD15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB9="","",_zhisuan_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="17" t="str">
+      <c r="AE15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC9="","",_zhisuan_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="17" t="str">
+      <c r="AF15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD9="","",_zhisuan_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="17" t="str">
+      <c r="AG15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE9="","",_zhisuan_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="17" t="str">
+      <c r="AH15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF9="","",_zhisuan_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="17" t="str">
+      <c r="AI15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG9="","",_zhisuan_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="17" t="str">
+      <c r="AJ15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH9="","",_zhisuan_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="17" t="str">
+      <c r="AK15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI9="","",_zhisuan_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="17" t="str">
+      <c r="AL15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ9="","",_zhisuan_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="17" t="str">
+      <c r="AM15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK9="","",_zhisuan_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="17" t="str">
+      <c r="AN15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL9="","",_zhisuan_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="17" t="str">
+      <c r="AO15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM9="","",_zhisuan_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="17" t="str">
+      <c r="AP15" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN9="","",_zhisuan_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="37" t="str">
+      <c r="AQ15" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO9="","",_zhisuan_day_hour!AO9)</f>
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="2:43">
-      <c r="B16" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C16" s="17" t="str">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A10="","",_zhisuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B10="","",_zhisuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C10="","",_zhisuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D10="","",_zhisuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="17" t="str">
+      <c r="G16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E10="","",_zhisuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="17" t="str">
+      <c r="H16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F10="","",_zhisuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="17" t="str">
+      <c r="I16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G10="","",_zhisuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="17" t="str">
+      <c r="J16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H10="","",_zhisuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I10="","",_zhisuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J10="","",_zhisuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="17" t="str">
+      <c r="M16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K10="","",_zhisuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L10="","",_zhisuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M10="","",_zhisuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="str">
+      <c r="P16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N10="","",_zhisuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="17" t="str">
+      <c r="Q16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O10="","",_zhisuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="17" t="str">
+      <c r="R16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P10="","",_zhisuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="str">
+      <c r="S16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q10="","",_zhisuan_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="17" t="str">
+      <c r="T16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R10="","",_zhisuan_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="17" t="str">
+      <c r="U16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S10="","",_zhisuan_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="V16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T10="","",_zhisuan_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="17" t="str">
+      <c r="W16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U10="","",_zhisuan_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="17" t="str">
+      <c r="X16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V10="","",_zhisuan_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="17" t="str">
+      <c r="Y16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W10="","",_zhisuan_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="17" t="str">
+      <c r="Z16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X10="","",_zhisuan_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="17" t="str">
+      <c r="AA16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y10="","",_zhisuan_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="17" t="str">
+      <c r="AB16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z10="","",_zhisuan_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="17" t="str">
+      <c r="AC16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA10="","",_zhisuan_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="17" t="str">
+      <c r="AD16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB10="","",_zhisuan_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="17" t="str">
+      <c r="AE16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC10="","",_zhisuan_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="17" t="str">
+      <c r="AF16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD10="","",_zhisuan_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="17" t="str">
+      <c r="AG16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE10="","",_zhisuan_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="17" t="str">
+      <c r="AH16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF10="","",_zhisuan_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="17" t="str">
+      <c r="AI16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG10="","",_zhisuan_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="17" t="str">
+      <c r="AJ16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH10="","",_zhisuan_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="17" t="str">
+      <c r="AK16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI10="","",_zhisuan_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="17" t="str">
+      <c r="AL16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ10="","",_zhisuan_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="17" t="str">
+      <c r="AM16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK10="","",_zhisuan_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="17" t="str">
+      <c r="AN16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL10="","",_zhisuan_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="17" t="str">
+      <c r="AO16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM10="","",_zhisuan_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="17" t="str">
+      <c r="AP16" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN10="","",_zhisuan_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="37" t="str">
+      <c r="AQ16" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO10="","",_zhisuan_day_hour!AO10)</f>
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="2:43">
-      <c r="B17" s="16">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
         <v>0.375</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A11="","",_zhisuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B11="","",_zhisuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C11="","",_zhisuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="17" t="str">
+      <c r="F17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D11="","",_zhisuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="17" t="str">
+      <c r="G17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E11="","",_zhisuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="17" t="str">
+      <c r="H17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F11="","",_zhisuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="17" t="str">
+      <c r="I17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G11="","",_zhisuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="17" t="str">
+      <c r="J17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H11="","",_zhisuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I11="","",_zhisuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J11="","",_zhisuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="17" t="str">
+      <c r="M17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K11="","",_zhisuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L11="","",_zhisuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M11="","",_zhisuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="str">
+      <c r="P17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N11="","",_zhisuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="17" t="str">
+      <c r="Q17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O11="","",_zhisuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="17" t="str">
+      <c r="R17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P11="","",_zhisuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="str">
+      <c r="S17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q11="","",_zhisuan_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="17" t="str">
+      <c r="T17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R11="","",_zhisuan_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="17" t="str">
+      <c r="U17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S11="","",_zhisuan_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="17" t="str">
+      <c r="V17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T11="","",_zhisuan_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="17" t="str">
+      <c r="W17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U11="","",_zhisuan_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="17" t="str">
+      <c r="X17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V11="","",_zhisuan_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="17" t="str">
+      <c r="Y17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W11="","",_zhisuan_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="17" t="str">
+      <c r="Z17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X11="","",_zhisuan_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="17" t="str">
+      <c r="AA17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y11="","",_zhisuan_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="17" t="str">
+      <c r="AB17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z11="","",_zhisuan_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="17" t="str">
+      <c r="AC17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA11="","",_zhisuan_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="17" t="str">
+      <c r="AD17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB11="","",_zhisuan_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="17" t="str">
+      <c r="AE17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC11="","",_zhisuan_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="17" t="str">
+      <c r="AF17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD11="","",_zhisuan_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="17" t="str">
+      <c r="AG17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE11="","",_zhisuan_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="17" t="str">
+      <c r="AH17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF11="","",_zhisuan_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="17" t="str">
+      <c r="AI17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG11="","",_zhisuan_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="17" t="str">
+      <c r="AJ17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH11="","",_zhisuan_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="17" t="str">
+      <c r="AK17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI11="","",_zhisuan_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="17" t="str">
+      <c r="AL17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ11="","",_zhisuan_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="17" t="str">
+      <c r="AM17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK11="","",_zhisuan_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="17" t="str">
+      <c r="AN17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL11="","",_zhisuan_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="17" t="str">
+      <c r="AO17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM11="","",_zhisuan_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="17" t="str">
+      <c r="AP17" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN11="","",_zhisuan_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="37" t="str">
+      <c r="AQ17" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO11="","",_zhisuan_day_hour!AO11)</f>
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="2:43">
-      <c r="B18" s="16">
-        <v>0.416666666666666</v>
-      </c>
-      <c r="C18" s="17" t="str">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B18" s="7">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A12="","",_zhisuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B12="","",_zhisuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C12="","",_zhisuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D12="","",_zhisuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="17" t="str">
+      <c r="G18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E12="","",_zhisuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="17" t="str">
+      <c r="H18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F12="","",_zhisuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G12="","",_zhisuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H12="","",_zhisuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I12="","",_zhisuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J12="","",_zhisuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K12="","",_zhisuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L12="","",_zhisuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M12="","",_zhisuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N12="","",_zhisuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="17" t="str">
+      <c r="Q18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O12="","",_zhisuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="17" t="str">
+      <c r="R18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P12="","",_zhisuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q12="","",_zhisuan_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="17" t="str">
+      <c r="T18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R12="","",_zhisuan_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="17" t="str">
+      <c r="U18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S12="","",_zhisuan_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="V18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T12="","",_zhisuan_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="17" t="str">
+      <c r="W18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U12="","",_zhisuan_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="X18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V12="","",_zhisuan_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="17" t="str">
+      <c r="Y18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W12="","",_zhisuan_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="17" t="str">
+      <c r="Z18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X12="","",_zhisuan_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="17" t="str">
+      <c r="AA18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y12="","",_zhisuan_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="17" t="str">
+      <c r="AB18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z12="","",_zhisuan_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="17" t="str">
+      <c r="AC18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA12="","",_zhisuan_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB12="","",_zhisuan_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC12="","",_zhisuan_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD12="","",_zhisuan_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="17" t="str">
+      <c r="AG18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE12="","",_zhisuan_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="17" t="str">
+      <c r="AH18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF12="","",_zhisuan_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="17" t="str">
+      <c r="AI18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG12="","",_zhisuan_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="17" t="str">
+      <c r="AJ18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH12="","",_zhisuan_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="17" t="str">
+      <c r="AK18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI12="","",_zhisuan_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="17" t="str">
+      <c r="AL18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ12="","",_zhisuan_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="17" t="str">
+      <c r="AM18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK12="","",_zhisuan_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="17" t="str">
+      <c r="AN18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL12="","",_zhisuan_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="17" t="str">
+      <c r="AO18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM12="","",_zhisuan_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="17" t="str">
+      <c r="AP18" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN12="","",_zhisuan_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="37" t="str">
+      <c r="AQ18" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO12="","",_zhisuan_day_hour!AO12)</f>
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="2:43">
-      <c r="B19" s="16">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C19" s="17" t="str">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A13="","",_zhisuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B13="","",_zhisuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C13="","",_zhisuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="17" t="str">
+      <c r="F19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D13="","",_zhisuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="17" t="str">
+      <c r="G19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E13="","",_zhisuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="17" t="str">
+      <c r="H19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F13="","",_zhisuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="17" t="str">
+      <c r="I19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G13="","",_zhisuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="17" t="str">
+      <c r="J19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H13="","",_zhisuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="17" t="str">
+      <c r="K19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I13="","",_zhisuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J13="","",_zhisuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="17" t="str">
+      <c r="M19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K13="","",_zhisuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="17" t="str">
+      <c r="N19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L13="","",_zhisuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M13="","",_zhisuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="str">
+      <c r="P19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N13="","",_zhisuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="17" t="str">
+      <c r="Q19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O13="","",_zhisuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="17" t="str">
+      <c r="R19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P13="","",_zhisuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q13="","",_zhisuan_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="17" t="str">
+      <c r="T19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R13="","",_zhisuan_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="17" t="str">
+      <c r="U19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S13="","",_zhisuan_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="17" t="str">
+      <c r="V19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T13="","",_zhisuan_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="17" t="str">
+      <c r="W19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U13="","",_zhisuan_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="17" t="str">
+      <c r="X19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V13="","",_zhisuan_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="17" t="str">
+      <c r="Y19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W13="","",_zhisuan_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="17" t="str">
+      <c r="Z19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X13="","",_zhisuan_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="17" t="str">
+      <c r="AA19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y13="","",_zhisuan_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="17" t="str">
+      <c r="AB19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z13="","",_zhisuan_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="17" t="str">
+      <c r="AC19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA13="","",_zhisuan_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="17" t="str">
+      <c r="AD19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB13="","",_zhisuan_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="17" t="str">
+      <c r="AE19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC13="","",_zhisuan_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="17" t="str">
+      <c r="AF19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD13="","",_zhisuan_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="17" t="str">
+      <c r="AG19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE13="","",_zhisuan_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="17" t="str">
+      <c r="AH19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF13="","",_zhisuan_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="17" t="str">
+      <c r="AI19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG13="","",_zhisuan_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="17" t="str">
+      <c r="AJ19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH13="","",_zhisuan_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="17" t="str">
+      <c r="AK19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI13="","",_zhisuan_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="17" t="str">
+      <c r="AL19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ13="","",_zhisuan_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="17" t="str">
+      <c r="AM19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK13="","",_zhisuan_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="17" t="str">
+      <c r="AN19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL13="","",_zhisuan_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="17" t="str">
+      <c r="AO19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM13="","",_zhisuan_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="17" t="str">
+      <c r="AP19" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN13="","",_zhisuan_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="37" t="str">
+      <c r="AQ19" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO13="","",_zhisuan_day_hour!AO13)</f>
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="2:43">
-      <c r="B20" s="16">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B20" s="7">
         <v>0.5</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A14="","",_zhisuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B14="","",_zhisuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C14="","",_zhisuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="17" t="str">
+      <c r="F20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D14="","",_zhisuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="17" t="str">
+      <c r="G20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E14="","",_zhisuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="17" t="str">
+      <c r="H20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F14="","",_zhisuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="17" t="str">
+      <c r="I20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G14="","",_zhisuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="17" t="str">
+      <c r="J20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H14="","",_zhisuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="17" t="str">
+      <c r="K20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I14="","",_zhisuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J14="","",_zhisuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="17" t="str">
+      <c r="M20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K14="","",_zhisuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="17" t="str">
+      <c r="N20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L14="","",_zhisuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M14="","",_zhisuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="17" t="str">
+      <c r="P20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N14="","",_zhisuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="17" t="str">
+      <c r="Q20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O14="","",_zhisuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="17" t="str">
+      <c r="R20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P14="","",_zhisuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="str">
+      <c r="S20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q14="","",_zhisuan_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="17" t="str">
+      <c r="T20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R14="","",_zhisuan_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="17" t="str">
+      <c r="U20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S14="","",_zhisuan_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="17" t="str">
+      <c r="V20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T14="","",_zhisuan_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="17" t="str">
+      <c r="W20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U14="","",_zhisuan_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="17" t="str">
+      <c r="X20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V14="","",_zhisuan_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="17" t="str">
+      <c r="Y20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W14="","",_zhisuan_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="17" t="str">
+      <c r="Z20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X14="","",_zhisuan_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="17" t="str">
+      <c r="AA20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y14="","",_zhisuan_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="17" t="str">
+      <c r="AB20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z14="","",_zhisuan_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="17" t="str">
+      <c r="AC20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA14="","",_zhisuan_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="17" t="str">
+      <c r="AD20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB14="","",_zhisuan_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="17" t="str">
+      <c r="AE20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC14="","",_zhisuan_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="17" t="str">
+      <c r="AF20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD14="","",_zhisuan_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="17" t="str">
+      <c r="AG20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE14="","",_zhisuan_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="17" t="str">
+      <c r="AH20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF14="","",_zhisuan_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="17" t="str">
+      <c r="AI20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG14="","",_zhisuan_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="17" t="str">
+      <c r="AJ20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH14="","",_zhisuan_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="17" t="str">
+      <c r="AK20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI14="","",_zhisuan_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="17" t="str">
+      <c r="AL20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ14="","",_zhisuan_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="17" t="str">
+      <c r="AM20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK14="","",_zhisuan_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="17" t="str">
+      <c r="AN20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL14="","",_zhisuan_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="17" t="str">
+      <c r="AO20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM14="","",_zhisuan_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="17" t="str">
+      <c r="AP20" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN14="","",_zhisuan_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="37" t="str">
+      <c r="AQ20" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO14="","",_zhisuan_day_hour!AO14)</f>
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="2:43">
-      <c r="B21" s="16">
-        <v>0.541666666666666</v>
-      </c>
-      <c r="C21" s="17" t="str">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B21" s="7">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A15="","",_zhisuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B15="","",_zhisuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C15="","",_zhisuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D15="","",_zhisuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="17" t="str">
+      <c r="G21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E15="","",_zhisuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="17" t="str">
+      <c r="H21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F15="","",_zhisuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="17" t="str">
+      <c r="I21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G15="","",_zhisuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="17" t="str">
+      <c r="J21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H15="","",_zhisuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="17" t="str">
+      <c r="K21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I15="","",_zhisuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="17" t="str">
+      <c r="L21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J15="","",_zhisuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="17" t="str">
+      <c r="M21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K15="","",_zhisuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="17" t="str">
+      <c r="N21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L15="","",_zhisuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M15="","",_zhisuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="17" t="str">
+      <c r="P21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N15="","",_zhisuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="17" t="str">
+      <c r="Q21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O15="","",_zhisuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="17" t="str">
+      <c r="R21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P15="","",_zhisuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="str">
+      <c r="S21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q15="","",_zhisuan_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="17" t="str">
+      <c r="T21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R15="","",_zhisuan_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="17" t="str">
+      <c r="U21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S15="","",_zhisuan_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="17" t="str">
+      <c r="V21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T15="","",_zhisuan_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="17" t="str">
+      <c r="W21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U15="","",_zhisuan_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="17" t="str">
+      <c r="X21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V15="","",_zhisuan_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="17" t="str">
+      <c r="Y21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W15="","",_zhisuan_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="17" t="str">
+      <c r="Z21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X15="","",_zhisuan_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="17" t="str">
+      <c r="AA21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y15="","",_zhisuan_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="17" t="str">
+      <c r="AB21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z15="","",_zhisuan_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="17" t="str">
+      <c r="AC21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA15="","",_zhisuan_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="17" t="str">
+      <c r="AD21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB15="","",_zhisuan_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="17" t="str">
+      <c r="AE21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC15="","",_zhisuan_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AF21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD15="","",_zhisuan_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="17" t="str">
+      <c r="AG21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE15="","",_zhisuan_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="17" t="str">
+      <c r="AH21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF15="","",_zhisuan_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="17" t="str">
+      <c r="AI21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG15="","",_zhisuan_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="17" t="str">
+      <c r="AJ21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH15="","",_zhisuan_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="17" t="str">
+      <c r="AK21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI15="","",_zhisuan_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="17" t="str">
+      <c r="AL21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ15="","",_zhisuan_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="17" t="str">
+      <c r="AM21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK15="","",_zhisuan_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="17" t="str">
+      <c r="AN21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL15="","",_zhisuan_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="17" t="str">
+      <c r="AO21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM15="","",_zhisuan_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="17" t="str">
+      <c r="AP21" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN15="","",_zhisuan_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="37" t="str">
+      <c r="AQ21" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO15="","",_zhisuan_day_hour!AO15)</f>
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:43">
-      <c r="B22" s="16">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C22" s="17" t="str">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B22" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A16="","",_zhisuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B16="","",_zhisuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C16="","",_zhisuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D16="","",_zhisuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="17" t="str">
+      <c r="G22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E16="","",_zhisuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="17" t="str">
+      <c r="H22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F16="","",_zhisuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="17" t="str">
+      <c r="I22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G16="","",_zhisuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="17" t="str">
+      <c r="J22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H16="","",_zhisuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="17" t="str">
+      <c r="K22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I16="","",_zhisuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="17" t="str">
+      <c r="L22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J16="","",_zhisuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="17" t="str">
+      <c r="M22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K16="","",_zhisuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="17" t="str">
+      <c r="N22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L16="","",_zhisuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="17" t="str">
+      <c r="O22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M16="","",_zhisuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="17" t="str">
+      <c r="P22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N16="","",_zhisuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="17" t="str">
+      <c r="Q22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O16="","",_zhisuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="17" t="str">
+      <c r="R22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P16="","",_zhisuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="17" t="str">
+      <c r="S22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q16="","",_zhisuan_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="17" t="str">
+      <c r="T22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R16="","",_zhisuan_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="17" t="str">
+      <c r="U22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S16="","",_zhisuan_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="17" t="str">
+      <c r="V22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T16="","",_zhisuan_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="17" t="str">
+      <c r="W22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U16="","",_zhisuan_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="17" t="str">
+      <c r="X22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V16="","",_zhisuan_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="17" t="str">
+      <c r="Y22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W16="","",_zhisuan_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="17" t="str">
+      <c r="Z22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X16="","",_zhisuan_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="17" t="str">
+      <c r="AA22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y16="","",_zhisuan_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="17" t="str">
+      <c r="AB22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z16="","",_zhisuan_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="17" t="str">
+      <c r="AC22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA16="","",_zhisuan_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="17" t="str">
+      <c r="AD22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB16="","",_zhisuan_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="17" t="str">
+      <c r="AE22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC16="","",_zhisuan_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD16="","",_zhisuan_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="17" t="str">
+      <c r="AG22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE16="","",_zhisuan_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="17" t="str">
+      <c r="AH22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF16="","",_zhisuan_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="17" t="str">
+      <c r="AI22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG16="","",_zhisuan_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="17" t="str">
+      <c r="AJ22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH16="","",_zhisuan_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="17" t="str">
+      <c r="AK22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI16="","",_zhisuan_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="17" t="str">
+      <c r="AL22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ16="","",_zhisuan_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="17" t="str">
+      <c r="AM22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK16="","",_zhisuan_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="17" t="str">
+      <c r="AN22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL16="","",_zhisuan_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="17" t="str">
+      <c r="AO22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM16="","",_zhisuan_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="17" t="str">
+      <c r="AP22" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN16="","",_zhisuan_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="37" t="str">
+      <c r="AQ22" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO16="","",_zhisuan_day_hour!AO16)</f>
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="2:43">
-      <c r="B23" s="16">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B23" s="7">
         <v>0.625</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A17="","",_zhisuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B17="","",_zhisuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C17="","",_zhisuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="17" t="str">
+      <c r="F23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D17="","",_zhisuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="17" t="str">
+      <c r="G23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E17="","",_zhisuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="17" t="str">
+      <c r="H23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F17="","",_zhisuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="17" t="str">
+      <c r="I23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G17="","",_zhisuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="17" t="str">
+      <c r="J23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H17="","",_zhisuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="17" t="str">
+      <c r="K23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I17="","",_zhisuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="17" t="str">
+      <c r="L23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J17="","",_zhisuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="17" t="str">
+      <c r="M23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K17="","",_zhisuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="17" t="str">
+      <c r="N23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L17="","",_zhisuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="17" t="str">
+      <c r="O23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M17="","",_zhisuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="17" t="str">
+      <c r="P23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N17="","",_zhisuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="17" t="str">
+      <c r="Q23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O17="","",_zhisuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="17" t="str">
+      <c r="R23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P17="","",_zhisuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="17" t="str">
+      <c r="S23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q17="","",_zhisuan_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="17" t="str">
+      <c r="T23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R17="","",_zhisuan_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="17" t="str">
+      <c r="U23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S17="","",_zhisuan_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="17" t="str">
+      <c r="V23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T17="","",_zhisuan_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="17" t="str">
+      <c r="W23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U17="","",_zhisuan_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="17" t="str">
+      <c r="X23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V17="","",_zhisuan_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="17" t="str">
+      <c r="Y23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W17="","",_zhisuan_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="17" t="str">
+      <c r="Z23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X17="","",_zhisuan_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="17" t="str">
+      <c r="AA23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y17="","",_zhisuan_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="17" t="str">
+      <c r="AB23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z17="","",_zhisuan_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="17" t="str">
+      <c r="AC23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA17="","",_zhisuan_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="17" t="str">
+      <c r="AD23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB17="","",_zhisuan_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="17" t="str">
+      <c r="AE23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC17="","",_zhisuan_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="17" t="str">
+      <c r="AF23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD17="","",_zhisuan_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="17" t="str">
+      <c r="AG23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE17="","",_zhisuan_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="17" t="str">
+      <c r="AH23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF17="","",_zhisuan_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="17" t="str">
+      <c r="AI23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG17="","",_zhisuan_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="17" t="str">
+      <c r="AJ23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH17="","",_zhisuan_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="17" t="str">
+      <c r="AK23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI17="","",_zhisuan_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="17" t="str">
+      <c r="AL23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ17="","",_zhisuan_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="17" t="str">
+      <c r="AM23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK17="","",_zhisuan_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="17" t="str">
+      <c r="AN23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL17="","",_zhisuan_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="17" t="str">
+      <c r="AO23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM17="","",_zhisuan_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="17" t="str">
+      <c r="AP23" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN17="","",_zhisuan_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="37" t="str">
+      <c r="AQ23" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO17="","",_zhisuan_day_hour!AO17)</f>
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="2:43">
-      <c r="B24" s="16">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C24" s="17" t="str">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B24" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A18="","",_zhisuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B18="","",_zhisuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C18="","",_zhisuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="17" t="str">
+      <c r="F24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D18="","",_zhisuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="17" t="str">
+      <c r="G24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E18="","",_zhisuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="17" t="str">
+      <c r="H24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F18="","",_zhisuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="17" t="str">
+      <c r="I24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G18="","",_zhisuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="17" t="str">
+      <c r="J24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H18="","",_zhisuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="17" t="str">
+      <c r="K24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I18="","",_zhisuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="17" t="str">
+      <c r="L24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J18="","",_zhisuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="17" t="str">
+      <c r="M24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K18="","",_zhisuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="17" t="str">
+      <c r="N24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L18="","",_zhisuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="17" t="str">
+      <c r="O24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M18="","",_zhisuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="17" t="str">
+      <c r="P24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N18="","",_zhisuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="17" t="str">
+      <c r="Q24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O18="","",_zhisuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="17" t="str">
+      <c r="R24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P18="","",_zhisuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="17" t="str">
+      <c r="S24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q18="","",_zhisuan_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="17" t="str">
+      <c r="T24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R18="","",_zhisuan_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="17" t="str">
+      <c r="U24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S18="","",_zhisuan_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="17" t="str">
+      <c r="V24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T18="","",_zhisuan_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="17" t="str">
+      <c r="W24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U18="","",_zhisuan_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="17" t="str">
+      <c r="X24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V18="","",_zhisuan_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="17" t="str">
+      <c r="Y24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W18="","",_zhisuan_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="17" t="str">
+      <c r="Z24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X18="","",_zhisuan_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="17" t="str">
+      <c r="AA24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y18="","",_zhisuan_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="17" t="str">
+      <c r="AB24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z18="","",_zhisuan_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="17" t="str">
+      <c r="AC24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA18="","",_zhisuan_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="17" t="str">
+      <c r="AD24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB18="","",_zhisuan_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="17" t="str">
+      <c r="AE24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC18="","",_zhisuan_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="17" t="str">
+      <c r="AF24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD18="","",_zhisuan_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="17" t="str">
+      <c r="AG24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE18="","",_zhisuan_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="17" t="str">
+      <c r="AH24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF18="","",_zhisuan_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="17" t="str">
+      <c r="AI24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG18="","",_zhisuan_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="17" t="str">
+      <c r="AJ24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH18="","",_zhisuan_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="17" t="str">
+      <c r="AK24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI18="","",_zhisuan_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="17" t="str">
+      <c r="AL24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ18="","",_zhisuan_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="17" t="str">
+      <c r="AM24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK18="","",_zhisuan_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="17" t="str">
+      <c r="AN24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL18="","",_zhisuan_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="17" t="str">
+      <c r="AO24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM18="","",_zhisuan_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="17" t="str">
+      <c r="AP24" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN18="","",_zhisuan_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="37" t="str">
+      <c r="AQ24" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO18="","",_zhisuan_day_hour!AO18)</f>
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="2:43">
-      <c r="B25" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C25" s="17" t="str">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B25" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A19="","",_zhisuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B19="","",_zhisuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C19="","",_zhisuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="F25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D19="","",_zhisuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="17" t="str">
+      <c r="G25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E19="","",_zhisuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="17" t="str">
+      <c r="H25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F19="","",_zhisuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="17" t="str">
+      <c r="I25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G19="","",_zhisuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="17" t="str">
+      <c r="J25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H19="","",_zhisuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="17" t="str">
+      <c r="K25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I19="","",_zhisuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J19="","",_zhisuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="17" t="str">
+      <c r="M25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K19="","",_zhisuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="17" t="str">
+      <c r="N25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L19="","",_zhisuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="17" t="str">
+      <c r="O25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M19="","",_zhisuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="17" t="str">
+      <c r="P25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N19="","",_zhisuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="17" t="str">
+      <c r="Q25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O19="","",_zhisuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="17" t="str">
+      <c r="R25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P19="","",_zhisuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q19="","",_zhisuan_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="17" t="str">
+      <c r="T25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R19="","",_zhisuan_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="17" t="str">
+      <c r="U25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S19="","",_zhisuan_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="17" t="str">
+      <c r="V25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T19="","",_zhisuan_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="17" t="str">
+      <c r="W25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U19="","",_zhisuan_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="17" t="str">
+      <c r="X25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V19="","",_zhisuan_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="17" t="str">
+      <c r="Y25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W19="","",_zhisuan_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="17" t="str">
+      <c r="Z25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X19="","",_zhisuan_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="17" t="str">
+      <c r="AA25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y19="","",_zhisuan_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="17" t="str">
+      <c r="AB25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z19="","",_zhisuan_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="17" t="str">
+      <c r="AC25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA19="","",_zhisuan_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB19="","",_zhisuan_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC19="","",_zhisuan_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD19="","",_zhisuan_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="17" t="str">
+      <c r="AG25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE19="","",_zhisuan_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="17" t="str">
+      <c r="AH25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF19="","",_zhisuan_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="17" t="str">
+      <c r="AI25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG19="","",_zhisuan_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="17" t="str">
+      <c r="AJ25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH19="","",_zhisuan_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="17" t="str">
+      <c r="AK25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI19="","",_zhisuan_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="17" t="str">
+      <c r="AL25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ19="","",_zhisuan_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="17" t="str">
+      <c r="AM25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK19="","",_zhisuan_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="17" t="str">
+      <c r="AN25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL19="","",_zhisuan_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="17" t="str">
+      <c r="AO25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM19="","",_zhisuan_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="17" t="str">
+      <c r="AP25" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN19="","",_zhisuan_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="37" t="str">
+      <c r="AQ25" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO19="","",_zhisuan_day_hour!AO19)</f>
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="2:43">
-      <c r="B26" s="16">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B26" s="7">
         <v>0.75</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A20="","",_zhisuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B20="","",_zhisuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C20="","",_zhisuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="17" t="str">
+      <c r="F26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D20="","",_zhisuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="17" t="str">
+      <c r="G26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E20="","",_zhisuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F20="","",_zhisuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="17" t="str">
+      <c r="I26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G20="","",_zhisuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="17" t="str">
+      <c r="J26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H20="","",_zhisuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="17" t="str">
+      <c r="K26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I20="","",_zhisuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J20="","",_zhisuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="17" t="str">
+      <c r="M26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K20="","",_zhisuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="17" t="str">
+      <c r="N26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L20="","",_zhisuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="O26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M20="","",_zhisuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="17" t="str">
+      <c r="P26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N20="","",_zhisuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="17" t="str">
+      <c r="Q26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O20="","",_zhisuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="17" t="str">
+      <c r="R26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P20="","",_zhisuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q20="","",_zhisuan_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="17" t="str">
+      <c r="T26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R20="","",_zhisuan_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="17" t="str">
+      <c r="U26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S20="","",_zhisuan_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="17" t="str">
+      <c r="V26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T20="","",_zhisuan_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="17" t="str">
+      <c r="W26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U20="","",_zhisuan_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="17" t="str">
+      <c r="X26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V20="","",_zhisuan_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="17" t="str">
+      <c r="Y26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W20="","",_zhisuan_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="17" t="str">
+      <c r="Z26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X20="","",_zhisuan_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="17" t="str">
+      <c r="AA26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y20="","",_zhisuan_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="17" t="str">
+      <c r="AB26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z20="","",_zhisuan_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="17" t="str">
+      <c r="AC26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA20="","",_zhisuan_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="17" t="str">
+      <c r="AD26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB20="","",_zhisuan_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="17" t="str">
+      <c r="AE26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC20="","",_zhisuan_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="17" t="str">
+      <c r="AF26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD20="","",_zhisuan_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="17" t="str">
+      <c r="AG26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE20="","",_zhisuan_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="17" t="str">
+      <c r="AH26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF20="","",_zhisuan_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="17" t="str">
+      <c r="AI26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG20="","",_zhisuan_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="17" t="str">
+      <c r="AJ26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH20="","",_zhisuan_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="17" t="str">
+      <c r="AK26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI20="","",_zhisuan_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="17" t="str">
+      <c r="AL26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ20="","",_zhisuan_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="17" t="str">
+      <c r="AM26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK20="","",_zhisuan_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="17" t="str">
+      <c r="AN26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL20="","",_zhisuan_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="17" t="str">
+      <c r="AO26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM20="","",_zhisuan_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="17" t="str">
+      <c r="AP26" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN20="","",_zhisuan_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="37" t="str">
+      <c r="AQ26" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO20="","",_zhisuan_day_hour!AO20)</f>
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="2:43">
-      <c r="B27" s="16">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C27" s="17" t="str">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B27" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A21="","",_zhisuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B21="","",_zhisuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C21="","",_zhisuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="17" t="str">
+      <c r="F27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D21="","",_zhisuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="17" t="str">
+      <c r="G27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E21="","",_zhisuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F21="","",_zhisuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="17" t="str">
+      <c r="I27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G21="","",_zhisuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="17" t="str">
+      <c r="J27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H21="","",_zhisuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="17" t="str">
+      <c r="K27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I21="","",_zhisuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J21="","",_zhisuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="17" t="str">
+      <c r="M27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K21="","",_zhisuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="17" t="str">
+      <c r="N27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L21="","",_zhisuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="17" t="str">
+      <c r="O27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M21="","",_zhisuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="17" t="str">
+      <c r="P27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N21="","",_zhisuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="17" t="str">
+      <c r="Q27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O21="","",_zhisuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="17" t="str">
+      <c r="R27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P21="","",_zhisuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="17" t="str">
+      <c r="S27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q21="","",_zhisuan_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="17" t="str">
+      <c r="T27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R21="","",_zhisuan_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="17" t="str">
+      <c r="U27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S21="","",_zhisuan_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="17" t="str">
+      <c r="V27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T21="","",_zhisuan_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="17" t="str">
+      <c r="W27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U21="","",_zhisuan_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="17" t="str">
+      <c r="X27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V21="","",_zhisuan_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="17" t="str">
+      <c r="Y27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W21="","",_zhisuan_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="17" t="str">
+      <c r="Z27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X21="","",_zhisuan_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="17" t="str">
+      <c r="AA27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y21="","",_zhisuan_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="17" t="str">
+      <c r="AB27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z21="","",_zhisuan_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="17" t="str">
+      <c r="AC27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA21="","",_zhisuan_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="17" t="str">
+      <c r="AD27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB21="","",_zhisuan_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="17" t="str">
+      <c r="AE27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC21="","",_zhisuan_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="17" t="str">
+      <c r="AF27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD21="","",_zhisuan_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="17" t="str">
+      <c r="AG27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE21="","",_zhisuan_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="17" t="str">
+      <c r="AH27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF21="","",_zhisuan_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="17" t="str">
+      <c r="AI27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG21="","",_zhisuan_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="17" t="str">
+      <c r="AJ27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH21="","",_zhisuan_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="17" t="str">
+      <c r="AK27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI21="","",_zhisuan_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="17" t="str">
+      <c r="AL27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ21="","",_zhisuan_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="17" t="str">
+      <c r="AM27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK21="","",_zhisuan_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="17" t="str">
+      <c r="AN27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL21="","",_zhisuan_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="17" t="str">
+      <c r="AO27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM21="","",_zhisuan_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="17" t="str">
+      <c r="AP27" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN21="","",_zhisuan_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="37" t="str">
+      <c r="AQ27" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO21="","",_zhisuan_day_hour!AO21)</f>
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="2:43">
-      <c r="B28" s="16">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C28" s="17" t="str">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B28" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A22="","",_zhisuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B22="","",_zhisuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C22="","",_zhisuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="17" t="str">
+      <c r="F28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D22="","",_zhisuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="17" t="str">
+      <c r="G28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E22="","",_zhisuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="17" t="str">
+      <c r="H28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F22="","",_zhisuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="17" t="str">
+      <c r="I28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G22="","",_zhisuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="17" t="str">
+      <c r="J28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H22="","",_zhisuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="17" t="str">
+      <c r="K28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I22="","",_zhisuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J22="","",_zhisuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="17" t="str">
+      <c r="M28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K22="","",_zhisuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="17" t="str">
+      <c r="N28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L22="","",_zhisuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="17" t="str">
+      <c r="O28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M22="","",_zhisuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="17" t="str">
+      <c r="P28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N22="","",_zhisuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="17" t="str">
+      <c r="Q28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O22="","",_zhisuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="17" t="str">
+      <c r="R28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P22="","",_zhisuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="17" t="str">
+      <c r="S28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q22="","",_zhisuan_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="17" t="str">
+      <c r="T28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R22="","",_zhisuan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="17" t="str">
+      <c r="U28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S22="","",_zhisuan_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="17" t="str">
+      <c r="V28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T22="","",_zhisuan_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="17" t="str">
+      <c r="W28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U22="","",_zhisuan_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="17" t="str">
+      <c r="X28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V22="","",_zhisuan_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="17" t="str">
+      <c r="Y28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W22="","",_zhisuan_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="17" t="str">
+      <c r="Z28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X22="","",_zhisuan_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="17" t="str">
+      <c r="AA28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y22="","",_zhisuan_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="17" t="str">
+      <c r="AB28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z22="","",_zhisuan_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="17" t="str">
+      <c r="AC28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA22="","",_zhisuan_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="17" t="str">
+      <c r="AD28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB22="","",_zhisuan_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="17" t="str">
+      <c r="AE28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC22="","",_zhisuan_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="17" t="str">
+      <c r="AF28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD22="","",_zhisuan_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="17" t="str">
+      <c r="AG28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE22="","",_zhisuan_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="17" t="str">
+      <c r="AH28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF22="","",_zhisuan_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="17" t="str">
+      <c r="AI28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG22="","",_zhisuan_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="17" t="str">
+      <c r="AJ28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH22="","",_zhisuan_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="17" t="str">
+      <c r="AK28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI22="","",_zhisuan_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="17" t="str">
+      <c r="AL28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ22="","",_zhisuan_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="17" t="str">
+      <c r="AM28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK22="","",_zhisuan_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="17" t="str">
+      <c r="AN28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL22="","",_zhisuan_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="17" t="str">
+      <c r="AO28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM22="","",_zhisuan_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="17" t="str">
+      <c r="AP28" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN22="","",_zhisuan_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="37" t="str">
+      <c r="AQ28" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO22="","",_zhisuan_day_hour!AO22)</f>
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="2:43">
-      <c r="B29" s="16">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
         <v>0.875</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A23="","",_zhisuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B23="","",_zhisuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="17" t="str">
+      <c r="E29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C23="","",_zhisuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="17" t="str">
+      <c r="F29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D23="","",_zhisuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="17" t="str">
+      <c r="G29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E23="","",_zhisuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="17" t="str">
+      <c r="H29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F23="","",_zhisuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="17" t="str">
+      <c r="I29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G23="","",_zhisuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="17" t="str">
+      <c r="J29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H23="","",_zhisuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="17" t="str">
+      <c r="K29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I23="","",_zhisuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="17" t="str">
+      <c r="L29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J23="","",_zhisuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="17" t="str">
+      <c r="M29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K23="","",_zhisuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="17" t="str">
+      <c r="N29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L23="","",_zhisuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="17" t="str">
+      <c r="O29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M23="","",_zhisuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="17" t="str">
+      <c r="P29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N23="","",_zhisuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="17" t="str">
+      <c r="Q29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O23="","",_zhisuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="17" t="str">
+      <c r="R29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P23="","",_zhisuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="17" t="str">
+      <c r="S29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q23="","",_zhisuan_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="17" t="str">
+      <c r="T29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R23="","",_zhisuan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="17" t="str">
+      <c r="U29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S23="","",_zhisuan_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="17" t="str">
+      <c r="V29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T23="","",_zhisuan_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="17" t="str">
+      <c r="W29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U23="","",_zhisuan_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="17" t="str">
+      <c r="X29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V23="","",_zhisuan_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="17" t="str">
+      <c r="Y29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W23="","",_zhisuan_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="17" t="str">
+      <c r="Z29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X23="","",_zhisuan_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="17" t="str">
+      <c r="AA29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y23="","",_zhisuan_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="17" t="str">
+      <c r="AB29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z23="","",_zhisuan_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="17" t="str">
+      <c r="AC29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA23="","",_zhisuan_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="17" t="str">
+      <c r="AD29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB23="","",_zhisuan_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="17" t="str">
+      <c r="AE29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC23="","",_zhisuan_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="17" t="str">
+      <c r="AF29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD23="","",_zhisuan_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="17" t="str">
+      <c r="AG29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE23="","",_zhisuan_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="17" t="str">
+      <c r="AH29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF23="","",_zhisuan_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="17" t="str">
+      <c r="AI29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG23="","",_zhisuan_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="17" t="str">
+      <c r="AJ29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH23="","",_zhisuan_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="17" t="str">
+      <c r="AK29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI23="","",_zhisuan_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="17" t="str">
+      <c r="AL29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ23="","",_zhisuan_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="17" t="str">
+      <c r="AM29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK23="","",_zhisuan_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="17" t="str">
+      <c r="AN29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL23="","",_zhisuan_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="17" t="str">
+      <c r="AO29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM23="","",_zhisuan_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="17" t="str">
+      <c r="AP29" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN23="","",_zhisuan_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="37" t="str">
+      <c r="AQ29" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO23="","",_zhisuan_day_hour!AO23)</f>
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="2:43">
-      <c r="B30" s="16">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C30" s="17" t="str">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A24="","",_zhisuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B24="","",_zhisuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C24="","",_zhisuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="17" t="str">
+      <c r="F30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D24="","",_zhisuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="17" t="str">
+      <c r="G30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E24="","",_zhisuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="17" t="str">
+      <c r="H30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F24="","",_zhisuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="17" t="str">
+      <c r="I30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G24="","",_zhisuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="17" t="str">
+      <c r="J30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H24="","",_zhisuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="17" t="str">
+      <c r="K30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I24="","",_zhisuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="17" t="str">
+      <c r="L30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J24="","",_zhisuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="17" t="str">
+      <c r="M30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K24="","",_zhisuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="17" t="str">
+      <c r="N30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L24="","",_zhisuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="17" t="str">
+      <c r="O30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M24="","",_zhisuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="17" t="str">
+      <c r="P30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N24="","",_zhisuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="17" t="str">
+      <c r="Q30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O24="","",_zhisuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="17" t="str">
+      <c r="R30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P24="","",_zhisuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="17" t="str">
+      <c r="S30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q24="","",_zhisuan_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="17" t="str">
+      <c r="T30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R24="","",_zhisuan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="17" t="str">
+      <c r="U30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S24="","",_zhisuan_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="17" t="str">
+      <c r="V30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T24="","",_zhisuan_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="17" t="str">
+      <c r="W30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U24="","",_zhisuan_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="17" t="str">
+      <c r="X30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V24="","",_zhisuan_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="17" t="str">
+      <c r="Y30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W24="","",_zhisuan_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="17" t="str">
+      <c r="Z30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X24="","",_zhisuan_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="17" t="str">
+      <c r="AA30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y24="","",_zhisuan_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="17" t="str">
+      <c r="AB30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z24="","",_zhisuan_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="17" t="str">
+      <c r="AC30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA24="","",_zhisuan_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="17" t="str">
+      <c r="AD30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB24="","",_zhisuan_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="17" t="str">
+      <c r="AE30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC24="","",_zhisuan_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="17" t="str">
+      <c r="AF30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD24="","",_zhisuan_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="17" t="str">
+      <c r="AG30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE24="","",_zhisuan_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="17" t="str">
+      <c r="AH30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF24="","",_zhisuan_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="17" t="str">
+      <c r="AI30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG24="","",_zhisuan_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="17" t="str">
+      <c r="AJ30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH24="","",_zhisuan_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="17" t="str">
+      <c r="AK30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI24="","",_zhisuan_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="17" t="str">
+      <c r="AL30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ24="","",_zhisuan_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="17" t="str">
+      <c r="AM30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK24="","",_zhisuan_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="17" t="str">
+      <c r="AN30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL24="","",_zhisuan_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="17" t="str">
+      <c r="AO30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM24="","",_zhisuan_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="17" t="str">
+      <c r="AP30" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN24="","",_zhisuan_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="37" t="str">
+      <c r="AQ30" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO24="","",_zhisuan_day_hour!AO24)</f>
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="2:43">
-      <c r="B31" s="16">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C31" s="17" t="str">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B31" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!A25="","",_zhisuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!B25="","",_zhisuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="17" t="str">
+      <c r="E31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!C25="","",_zhisuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="17" t="str">
+      <c r="F31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!D25="","",_zhisuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="17" t="str">
+      <c r="G31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!E25="","",_zhisuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="17" t="str">
+      <c r="H31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!F25="","",_zhisuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="17" t="str">
+      <c r="I31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!G25="","",_zhisuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="17" t="str">
+      <c r="J31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!H25="","",_zhisuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="17" t="str">
+      <c r="K31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!I25="","",_zhisuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!J25="","",_zhisuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="17" t="str">
+      <c r="M31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!K25="","",_zhisuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="17" t="str">
+      <c r="N31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!L25="","",_zhisuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="17" t="str">
+      <c r="O31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!M25="","",_zhisuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="17" t="str">
+      <c r="P31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!N25="","",_zhisuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="17" t="str">
+      <c r="Q31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!O25="","",_zhisuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="17" t="str">
+      <c r="R31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!P25="","",_zhisuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="17" t="str">
+      <c r="S31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Q25="","",_zhisuan_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="17" t="str">
+      <c r="T31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!R25="","",_zhisuan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="17" t="str">
+      <c r="U31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!S25="","",_zhisuan_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="17" t="str">
+      <c r="V31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!T25="","",_zhisuan_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="17" t="str">
+      <c r="W31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!U25="","",_zhisuan_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="17" t="str">
+      <c r="X31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!V25="","",_zhisuan_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="17" t="str">
+      <c r="Y31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!W25="","",_zhisuan_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="17" t="str">
+      <c r="Z31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!X25="","",_zhisuan_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="17" t="str">
+      <c r="AA31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Y25="","",_zhisuan_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="17" t="str">
+      <c r="AB31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!Z25="","",_zhisuan_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="17" t="str">
+      <c r="AC31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AA25="","",_zhisuan_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="17" t="str">
+      <c r="AD31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AB25="","",_zhisuan_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="17" t="str">
+      <c r="AE31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AC25="","",_zhisuan_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="17" t="str">
+      <c r="AF31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AD25="","",_zhisuan_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="17" t="str">
+      <c r="AG31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AE25="","",_zhisuan_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="17" t="str">
+      <c r="AH31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AF25="","",_zhisuan_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="17" t="str">
+      <c r="AI31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AG25="","",_zhisuan_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="17" t="str">
+      <c r="AJ31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AH25="","",_zhisuan_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="17" t="str">
+      <c r="AK31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AI25="","",_zhisuan_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="17" t="str">
+      <c r="AL31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AJ25="","",_zhisuan_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="17" t="str">
+      <c r="AM31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AK25="","",_zhisuan_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="17" t="str">
+      <c r="AN31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AL25="","",_zhisuan_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="17" t="str">
+      <c r="AO31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AM25="","",_zhisuan_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="17" t="str">
+      <c r="AP31" s="8" t="str">
         <f>IF(_zhisuan_day_hour!AN25="","",_zhisuan_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="37" t="str">
+      <c r="AQ31" s="12" t="str">
         <f>IF(_zhisuan_day_hour!AO25="","",_zhisuan_day_hour!AO25)</f>
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="2:43">
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="37"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="12"/>
     </row>
-    <row r="33" customFormat="1" spans="2:43">
-      <c r="B33" s="18" t="s">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B33" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="37"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="12"/>
     </row>
-    <row r="34" customFormat="1" spans="2:43">
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="37"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="12"/>
     </row>
-    <row r="35" customFormat="1" spans="2:43">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="37"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="12"/>
     </row>
-    <row r="36" customFormat="1" ht="72.6" customHeight="1" spans="2:43">
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="2:43" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="24" t="s">
         <v>94</v>
       </c>
@@ -6993,105 +6424,98 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="26" t="s">
+      <c r="V36" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="17"/>
-      <c r="AQ36" s="37"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="12"/>
     </row>
-    <row r="37" customFormat="1" ht="16.5" spans="2:43">
-      <c r="B37" s="21" t="s">
+    <row r="37" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="25" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="28" t="s">
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="38"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="13"/>
     </row>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1" ht="77.1" customHeight="1"/>
+    <row r="43" spans="2:43" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="C3:AQ3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AB4:AK4"/>
-    <mergeCell ref="AL4:AQ4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:AF36"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="L37:U37"/>
     <mergeCell ref="V37:AF37"/>
@@ -7108,6 +6532,12 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:AF36"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
@@ -7118,40 +6548,35 @@
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="AB5:AB6"/>
     <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AB4:AK4"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="C3:AQ3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="54" spans="1:41">
+    <row r="1" spans="1:41" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -7277,23 +6702,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="8.制酸操作（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t xml:space="preserve"> 制 酸 操 作 记 录</t>
   </si>
@@ -63,7 +61,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -73,7 +70,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -82,7 +79,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +360,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -373,7 +369,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -382,7 +377,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -392,7 +387,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -400,7 +395,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -410,7 +404,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -419,7 +412,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -429,7 +422,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -437,7 +430,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -447,7 +439,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -456,7 +447,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -466,7 +457,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -475,7 +466,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -484,7 +474,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -493,7 +483,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -503,11 +492,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,40 +511,35 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -560,7 +547,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -568,66 +554,381 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -769,6 +1070,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -872,17 +1182,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -893,114 +1442,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1011,7 +1600,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1025,14 +1614,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10252075" y="7349490"/>
+          <a:off x="10252075" y="7387590"/>
           <a:ext cx="3416300" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1217,7 +1806,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1226,7 +1815,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="674370"/>
+          <a:off x="5276850" y="712470"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1263,7 +1852,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1272,7 +1861,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="1086485"/>
+          <a:off x="5276850" y="1124585"/>
           <a:ext cx="0" cy="255270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1309,7 +1898,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1318,7 +1907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="674370"/>
+          <a:off x="5276850" y="712470"/>
           <a:ext cx="0" cy="667385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1355,7 +1944,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -1364,7 +1953,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="674370"/>
+          <a:off x="5276850" y="712470"/>
           <a:ext cx="0" cy="667385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1643,394 +2232,394 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AR43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="43" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="14" t="s">
+    <row r="1" ht="23.1" customHeight="1" spans="2:43">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
     </row>
-    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="4"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="40">
+    <row r="2" ht="19.5" spans="2:40">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="23">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="15" t="s">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:43">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="34"/>
     </row>
-    <row r="4" spans="1:44" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="18" t="s">
+    <row r="4" ht="18.95" customHeight="1" spans="1:43">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18" t="s">
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="19"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="35"/>
     </row>
-    <row r="5" spans="1:44" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="20" t="s">
+    <row r="5" ht="33.6" customHeight="1" spans="1:43">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="T5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="38" t="s">
+      <c r="V5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="38" t="s">
+      <c r="Y5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="38" t="s">
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="38" t="s">
+      <c r="AC5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="37" t="s">
+      <c r="AD5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="38" t="s">
+      <c r="AE5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="38" t="s">
+      <c r="AF5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="37" t="s">
+      <c r="AG5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="38" t="s">
+      <c r="AH5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="37" t="s">
+      <c r="AI5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="38" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AK5" s="38" t="s">
+      <c r="AK5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="38" t="s">
+      <c r="AL5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="38" t="s">
+      <c r="AN5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="38" t="s">
+      <c r="AO5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="38" t="s">
+      <c r="AP5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="39" t="s">
+      <c r="AQ5" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="36"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" ht="26.1" customHeight="1" spans="2:43">
+      <c r="B6" s="10"/>
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="10" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="39"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="36"/>
     </row>
-    <row r="7" spans="1:44" ht="81" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
+    <row r="7" ht="81" spans="2:44">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2158,4260 +2747,4260 @@
       </c>
       <c r="AR7" s="3"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B8" s="7">
+    <row r="8" spans="2:43">
+      <c r="B8" s="16">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A2="","",_zhisuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B2="","",_zhisuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C2="","",_zhisuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D2="","",_zhisuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E2="","",_zhisuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F2="","",_zhisuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G2="","",_zhisuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H2="","",_zhisuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="8" t="str">
+      <c r="K8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I2="","",_zhisuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J2="","",_zhisuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="M8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K2="","",_zhisuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="N8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L2="","",_zhisuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="8" t="str">
+      <c r="O8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M2="","",_zhisuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="8" t="str">
+      <c r="P8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N2="","",_zhisuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="8" t="str">
+      <c r="Q8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O2="","",_zhisuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="8" t="str">
+      <c r="R8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P2="","",_zhisuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="8" t="str">
+      <c r="S8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q2="","",_zhisuan_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="8" t="str">
+      <c r="T8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R2="","",_zhisuan_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="8" t="str">
+      <c r="U8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S2="","",_zhisuan_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="8" t="str">
+      <c r="V8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T2="","",_zhisuan_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="8" t="str">
+      <c r="W8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U2="","",_zhisuan_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="8" t="str">
+      <c r="X8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V2="","",_zhisuan_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="8" t="str">
+      <c r="Y8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W2="","",_zhisuan_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="8" t="str">
+      <c r="Z8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X2="","",_zhisuan_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="8" t="str">
+      <c r="AA8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y2="","",_zhisuan_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="8" t="str">
+      <c r="AB8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z2="","",_zhisuan_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="8" t="str">
+      <c r="AC8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA2="","",_zhisuan_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="8" t="str">
+      <c r="AD8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB2="","",_zhisuan_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="8" t="str">
+      <c r="AE8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC2="","",_zhisuan_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="8" t="str">
+      <c r="AF8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD2="","",_zhisuan_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="8" t="str">
+      <c r="AG8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE2="","",_zhisuan_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="8" t="str">
+      <c r="AH8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF2="","",_zhisuan_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="8" t="str">
+      <c r="AI8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG2="","",_zhisuan_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="8" t="str">
+      <c r="AJ8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH2="","",_zhisuan_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK8" s="8" t="str">
+      <c r="AK8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI2="","",_zhisuan_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="8" t="str">
+      <c r="AL8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ2="","",_zhisuan_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM8" s="8" t="str">
+      <c r="AM8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK2="","",_zhisuan_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN8" s="8" t="str">
+      <c r="AN8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL2="","",_zhisuan_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="8" t="str">
+      <c r="AO8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM2="","",_zhisuan_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP8" s="8" t="str">
+      <c r="AP8" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN2="","",_zhisuan_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ8" s="12" t="str">
+      <c r="AQ8" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO2="","",_zhisuan_day_hour!AO2)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C9" s="8" t="str">
+    <row r="9" spans="2:43">
+      <c r="B9" s="16">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A3="","",_zhisuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B3="","",_zhisuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C3="","",_zhisuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D3="","",_zhisuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="G9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E3="","",_zhisuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F3="","",_zhisuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G3="","",_zhisuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="J9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H3="","",_zhisuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="8" t="str">
+      <c r="K9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I3="","",_zhisuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J3="","",_zhisuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="8" t="str">
+      <c r="M9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K3="","",_zhisuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="8" t="str">
+      <c r="N9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L3="","",_zhisuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="8" t="str">
+      <c r="O9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M3="","",_zhisuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="8" t="str">
+      <c r="P9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N3="","",_zhisuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="8" t="str">
+      <c r="Q9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O3="","",_zhisuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="8" t="str">
+      <c r="R9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P3="","",_zhisuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="8" t="str">
+      <c r="S9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q3="","",_zhisuan_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="8" t="str">
+      <c r="T9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R3="","",_zhisuan_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="8" t="str">
+      <c r="U9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S3="","",_zhisuan_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="8" t="str">
+      <c r="V9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T3="","",_zhisuan_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="8" t="str">
+      <c r="W9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U3="","",_zhisuan_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="8" t="str">
+      <c r="X9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V3="","",_zhisuan_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="8" t="str">
+      <c r="Y9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W3="","",_zhisuan_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="8" t="str">
+      <c r="Z9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X3="","",_zhisuan_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="8" t="str">
+      <c r="AA9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y3="","",_zhisuan_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="8" t="str">
+      <c r="AB9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z3="","",_zhisuan_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="8" t="str">
+      <c r="AC9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA3="","",_zhisuan_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="8" t="str">
+      <c r="AD9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB3="","",_zhisuan_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="8" t="str">
+      <c r="AE9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC3="","",_zhisuan_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="8" t="str">
+      <c r="AF9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD3="","",_zhisuan_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="8" t="str">
+      <c r="AG9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE3="","",_zhisuan_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="8" t="str">
+      <c r="AH9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF3="","",_zhisuan_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="8" t="str">
+      <c r="AI9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG3="","",_zhisuan_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="8" t="str">
+      <c r="AJ9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH3="","",_zhisuan_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="8" t="str">
+      <c r="AK9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI3="","",_zhisuan_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="8" t="str">
+      <c r="AL9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ3="","",_zhisuan_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="8" t="str">
+      <c r="AM9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK3="","",_zhisuan_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="8" t="str">
+      <c r="AN9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL3="","",_zhisuan_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="8" t="str">
+      <c r="AO9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM3="","",_zhisuan_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="8" t="str">
+      <c r="AP9" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN3="","",_zhisuan_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="12" t="str">
+      <c r="AQ9" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO3="","",_zhisuan_day_hour!AO3)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C10" s="8" t="str">
+    <row r="10" spans="2:43">
+      <c r="B10" s="16">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A4="","",_zhisuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B4="","",_zhisuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C4="","",_zhisuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="8" t="str">
+      <c r="F10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D4="","",_zhisuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E4="","",_zhisuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="8" t="str">
+      <c r="H10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F4="","",_zhisuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G4="","",_zhisuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="8" t="str">
+      <c r="J10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H4="","",_zhisuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="8" t="str">
+      <c r="K10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I4="","",_zhisuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="8" t="str">
+      <c r="L10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J4="","",_zhisuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="8" t="str">
+      <c r="M10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K4="","",_zhisuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="8" t="str">
+      <c r="N10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L4="","",_zhisuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="8" t="str">
+      <c r="O10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M4="","",_zhisuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="8" t="str">
+      <c r="P10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N4="","",_zhisuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="8" t="str">
+      <c r="Q10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O4="","",_zhisuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="8" t="str">
+      <c r="R10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P4="","",_zhisuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="8" t="str">
+      <c r="S10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q4="","",_zhisuan_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="8" t="str">
+      <c r="T10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R4="","",_zhisuan_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="8" t="str">
+      <c r="U10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S4="","",_zhisuan_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="8" t="str">
+      <c r="V10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T4="","",_zhisuan_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="8" t="str">
+      <c r="W10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U4="","",_zhisuan_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="8" t="str">
+      <c r="X10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V4="","",_zhisuan_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="8" t="str">
+      <c r="Y10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W4="","",_zhisuan_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="8" t="str">
+      <c r="Z10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X4="","",_zhisuan_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="8" t="str">
+      <c r="AA10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y4="","",_zhisuan_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="8" t="str">
+      <c r="AB10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z4="","",_zhisuan_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="8" t="str">
+      <c r="AC10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA4="","",_zhisuan_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="8" t="str">
+      <c r="AD10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB4="","",_zhisuan_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="8" t="str">
+      <c r="AE10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC4="","",_zhisuan_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="8" t="str">
+      <c r="AF10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD4="","",_zhisuan_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="8" t="str">
+      <c r="AG10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE4="","",_zhisuan_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="8" t="str">
+      <c r="AH10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF4="","",_zhisuan_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="8" t="str">
+      <c r="AI10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG4="","",_zhisuan_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="8" t="str">
+      <c r="AJ10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH4="","",_zhisuan_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="8" t="str">
+      <c r="AK10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI4="","",_zhisuan_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="8" t="str">
+      <c r="AL10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ4="","",_zhisuan_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="8" t="str">
+      <c r="AM10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK4="","",_zhisuan_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="8" t="str">
+      <c r="AN10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL4="","",_zhisuan_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="8" t="str">
+      <c r="AO10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM4="","",_zhisuan_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="8" t="str">
+      <c r="AP10" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN4="","",_zhisuan_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO4="","",_zhisuan_day_hour!AO4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="7">
+    <row r="11" ht="14.1" customHeight="1" spans="2:43">
+      <c r="B11" s="16">
         <v>0.125</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A5="","",_zhisuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B5="","",_zhisuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C5="","",_zhisuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D5="","",_zhisuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E5="","",_zhisuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="H11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F5="","",_zhisuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G5="","",_zhisuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="J11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H5="","",_zhisuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="8" t="str">
+      <c r="K11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I5="","",_zhisuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="8" t="str">
+      <c r="L11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J5="","",_zhisuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="8" t="str">
+      <c r="M11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K5="","",_zhisuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="8" t="str">
+      <c r="N11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L5="","",_zhisuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="8" t="str">
+      <c r="O11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M5="","",_zhisuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="8" t="str">
+      <c r="P11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N5="","",_zhisuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="8" t="str">
+      <c r="Q11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O5="","",_zhisuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="8" t="str">
+      <c r="R11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P5="","",_zhisuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="8" t="str">
+      <c r="S11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q5="","",_zhisuan_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="8" t="str">
+      <c r="T11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R5="","",_zhisuan_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="8" t="str">
+      <c r="U11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S5="","",_zhisuan_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="8" t="str">
+      <c r="V11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T5="","",_zhisuan_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="8" t="str">
+      <c r="W11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U5="","",_zhisuan_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="8" t="str">
+      <c r="X11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V5="","",_zhisuan_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="8" t="str">
+      <c r="Y11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W5="","",_zhisuan_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="8" t="str">
+      <c r="Z11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X5="","",_zhisuan_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="8" t="str">
+      <c r="AA11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y5="","",_zhisuan_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="8" t="str">
+      <c r="AB11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z5="","",_zhisuan_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="8" t="str">
+      <c r="AC11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA5="","",_zhisuan_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="8" t="str">
+      <c r="AD11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB5="","",_zhisuan_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="8" t="str">
+      <c r="AE11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC5="","",_zhisuan_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="8" t="str">
+      <c r="AF11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD5="","",_zhisuan_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="8" t="str">
+      <c r="AG11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE5="","",_zhisuan_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="8" t="str">
+      <c r="AH11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF5="","",_zhisuan_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="8" t="str">
+      <c r="AI11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG5="","",_zhisuan_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="8" t="str">
+      <c r="AJ11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH5="","",_zhisuan_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="8" t="str">
+      <c r="AK11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI5="","",_zhisuan_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="8" t="str">
+      <c r="AL11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ5="","",_zhisuan_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="8" t="str">
+      <c r="AM11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK5="","",_zhisuan_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="8" t="str">
+      <c r="AN11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL5="","",_zhisuan_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="8" t="str">
+      <c r="AO11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM5="","",_zhisuan_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="8" t="str">
+      <c r="AP11" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN5="","",_zhisuan_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="12" t="str">
+      <c r="AQ11" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO5="","",_zhisuan_day_hour!AO5)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="7">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C12" s="8" t="str">
+    <row r="12" ht="24.95" customHeight="1" spans="2:43">
+      <c r="B12" s="16">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A6="","",_zhisuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B6="","",_zhisuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C6="","",_zhisuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D6="","",_zhisuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E6="","",_zhisuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F6="","",_zhisuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G6="","",_zhisuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="8" t="str">
+      <c r="J12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H6="","",_zhisuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="8" t="str">
+      <c r="K12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I6="","",_zhisuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J6="","",_zhisuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="M12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K6="","",_zhisuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="8" t="str">
+      <c r="N12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L6="","",_zhisuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="8" t="str">
+      <c r="O12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M6="","",_zhisuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="8" t="str">
+      <c r="P12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N6="","",_zhisuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="8" t="str">
+      <c r="Q12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O6="","",_zhisuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="8" t="str">
+      <c r="R12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P6="","",_zhisuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="8" t="str">
+      <c r="S12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q6="","",_zhisuan_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="8" t="str">
+      <c r="T12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R6="","",_zhisuan_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="8" t="str">
+      <c r="U12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S6="","",_zhisuan_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="8" t="str">
+      <c r="V12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T6="","",_zhisuan_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="8" t="str">
+      <c r="W12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U6="","",_zhisuan_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="8" t="str">
+      <c r="X12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V6="","",_zhisuan_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="8" t="str">
+      <c r="Y12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W6="","",_zhisuan_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="8" t="str">
+      <c r="Z12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X6="","",_zhisuan_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="8" t="str">
+      <c r="AA12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y6="","",_zhisuan_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="8" t="str">
+      <c r="AB12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z6="","",_zhisuan_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="8" t="str">
+      <c r="AC12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA6="","",_zhisuan_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="8" t="str">
+      <c r="AD12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB6="","",_zhisuan_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="8" t="str">
+      <c r="AE12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC6="","",_zhisuan_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="8" t="str">
+      <c r="AF12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD6="","",_zhisuan_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="8" t="str">
+      <c r="AG12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE6="","",_zhisuan_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="8" t="str">
+      <c r="AH12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF6="","",_zhisuan_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="8" t="str">
+      <c r="AI12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG6="","",_zhisuan_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="8" t="str">
+      <c r="AJ12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH6="","",_zhisuan_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="8" t="str">
+      <c r="AK12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI6="","",_zhisuan_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="8" t="str">
+      <c r="AL12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ6="","",_zhisuan_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="8" t="str">
+      <c r="AM12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK6="","",_zhisuan_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="8" t="str">
+      <c r="AN12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL6="","",_zhisuan_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="8" t="str">
+      <c r="AO12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM6="","",_zhisuan_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="8" t="str">
+      <c r="AP12" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN6="","",_zhisuan_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="12" t="str">
+      <c r="AQ12" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO6="","",_zhisuan_day_hour!AO6)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B13" s="7">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C13" s="8" t="str">
+    <row r="13" spans="2:43">
+      <c r="B13" s="16">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A7="","",_zhisuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B7="","",_zhisuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C7="","",_zhisuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D7="","",_zhisuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E7="","",_zhisuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F7="","",_zhisuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G7="","",_zhisuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="J13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H7="","",_zhisuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="8" t="str">
+      <c r="K13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I7="","",_zhisuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J7="","",_zhisuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="M13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K7="","",_zhisuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="8" t="str">
+      <c r="N13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L7="","",_zhisuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="O13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M7="","",_zhisuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="P13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N7="","",_zhisuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="8" t="str">
+      <c r="Q13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O7="","",_zhisuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="8" t="str">
+      <c r="R13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P7="","",_zhisuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="8" t="str">
+      <c r="S13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q7="","",_zhisuan_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="8" t="str">
+      <c r="T13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R7="","",_zhisuan_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="8" t="str">
+      <c r="U13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S7="","",_zhisuan_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="8" t="str">
+      <c r="V13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T7="","",_zhisuan_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="8" t="str">
+      <c r="W13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U7="","",_zhisuan_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="8" t="str">
+      <c r="X13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V7="","",_zhisuan_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="8" t="str">
+      <c r="Y13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W7="","",_zhisuan_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="8" t="str">
+      <c r="Z13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X7="","",_zhisuan_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="8" t="str">
+      <c r="AA13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y7="","",_zhisuan_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="8" t="str">
+      <c r="AB13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z7="","",_zhisuan_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="8" t="str">
+      <c r="AC13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA7="","",_zhisuan_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="8" t="str">
+      <c r="AD13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB7="","",_zhisuan_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="8" t="str">
+      <c r="AE13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC7="","",_zhisuan_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="8" t="str">
+      <c r="AF13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD7="","",_zhisuan_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="8" t="str">
+      <c r="AG13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE7="","",_zhisuan_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="8" t="str">
+      <c r="AH13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF7="","",_zhisuan_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="8" t="str">
+      <c r="AI13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG7="","",_zhisuan_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="8" t="str">
+      <c r="AJ13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH7="","",_zhisuan_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="8" t="str">
+      <c r="AK13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI7="","",_zhisuan_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="8" t="str">
+      <c r="AL13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ7="","",_zhisuan_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="8" t="str">
+      <c r="AM13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK7="","",_zhisuan_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="8" t="str">
+      <c r="AN13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL7="","",_zhisuan_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="8" t="str">
+      <c r="AO13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM7="","",_zhisuan_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="8" t="str">
+      <c r="AP13" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN7="","",_zhisuan_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="12" t="str">
+      <c r="AQ13" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO7="","",_zhisuan_day_hour!AO7)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="7">
+    <row r="14" s="3" customFormat="1" spans="2:44">
+      <c r="B14" s="16">
         <v>0.25</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A8="","",_zhisuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B8="","",_zhisuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C8="","",_zhisuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D8="","",_zhisuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E8="","",_zhisuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F8="","",_zhisuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G8="","",_zhisuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="8" t="str">
+      <c r="J14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H8="","",_zhisuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="8" t="str">
+      <c r="K14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I8="","",_zhisuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J8="","",_zhisuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="M14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K8="","",_zhisuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="8" t="str">
+      <c r="N14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L8="","",_zhisuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="O14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M8="","",_zhisuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="8" t="str">
+      <c r="P14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N8="","",_zhisuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="8" t="str">
+      <c r="Q14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O8="","",_zhisuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="8" t="str">
+      <c r="R14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P8="","",_zhisuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="8" t="str">
+      <c r="S14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q8="","",_zhisuan_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="8" t="str">
+      <c r="T14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R8="","",_zhisuan_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="8" t="str">
+      <c r="U14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S8="","",_zhisuan_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="8" t="str">
+      <c r="V14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T8="","",_zhisuan_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="8" t="str">
+      <c r="W14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U8="","",_zhisuan_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="8" t="str">
+      <c r="X14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V8="","",_zhisuan_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="8" t="str">
+      <c r="Y14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W8="","",_zhisuan_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="8" t="str">
+      <c r="Z14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X8="","",_zhisuan_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="8" t="str">
+      <c r="AA14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y8="","",_zhisuan_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="8" t="str">
+      <c r="AB14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z8="","",_zhisuan_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="8" t="str">
+      <c r="AC14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA8="","",_zhisuan_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="8" t="str">
+      <c r="AD14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB8="","",_zhisuan_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="8" t="str">
+      <c r="AE14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC8="","",_zhisuan_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="8" t="str">
+      <c r="AF14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD8="","",_zhisuan_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="8" t="str">
+      <c r="AG14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE8="","",_zhisuan_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="8" t="str">
+      <c r="AH14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF8="","",_zhisuan_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="8" t="str">
+      <c r="AI14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG8="","",_zhisuan_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="8" t="str">
+      <c r="AJ14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH8="","",_zhisuan_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="8" t="str">
+      <c r="AK14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI8="","",_zhisuan_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="8" t="str">
+      <c r="AL14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ8="","",_zhisuan_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="8" t="str">
+      <c r="AM14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK8="","",_zhisuan_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="8" t="str">
+      <c r="AN14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL8="","",_zhisuan_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="8" t="str">
+      <c r="AO14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM8="","",_zhisuan_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="8" t="str">
+      <c r="AP14" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN8="","",_zhisuan_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="12" t="str">
+      <c r="AQ14" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO8="","",_zhisuan_day_hour!AO8)</f>
         <v/>
       </c>
       <c r="AR14"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B15" s="7">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C15" s="8" t="str">
+    <row r="15" spans="2:43">
+      <c r="B15" s="16">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A9="","",_zhisuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B9="","",_zhisuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C9="","",_zhisuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D9="","",_zhisuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="G15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E9="","",_zhisuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F9="","",_zhisuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G9="","",_zhisuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="J15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H9="","",_zhisuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="8" t="str">
+      <c r="K15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I9="","",_zhisuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J9="","",_zhisuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="8" t="str">
+      <c r="M15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K9="","",_zhisuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="8" t="str">
+      <c r="N15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L9="","",_zhisuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="8" t="str">
+      <c r="O15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M9="","",_zhisuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="8" t="str">
+      <c r="P15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N9="","",_zhisuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="8" t="str">
+      <c r="Q15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O9="","",_zhisuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="8" t="str">
+      <c r="R15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P9="","",_zhisuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="8" t="str">
+      <c r="S15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q9="","",_zhisuan_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="8" t="str">
+      <c r="T15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R9="","",_zhisuan_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="8" t="str">
+      <c r="U15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S9="","",_zhisuan_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="8" t="str">
+      <c r="V15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T9="","",_zhisuan_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="8" t="str">
+      <c r="W15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U9="","",_zhisuan_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="8" t="str">
+      <c r="X15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V9="","",_zhisuan_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="8" t="str">
+      <c r="Y15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W9="","",_zhisuan_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="8" t="str">
+      <c r="Z15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X9="","",_zhisuan_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="8" t="str">
+      <c r="AA15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y9="","",_zhisuan_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="8" t="str">
+      <c r="AB15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z9="","",_zhisuan_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="8" t="str">
+      <c r="AC15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA9="","",_zhisuan_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="8" t="str">
+      <c r="AD15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB9="","",_zhisuan_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="8" t="str">
+      <c r="AE15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC9="","",_zhisuan_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="8" t="str">
+      <c r="AF15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD9="","",_zhisuan_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="8" t="str">
+      <c r="AG15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE9="","",_zhisuan_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="8" t="str">
+      <c r="AH15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF9="","",_zhisuan_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="8" t="str">
+      <c r="AI15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG9="","",_zhisuan_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="8" t="str">
+      <c r="AJ15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH9="","",_zhisuan_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="8" t="str">
+      <c r="AK15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI9="","",_zhisuan_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="8" t="str">
+      <c r="AL15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ9="","",_zhisuan_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="8" t="str">
+      <c r="AM15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK9="","",_zhisuan_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="8" t="str">
+      <c r="AN15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL9="","",_zhisuan_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="8" t="str">
+      <c r="AO15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM9="","",_zhisuan_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="8" t="str">
+      <c r="AP15" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN9="","",_zhisuan_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="12" t="str">
+      <c r="AQ15" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO9="","",_zhisuan_day_hour!AO9)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C16" s="8" t="str">
+    <row r="16" spans="2:43">
+      <c r="B16" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A10="","",_zhisuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="D16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B10="","",_zhisuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C10="","",_zhisuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="8" t="str">
+      <c r="F16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D10="","",_zhisuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="G16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E10="","",_zhisuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F10="","",_zhisuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G10="","",_zhisuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="J16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H10="","",_zhisuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="8" t="str">
+      <c r="K16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I10="","",_zhisuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="8" t="str">
+      <c r="L16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J10="","",_zhisuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="8" t="str">
+      <c r="M16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K10="","",_zhisuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="8" t="str">
+      <c r="N16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L10="","",_zhisuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="8" t="str">
+      <c r="O16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M10="","",_zhisuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="8" t="str">
+      <c r="P16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N10="","",_zhisuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="8" t="str">
+      <c r="Q16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O10="","",_zhisuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="8" t="str">
+      <c r="R16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P10="","",_zhisuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="8" t="str">
+      <c r="S16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q10="","",_zhisuan_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="8" t="str">
+      <c r="T16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R10="","",_zhisuan_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="8" t="str">
+      <c r="U16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S10="","",_zhisuan_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="8" t="str">
+      <c r="V16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T10="","",_zhisuan_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="8" t="str">
+      <c r="W16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U10="","",_zhisuan_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="8" t="str">
+      <c r="X16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V10="","",_zhisuan_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="8" t="str">
+      <c r="Y16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W10="","",_zhisuan_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="8" t="str">
+      <c r="Z16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X10="","",_zhisuan_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="8" t="str">
+      <c r="AA16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y10="","",_zhisuan_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="8" t="str">
+      <c r="AB16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z10="","",_zhisuan_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="8" t="str">
+      <c r="AC16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA10="","",_zhisuan_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="8" t="str">
+      <c r="AD16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB10="","",_zhisuan_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="8" t="str">
+      <c r="AE16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC10="","",_zhisuan_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="8" t="str">
+      <c r="AF16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD10="","",_zhisuan_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="8" t="str">
+      <c r="AG16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE10="","",_zhisuan_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="8" t="str">
+      <c r="AH16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF10="","",_zhisuan_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="8" t="str">
+      <c r="AI16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG10="","",_zhisuan_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="8" t="str">
+      <c r="AJ16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH10="","",_zhisuan_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="8" t="str">
+      <c r="AK16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI10="","",_zhisuan_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="8" t="str">
+      <c r="AL16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ10="","",_zhisuan_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="8" t="str">
+      <c r="AM16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK10="","",_zhisuan_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="8" t="str">
+      <c r="AN16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL10="","",_zhisuan_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="8" t="str">
+      <c r="AO16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM10="","",_zhisuan_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="8" t="str">
+      <c r="AP16" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN10="","",_zhisuan_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="12" t="str">
+      <c r="AQ16" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO10="","",_zhisuan_day_hour!AO10)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B17" s="7">
+    <row r="17" spans="2:43">
+      <c r="B17" s="16">
         <v>0.375</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A11="","",_zhisuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B11="","",_zhisuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="8" t="str">
+      <c r="E17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C11="","",_zhisuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="8" t="str">
+      <c r="F17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D11="","",_zhisuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="8" t="str">
+      <c r="G17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E11="","",_zhisuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="8" t="str">
+      <c r="H17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F11="","",_zhisuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G11="","",_zhisuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="8" t="str">
+      <c r="J17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H11="","",_zhisuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="8" t="str">
+      <c r="K17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I11="","",_zhisuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J11="","",_zhisuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="8" t="str">
+      <c r="M17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K11="","",_zhisuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="8" t="str">
+      <c r="N17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L11="","",_zhisuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="8" t="str">
+      <c r="O17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M11="","",_zhisuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="8" t="str">
+      <c r="P17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N11="","",_zhisuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="8" t="str">
+      <c r="Q17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O11="","",_zhisuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="8" t="str">
+      <c r="R17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P11="","",_zhisuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="8" t="str">
+      <c r="S17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q11="","",_zhisuan_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="8" t="str">
+      <c r="T17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R11="","",_zhisuan_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="8" t="str">
+      <c r="U17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S11="","",_zhisuan_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="8" t="str">
+      <c r="V17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T11="","",_zhisuan_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="8" t="str">
+      <c r="W17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U11="","",_zhisuan_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="8" t="str">
+      <c r="X17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V11="","",_zhisuan_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="8" t="str">
+      <c r="Y17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W11="","",_zhisuan_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="8" t="str">
+      <c r="Z17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X11="","",_zhisuan_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="8" t="str">
+      <c r="AA17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y11="","",_zhisuan_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="8" t="str">
+      <c r="AB17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z11="","",_zhisuan_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="8" t="str">
+      <c r="AC17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA11="","",_zhisuan_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="8" t="str">
+      <c r="AD17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB11="","",_zhisuan_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="8" t="str">
+      <c r="AE17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC11="","",_zhisuan_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="8" t="str">
+      <c r="AF17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD11="","",_zhisuan_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="8" t="str">
+      <c r="AG17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE11="","",_zhisuan_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="8" t="str">
+      <c r="AH17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF11="","",_zhisuan_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="8" t="str">
+      <c r="AI17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG11="","",_zhisuan_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="8" t="str">
+      <c r="AJ17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH11="","",_zhisuan_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="8" t="str">
+      <c r="AK17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI11="","",_zhisuan_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="8" t="str">
+      <c r="AL17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ11="","",_zhisuan_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="8" t="str">
+      <c r="AM17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK11="","",_zhisuan_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="8" t="str">
+      <c r="AN17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL11="","",_zhisuan_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="8" t="str">
+      <c r="AO17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM11="","",_zhisuan_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="8" t="str">
+      <c r="AP17" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN11="","",_zhisuan_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="12" t="str">
+      <c r="AQ17" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO11="","",_zhisuan_day_hour!AO11)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B18" s="7">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="C18" s="8" t="str">
+    <row r="18" spans="2:43">
+      <c r="B18" s="16">
+        <v>0.416666666666666</v>
+      </c>
+      <c r="C18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A12="","",_zhisuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B12="","",_zhisuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C12="","",_zhisuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D12="","",_zhisuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E12="","",_zhisuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F12="","",_zhisuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G12="","",_zhisuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H12="","",_zhisuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="8" t="str">
+      <c r="K18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I12="","",_zhisuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J12="","",_zhisuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="M18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K12="","",_zhisuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L12="","",_zhisuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="O18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M12="","",_zhisuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="8" t="str">
+      <c r="P18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N12="","",_zhisuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="8" t="str">
+      <c r="Q18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O12="","",_zhisuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="8" t="str">
+      <c r="R18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P12="","",_zhisuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="8" t="str">
+      <c r="S18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q12="","",_zhisuan_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="8" t="str">
+      <c r="T18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R12="","",_zhisuan_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="8" t="str">
+      <c r="U18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S12="","",_zhisuan_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="8" t="str">
+      <c r="V18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T12="","",_zhisuan_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="8" t="str">
+      <c r="W18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U12="","",_zhisuan_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="8" t="str">
+      <c r="X18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V12="","",_zhisuan_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="8" t="str">
+      <c r="Y18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W12="","",_zhisuan_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="8" t="str">
+      <c r="Z18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X12="","",_zhisuan_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="8" t="str">
+      <c r="AA18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y12="","",_zhisuan_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="8" t="str">
+      <c r="AB18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z12="","",_zhisuan_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="8" t="str">
+      <c r="AC18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA12="","",_zhisuan_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="8" t="str">
+      <c r="AD18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB12="","",_zhisuan_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="8" t="str">
+      <c r="AE18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC12="","",_zhisuan_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="8" t="str">
+      <c r="AF18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD12="","",_zhisuan_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="8" t="str">
+      <c r="AG18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE12="","",_zhisuan_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="8" t="str">
+      <c r="AH18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF12="","",_zhisuan_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="8" t="str">
+      <c r="AI18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG12="","",_zhisuan_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="8" t="str">
+      <c r="AJ18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH12="","",_zhisuan_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="8" t="str">
+      <c r="AK18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI12="","",_zhisuan_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="8" t="str">
+      <c r="AL18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ12="","",_zhisuan_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="8" t="str">
+      <c r="AM18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK12="","",_zhisuan_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="8" t="str">
+      <c r="AN18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL12="","",_zhisuan_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="8" t="str">
+      <c r="AO18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM12="","",_zhisuan_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="8" t="str">
+      <c r="AP18" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN12="","",_zhisuan_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="12" t="str">
+      <c r="AQ18" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO12="","",_zhisuan_day_hour!AO12)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B19" s="7">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C19" s="8" t="str">
+    <row r="19" spans="2:43">
+      <c r="B19" s="16">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A13="","",_zhisuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B13="","",_zhisuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C13="","",_zhisuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D13="","",_zhisuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E13="","",_zhisuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F13="","",_zhisuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G13="","",_zhisuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="J19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H13="","",_zhisuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="8" t="str">
+      <c r="K19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I13="","",_zhisuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J13="","",_zhisuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="8" t="str">
+      <c r="M19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K13="","",_zhisuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="8" t="str">
+      <c r="N19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L13="","",_zhisuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="8" t="str">
+      <c r="O19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M13="","",_zhisuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="8" t="str">
+      <c r="P19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N13="","",_zhisuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="8" t="str">
+      <c r="Q19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O13="","",_zhisuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="8" t="str">
+      <c r="R19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P13="","",_zhisuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="8" t="str">
+      <c r="S19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q13="","",_zhisuan_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="8" t="str">
+      <c r="T19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R13="","",_zhisuan_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="8" t="str">
+      <c r="U19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S13="","",_zhisuan_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="8" t="str">
+      <c r="V19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T13="","",_zhisuan_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="8" t="str">
+      <c r="W19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U13="","",_zhisuan_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="8" t="str">
+      <c r="X19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V13="","",_zhisuan_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="8" t="str">
+      <c r="Y19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W13="","",_zhisuan_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="8" t="str">
+      <c r="Z19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X13="","",_zhisuan_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="8" t="str">
+      <c r="AA19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y13="","",_zhisuan_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="8" t="str">
+      <c r="AB19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z13="","",_zhisuan_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="8" t="str">
+      <c r="AC19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA13="","",_zhisuan_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="8" t="str">
+      <c r="AD19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB13="","",_zhisuan_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="8" t="str">
+      <c r="AE19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC13="","",_zhisuan_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="8" t="str">
+      <c r="AF19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD13="","",_zhisuan_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="8" t="str">
+      <c r="AG19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE13="","",_zhisuan_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="8" t="str">
+      <c r="AH19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF13="","",_zhisuan_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="8" t="str">
+      <c r="AI19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG13="","",_zhisuan_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="8" t="str">
+      <c r="AJ19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH13="","",_zhisuan_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="8" t="str">
+      <c r="AK19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI13="","",_zhisuan_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="8" t="str">
+      <c r="AL19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ13="","",_zhisuan_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="8" t="str">
+      <c r="AM19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK13="","",_zhisuan_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="8" t="str">
+      <c r="AN19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL13="","",_zhisuan_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="8" t="str">
+      <c r="AO19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM13="","",_zhisuan_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="8" t="str">
+      <c r="AP19" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN13="","",_zhisuan_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="12" t="str">
+      <c r="AQ19" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO13="","",_zhisuan_day_hour!AO13)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B20" s="7">
+    <row r="20" spans="2:43">
+      <c r="B20" s="16">
         <v>0.5</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A14="","",_zhisuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B14="","",_zhisuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C14="","",_zhisuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D14="","",_zhisuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E14="","",_zhisuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F14="","",_zhisuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G14="","",_zhisuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="8" t="str">
+      <c r="J20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H14="","",_zhisuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="8" t="str">
+      <c r="K20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I14="","",_zhisuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J14="","",_zhisuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="8" t="str">
+      <c r="M20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K14="","",_zhisuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="8" t="str">
+      <c r="N20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L14="","",_zhisuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="8" t="str">
+      <c r="O20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M14="","",_zhisuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="8" t="str">
+      <c r="P20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N14="","",_zhisuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="8" t="str">
+      <c r="Q20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O14="","",_zhisuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="8" t="str">
+      <c r="R20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P14="","",_zhisuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="8" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q14="","",_zhisuan_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="8" t="str">
+      <c r="T20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R14="","",_zhisuan_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="8" t="str">
+      <c r="U20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S14="","",_zhisuan_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="8" t="str">
+      <c r="V20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T14="","",_zhisuan_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="8" t="str">
+      <c r="W20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U14="","",_zhisuan_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="8" t="str">
+      <c r="X20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V14="","",_zhisuan_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="8" t="str">
+      <c r="Y20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W14="","",_zhisuan_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="8" t="str">
+      <c r="Z20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X14="","",_zhisuan_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="8" t="str">
+      <c r="AA20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y14="","",_zhisuan_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="8" t="str">
+      <c r="AB20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z14="","",_zhisuan_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="8" t="str">
+      <c r="AC20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA14="","",_zhisuan_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="8" t="str">
+      <c r="AD20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB14="","",_zhisuan_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="8" t="str">
+      <c r="AE20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC14="","",_zhisuan_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="8" t="str">
+      <c r="AF20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD14="","",_zhisuan_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="8" t="str">
+      <c r="AG20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE14="","",_zhisuan_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="8" t="str">
+      <c r="AH20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF14="","",_zhisuan_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="8" t="str">
+      <c r="AI20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG14="","",_zhisuan_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="8" t="str">
+      <c r="AJ20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH14="","",_zhisuan_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="8" t="str">
+      <c r="AK20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI14="","",_zhisuan_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="8" t="str">
+      <c r="AL20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ14="","",_zhisuan_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="8" t="str">
+      <c r="AM20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK14="","",_zhisuan_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="8" t="str">
+      <c r="AN20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL14="","",_zhisuan_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="8" t="str">
+      <c r="AO20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM14="","",_zhisuan_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="8" t="str">
+      <c r="AP20" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN14="","",_zhisuan_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="12" t="str">
+      <c r="AQ20" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO14="","",_zhisuan_day_hour!AO14)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B21" s="7">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C21" s="8" t="str">
+    <row r="21" spans="2:43">
+      <c r="B21" s="16">
+        <v>0.541666666666666</v>
+      </c>
+      <c r="C21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A15="","",_zhisuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B15="","",_zhisuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C15="","",_zhisuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="8" t="str">
+      <c r="F21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D15="","",_zhisuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="8" t="str">
+      <c r="G21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E15="","",_zhisuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F15="","",_zhisuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G15="","",_zhisuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="8" t="str">
+      <c r="J21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H15="","",_zhisuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="8" t="str">
+      <c r="K21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I15="","",_zhisuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J15="","",_zhisuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="8" t="str">
+      <c r="M21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K15="","",_zhisuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="8" t="str">
+      <c r="N21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L15="","",_zhisuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="8" t="str">
+      <c r="O21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M15="","",_zhisuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="8" t="str">
+      <c r="P21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N15="","",_zhisuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="8" t="str">
+      <c r="Q21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O15="","",_zhisuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="8" t="str">
+      <c r="R21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P15="","",_zhisuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="8" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q15="","",_zhisuan_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="8" t="str">
+      <c r="T21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R15="","",_zhisuan_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="8" t="str">
+      <c r="U21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S15="","",_zhisuan_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="8" t="str">
+      <c r="V21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T15="","",_zhisuan_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="8" t="str">
+      <c r="W21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U15="","",_zhisuan_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="8" t="str">
+      <c r="X21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V15="","",_zhisuan_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="8" t="str">
+      <c r="Y21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W15="","",_zhisuan_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="8" t="str">
+      <c r="Z21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X15="","",_zhisuan_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="8" t="str">
+      <c r="AA21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y15="","",_zhisuan_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="8" t="str">
+      <c r="AB21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z15="","",_zhisuan_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="8" t="str">
+      <c r="AC21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA15="","",_zhisuan_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="8" t="str">
+      <c r="AD21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB15="","",_zhisuan_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="8" t="str">
+      <c r="AE21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC15="","",_zhisuan_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="8" t="str">
+      <c r="AF21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD15="","",_zhisuan_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="8" t="str">
+      <c r="AG21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE15="","",_zhisuan_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="8" t="str">
+      <c r="AH21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF15="","",_zhisuan_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="8" t="str">
+      <c r="AI21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG15="","",_zhisuan_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="8" t="str">
+      <c r="AJ21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH15="","",_zhisuan_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="8" t="str">
+      <c r="AK21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI15="","",_zhisuan_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="8" t="str">
+      <c r="AL21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ15="","",_zhisuan_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="8" t="str">
+      <c r="AM21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK15="","",_zhisuan_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="8" t="str">
+      <c r="AN21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL15="","",_zhisuan_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="8" t="str">
+      <c r="AO21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM15="","",_zhisuan_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="8" t="str">
+      <c r="AP21" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN15="","",_zhisuan_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="12" t="str">
+      <c r="AQ21" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO15="","",_zhisuan_day_hour!AO15)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B22" s="7">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C22" s="8" t="str">
+    <row r="22" spans="2:43">
+      <c r="B22" s="16">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A16="","",_zhisuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B16="","",_zhisuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C16="","",_zhisuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D16="","",_zhisuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E16="","",_zhisuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F16="","",_zhisuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G16="","",_zhisuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="8" t="str">
+      <c r="J22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H16="","",_zhisuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="8" t="str">
+      <c r="K22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I16="","",_zhisuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J16="","",_zhisuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="8" t="str">
+      <c r="M22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K16="","",_zhisuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L16="","",_zhisuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="8" t="str">
+      <c r="O22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M16="","",_zhisuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="8" t="str">
+      <c r="P22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N16="","",_zhisuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="8" t="str">
+      <c r="Q22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O16="","",_zhisuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="8" t="str">
+      <c r="R22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P16="","",_zhisuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="8" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q16="","",_zhisuan_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="8" t="str">
+      <c r="T22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R16="","",_zhisuan_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="8" t="str">
+      <c r="U22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S16="","",_zhisuan_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="8" t="str">
+      <c r="V22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T16="","",_zhisuan_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="8" t="str">
+      <c r="W22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U16="","",_zhisuan_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="8" t="str">
+      <c r="X22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V16="","",_zhisuan_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="8" t="str">
+      <c r="Y22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W16="","",_zhisuan_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="8" t="str">
+      <c r="Z22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X16="","",_zhisuan_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="8" t="str">
+      <c r="AA22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y16="","",_zhisuan_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="8" t="str">
+      <c r="AB22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z16="","",_zhisuan_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="8" t="str">
+      <c r="AC22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA16="","",_zhisuan_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="8" t="str">
+      <c r="AD22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB16="","",_zhisuan_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="8" t="str">
+      <c r="AE22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC16="","",_zhisuan_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="8" t="str">
+      <c r="AF22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD16="","",_zhisuan_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="8" t="str">
+      <c r="AG22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE16="","",_zhisuan_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="8" t="str">
+      <c r="AH22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF16="","",_zhisuan_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="8" t="str">
+      <c r="AI22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG16="","",_zhisuan_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="8" t="str">
+      <c r="AJ22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH16="","",_zhisuan_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="8" t="str">
+      <c r="AK22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI16="","",_zhisuan_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="8" t="str">
+      <c r="AL22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ16="","",_zhisuan_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="8" t="str">
+      <c r="AM22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK16="","",_zhisuan_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="8" t="str">
+      <c r="AN22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL16="","",_zhisuan_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="8" t="str">
+      <c r="AO22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM16="","",_zhisuan_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="8" t="str">
+      <c r="AP22" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN16="","",_zhisuan_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="12" t="str">
+      <c r="AQ22" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO16="","",_zhisuan_day_hour!AO16)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B23" s="7">
+    <row r="23" spans="2:43">
+      <c r="B23" s="16">
         <v>0.625</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A17="","",_zhisuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B17="","",_zhisuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C17="","",_zhisuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D17="","",_zhisuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E17="","",_zhisuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F17="","",_zhisuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G17="","",_zhisuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="8" t="str">
+      <c r="J23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H17="","",_zhisuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="8" t="str">
+      <c r="K23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I17="","",_zhisuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J17="","",_zhisuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K17="","",_zhisuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L17="","",_zhisuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="8" t="str">
+      <c r="O23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M17="","",_zhisuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="8" t="str">
+      <c r="P23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N17="","",_zhisuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="8" t="str">
+      <c r="Q23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O17="","",_zhisuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="8" t="str">
+      <c r="R23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P17="","",_zhisuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="8" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q17="","",_zhisuan_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="8" t="str">
+      <c r="T23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R17="","",_zhisuan_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="8" t="str">
+      <c r="U23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S17="","",_zhisuan_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="8" t="str">
+      <c r="V23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T17="","",_zhisuan_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="8" t="str">
+      <c r="W23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U17="","",_zhisuan_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="8" t="str">
+      <c r="X23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V17="","",_zhisuan_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="8" t="str">
+      <c r="Y23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W17="","",_zhisuan_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="8" t="str">
+      <c r="Z23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X17="","",_zhisuan_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="8" t="str">
+      <c r="AA23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y17="","",_zhisuan_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="8" t="str">
+      <c r="AB23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z17="","",_zhisuan_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="8" t="str">
+      <c r="AC23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA17="","",_zhisuan_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="8" t="str">
+      <c r="AD23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB17="","",_zhisuan_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="8" t="str">
+      <c r="AE23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC17="","",_zhisuan_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="8" t="str">
+      <c r="AF23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD17="","",_zhisuan_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="8" t="str">
+      <c r="AG23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE17="","",_zhisuan_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="8" t="str">
+      <c r="AH23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF17="","",_zhisuan_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="8" t="str">
+      <c r="AI23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG17="","",_zhisuan_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="8" t="str">
+      <c r="AJ23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH17="","",_zhisuan_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="8" t="str">
+      <c r="AK23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI17="","",_zhisuan_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="8" t="str">
+      <c r="AL23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ17="","",_zhisuan_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="8" t="str">
+      <c r="AM23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK17="","",_zhisuan_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="8" t="str">
+      <c r="AN23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL17="","",_zhisuan_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="8" t="str">
+      <c r="AO23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM17="","",_zhisuan_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="8" t="str">
+      <c r="AP23" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN17="","",_zhisuan_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="12" t="str">
+      <c r="AQ23" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO17="","",_zhisuan_day_hour!AO17)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B24" s="7">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C24" s="8" t="str">
+    <row r="24" spans="2:43">
+      <c r="B24" s="16">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A18="","",_zhisuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B18="","",_zhisuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C18="","",_zhisuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="8" t="str">
+      <c r="F24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D18="","",_zhisuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E18="","",_zhisuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="8" t="str">
+      <c r="H24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F18="","",_zhisuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G18="","",_zhisuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="8" t="str">
+      <c r="J24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H18="","",_zhisuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="8" t="str">
+      <c r="K24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I18="","",_zhisuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J18="","",_zhisuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="8" t="str">
+      <c r="M24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K18="","",_zhisuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="8" t="str">
+      <c r="N24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L18="","",_zhisuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="8" t="str">
+      <c r="O24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M18="","",_zhisuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="8" t="str">
+      <c r="P24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N18="","",_zhisuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="8" t="str">
+      <c r="Q24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O18="","",_zhisuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="8" t="str">
+      <c r="R24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P18="","",_zhisuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="8" t="str">
+      <c r="S24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q18="","",_zhisuan_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="8" t="str">
+      <c r="T24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R18="","",_zhisuan_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="8" t="str">
+      <c r="U24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S18="","",_zhisuan_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="8" t="str">
+      <c r="V24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T18="","",_zhisuan_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="8" t="str">
+      <c r="W24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U18="","",_zhisuan_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="8" t="str">
+      <c r="X24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V18="","",_zhisuan_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="8" t="str">
+      <c r="Y24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W18="","",_zhisuan_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="8" t="str">
+      <c r="Z24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X18="","",_zhisuan_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="8" t="str">
+      <c r="AA24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y18="","",_zhisuan_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="8" t="str">
+      <c r="AB24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z18="","",_zhisuan_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="8" t="str">
+      <c r="AC24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA18="","",_zhisuan_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="8" t="str">
+      <c r="AD24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB18="","",_zhisuan_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="8" t="str">
+      <c r="AE24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC18="","",_zhisuan_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="8" t="str">
+      <c r="AF24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD18="","",_zhisuan_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="8" t="str">
+      <c r="AG24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE18="","",_zhisuan_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="8" t="str">
+      <c r="AH24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF18="","",_zhisuan_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="8" t="str">
+      <c r="AI24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG18="","",_zhisuan_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="8" t="str">
+      <c r="AJ24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH18="","",_zhisuan_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="8" t="str">
+      <c r="AK24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI18="","",_zhisuan_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="8" t="str">
+      <c r="AL24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ18="","",_zhisuan_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="8" t="str">
+      <c r="AM24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK18="","",_zhisuan_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="8" t="str">
+      <c r="AN24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL18="","",_zhisuan_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="8" t="str">
+      <c r="AO24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM18="","",_zhisuan_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="8" t="str">
+      <c r="AP24" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN18="","",_zhisuan_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="12" t="str">
+      <c r="AQ24" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO18="","",_zhisuan_day_hour!AO18)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B25" s="7">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C25" s="8" t="str">
+    <row r="25" spans="2:43">
+      <c r="B25" s="16">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A19="","",_zhisuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B19="","",_zhisuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C19="","",_zhisuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D19="","",_zhisuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E19="","",_zhisuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F19="","",_zhisuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G19="","",_zhisuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="8" t="str">
+      <c r="J25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H19="","",_zhisuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="8" t="str">
+      <c r="K25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I19="","",_zhisuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J19="","",_zhisuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="8" t="str">
+      <c r="M25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K19="","",_zhisuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="8" t="str">
+      <c r="N25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L19="","",_zhisuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="8" t="str">
+      <c r="O25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M19="","",_zhisuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="8" t="str">
+      <c r="P25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N19="","",_zhisuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="8" t="str">
+      <c r="Q25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O19="","",_zhisuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="8" t="str">
+      <c r="R25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P19="","",_zhisuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="8" t="str">
+      <c r="S25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q19="","",_zhisuan_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="8" t="str">
+      <c r="T25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R19="","",_zhisuan_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="8" t="str">
+      <c r="U25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S19="","",_zhisuan_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="8" t="str">
+      <c r="V25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T19="","",_zhisuan_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="8" t="str">
+      <c r="W25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U19="","",_zhisuan_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="8" t="str">
+      <c r="X25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V19="","",_zhisuan_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="8" t="str">
+      <c r="Y25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W19="","",_zhisuan_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="8" t="str">
+      <c r="Z25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X19="","",_zhisuan_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="8" t="str">
+      <c r="AA25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y19="","",_zhisuan_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="8" t="str">
+      <c r="AB25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z19="","",_zhisuan_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="8" t="str">
+      <c r="AC25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA19="","",_zhisuan_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="8" t="str">
+      <c r="AD25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB19="","",_zhisuan_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="8" t="str">
+      <c r="AE25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC19="","",_zhisuan_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="8" t="str">
+      <c r="AF25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD19="","",_zhisuan_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="8" t="str">
+      <c r="AG25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE19="","",_zhisuan_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="8" t="str">
+      <c r="AH25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF19="","",_zhisuan_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="8" t="str">
+      <c r="AI25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG19="","",_zhisuan_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="8" t="str">
+      <c r="AJ25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH19="","",_zhisuan_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="8" t="str">
+      <c r="AK25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI19="","",_zhisuan_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="8" t="str">
+      <c r="AL25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ19="","",_zhisuan_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="8" t="str">
+      <c r="AM25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK19="","",_zhisuan_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="8" t="str">
+      <c r="AN25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL19="","",_zhisuan_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="8" t="str">
+      <c r="AO25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM19="","",_zhisuan_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="8" t="str">
+      <c r="AP25" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN19="","",_zhisuan_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="12" t="str">
+      <c r="AQ25" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO19="","",_zhisuan_day_hour!AO19)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
+    <row r="26" spans="2:43">
+      <c r="B26" s="16">
         <v>0.75</v>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A20="","",_zhisuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B20="","",_zhisuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C20="","",_zhisuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="8" t="str">
+      <c r="F26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D20="","",_zhisuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="8" t="str">
+      <c r="G26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E20="","",_zhisuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="8" t="str">
+      <c r="H26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F20="","",_zhisuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G20="","",_zhisuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="8" t="str">
+      <c r="J26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H20="","",_zhisuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="8" t="str">
+      <c r="K26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I20="","",_zhisuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J20="","",_zhisuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="8" t="str">
+      <c r="M26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K20="","",_zhisuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="8" t="str">
+      <c r="N26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L20="","",_zhisuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="8" t="str">
+      <c r="O26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M20="","",_zhisuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="8" t="str">
+      <c r="P26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N20="","",_zhisuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="8" t="str">
+      <c r="Q26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O20="","",_zhisuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="8" t="str">
+      <c r="R26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P20="","",_zhisuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="8" t="str">
+      <c r="S26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q20="","",_zhisuan_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="8" t="str">
+      <c r="T26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R20="","",_zhisuan_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="8" t="str">
+      <c r="U26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S20="","",_zhisuan_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="8" t="str">
+      <c r="V26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T20="","",_zhisuan_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="8" t="str">
+      <c r="W26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U20="","",_zhisuan_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="8" t="str">
+      <c r="X26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V20="","",_zhisuan_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="8" t="str">
+      <c r="Y26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W20="","",_zhisuan_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="8" t="str">
+      <c r="Z26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X20="","",_zhisuan_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="8" t="str">
+      <c r="AA26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y20="","",_zhisuan_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="8" t="str">
+      <c r="AB26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z20="","",_zhisuan_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="8" t="str">
+      <c r="AC26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA20="","",_zhisuan_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="8" t="str">
+      <c r="AD26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB20="","",_zhisuan_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="8" t="str">
+      <c r="AE26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC20="","",_zhisuan_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="8" t="str">
+      <c r="AF26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD20="","",_zhisuan_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="8" t="str">
+      <c r="AG26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE20="","",_zhisuan_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="8" t="str">
+      <c r="AH26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF20="","",_zhisuan_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="8" t="str">
+      <c r="AI26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG20="","",_zhisuan_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="8" t="str">
+      <c r="AJ26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH20="","",_zhisuan_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="8" t="str">
+      <c r="AK26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI20="","",_zhisuan_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="8" t="str">
+      <c r="AL26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ20="","",_zhisuan_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="8" t="str">
+      <c r="AM26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK20="","",_zhisuan_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="8" t="str">
+      <c r="AN26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL20="","",_zhisuan_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="8" t="str">
+      <c r="AO26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM20="","",_zhisuan_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="8" t="str">
+      <c r="AP26" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN20="","",_zhisuan_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="12" t="str">
+      <c r="AQ26" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO20="","",_zhisuan_day_hour!AO20)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B27" s="7">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C27" s="8" t="str">
+    <row r="27" spans="2:43">
+      <c r="B27" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A21="","",_zhisuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B21="","",_zhisuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="8" t="str">
+      <c r="E27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C21="","",_zhisuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="8" t="str">
+      <c r="F27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D21="","",_zhisuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="8" t="str">
+      <c r="G27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E21="","",_zhisuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="8" t="str">
+      <c r="H27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F21="","",_zhisuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G21="","",_zhisuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="8" t="str">
+      <c r="J27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H21="","",_zhisuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="8" t="str">
+      <c r="K27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I21="","",_zhisuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J21="","",_zhisuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="8" t="str">
+      <c r="M27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K21="","",_zhisuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="8" t="str">
+      <c r="N27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L21="","",_zhisuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="8" t="str">
+      <c r="O27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M21="","",_zhisuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="8" t="str">
+      <c r="P27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N21="","",_zhisuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="8" t="str">
+      <c r="Q27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O21="","",_zhisuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="8" t="str">
+      <c r="R27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P21="","",_zhisuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="8" t="str">
+      <c r="S27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q21="","",_zhisuan_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="8" t="str">
+      <c r="T27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R21="","",_zhisuan_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="8" t="str">
+      <c r="U27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S21="","",_zhisuan_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="8" t="str">
+      <c r="V27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T21="","",_zhisuan_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="8" t="str">
+      <c r="W27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U21="","",_zhisuan_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="8" t="str">
+      <c r="X27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V21="","",_zhisuan_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="8" t="str">
+      <c r="Y27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W21="","",_zhisuan_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="8" t="str">
+      <c r="Z27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X21="","",_zhisuan_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="8" t="str">
+      <c r="AA27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y21="","",_zhisuan_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="8" t="str">
+      <c r="AB27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z21="","",_zhisuan_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="8" t="str">
+      <c r="AC27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA21="","",_zhisuan_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="8" t="str">
+      <c r="AD27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB21="","",_zhisuan_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="8" t="str">
+      <c r="AE27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC21="","",_zhisuan_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="8" t="str">
+      <c r="AF27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD21="","",_zhisuan_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="8" t="str">
+      <c r="AG27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE21="","",_zhisuan_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="8" t="str">
+      <c r="AH27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF21="","",_zhisuan_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="8" t="str">
+      <c r="AI27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG21="","",_zhisuan_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="8" t="str">
+      <c r="AJ27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH21="","",_zhisuan_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="8" t="str">
+      <c r="AK27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI21="","",_zhisuan_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="8" t="str">
+      <c r="AL27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ21="","",_zhisuan_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="8" t="str">
+      <c r="AM27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK21="","",_zhisuan_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="8" t="str">
+      <c r="AN27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL21="","",_zhisuan_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="8" t="str">
+      <c r="AO27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM21="","",_zhisuan_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="8" t="str">
+      <c r="AP27" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN21="","",_zhisuan_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="12" t="str">
+      <c r="AQ27" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO21="","",_zhisuan_day_hour!AO21)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B28" s="7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C28" s="8" t="str">
+    <row r="28" spans="2:43">
+      <c r="B28" s="16">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A22="","",_zhisuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B22="","",_zhisuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C22="","",_zhisuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="8" t="str">
+      <c r="F28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D22="","",_zhisuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="G28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E22="","",_zhisuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="8" t="str">
+      <c r="H28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F22="","",_zhisuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G22="","",_zhisuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="8" t="str">
+      <c r="J28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H22="","",_zhisuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="8" t="str">
+      <c r="K28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I22="","",_zhisuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J22="","",_zhisuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="8" t="str">
+      <c r="M28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K22="","",_zhisuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="8" t="str">
+      <c r="N28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L22="","",_zhisuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="8" t="str">
+      <c r="O28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M22="","",_zhisuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="8" t="str">
+      <c r="P28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N22="","",_zhisuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="8" t="str">
+      <c r="Q28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O22="","",_zhisuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="8" t="str">
+      <c r="R28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P22="","",_zhisuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="8" t="str">
+      <c r="S28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q22="","",_zhisuan_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="8" t="str">
+      <c r="T28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R22="","",_zhisuan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="8" t="str">
+      <c r="U28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S22="","",_zhisuan_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="8" t="str">
+      <c r="V28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T22="","",_zhisuan_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="8" t="str">
+      <c r="W28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U22="","",_zhisuan_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="8" t="str">
+      <c r="X28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V22="","",_zhisuan_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="8" t="str">
+      <c r="Y28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W22="","",_zhisuan_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="8" t="str">
+      <c r="Z28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X22="","",_zhisuan_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="8" t="str">
+      <c r="AA28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y22="","",_zhisuan_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="8" t="str">
+      <c r="AB28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z22="","",_zhisuan_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="8" t="str">
+      <c r="AC28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA22="","",_zhisuan_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="8" t="str">
+      <c r="AD28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB22="","",_zhisuan_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="8" t="str">
+      <c r="AE28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC22="","",_zhisuan_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="8" t="str">
+      <c r="AF28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD22="","",_zhisuan_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="8" t="str">
+      <c r="AG28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE22="","",_zhisuan_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="8" t="str">
+      <c r="AH28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF22="","",_zhisuan_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="8" t="str">
+      <c r="AI28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG22="","",_zhisuan_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="8" t="str">
+      <c r="AJ28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH22="","",_zhisuan_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="8" t="str">
+      <c r="AK28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI22="","",_zhisuan_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="8" t="str">
+      <c r="AL28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ22="","",_zhisuan_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="8" t="str">
+      <c r="AM28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK22="","",_zhisuan_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="8" t="str">
+      <c r="AN28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL22="","",_zhisuan_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="8" t="str">
+      <c r="AO28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM22="","",_zhisuan_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="8" t="str">
+      <c r="AP28" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN22="","",_zhisuan_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="12" t="str">
+      <c r="AQ28" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO22="","",_zhisuan_day_hour!AO22)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B29" s="7">
+    <row r="29" spans="2:43">
+      <c r="B29" s="16">
         <v>0.875</v>
       </c>
-      <c r="C29" s="8" t="str">
+      <c r="C29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A23="","",_zhisuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B23="","",_zhisuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="8" t="str">
+      <c r="E29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C23="","",_zhisuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="8" t="str">
+      <c r="F29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D23="","",_zhisuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="8" t="str">
+      <c r="G29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E23="","",_zhisuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F23="","",_zhisuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G23="","",_zhisuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="8" t="str">
+      <c r="J29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H23="","",_zhisuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="8" t="str">
+      <c r="K29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I23="","",_zhisuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J23="","",_zhisuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="8" t="str">
+      <c r="M29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K23="","",_zhisuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="8" t="str">
+      <c r="N29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L23="","",_zhisuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="8" t="str">
+      <c r="O29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M23="","",_zhisuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="8" t="str">
+      <c r="P29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N23="","",_zhisuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="8" t="str">
+      <c r="Q29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O23="","",_zhisuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="8" t="str">
+      <c r="R29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P23="","",_zhisuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="8" t="str">
+      <c r="S29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q23="","",_zhisuan_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="8" t="str">
+      <c r="T29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R23="","",_zhisuan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="8" t="str">
+      <c r="U29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S23="","",_zhisuan_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="8" t="str">
+      <c r="V29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T23="","",_zhisuan_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="8" t="str">
+      <c r="W29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U23="","",_zhisuan_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="8" t="str">
+      <c r="X29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V23="","",_zhisuan_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="8" t="str">
+      <c r="Y29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W23="","",_zhisuan_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="8" t="str">
+      <c r="Z29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X23="","",_zhisuan_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="8" t="str">
+      <c r="AA29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y23="","",_zhisuan_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="8" t="str">
+      <c r="AB29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z23="","",_zhisuan_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="8" t="str">
+      <c r="AC29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA23="","",_zhisuan_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="8" t="str">
+      <c r="AD29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB23="","",_zhisuan_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="8" t="str">
+      <c r="AE29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC23="","",_zhisuan_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="8" t="str">
+      <c r="AF29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD23="","",_zhisuan_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="8" t="str">
+      <c r="AG29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE23="","",_zhisuan_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="8" t="str">
+      <c r="AH29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF23="","",_zhisuan_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="8" t="str">
+      <c r="AI29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG23="","",_zhisuan_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="8" t="str">
+      <c r="AJ29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH23="","",_zhisuan_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="8" t="str">
+      <c r="AK29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI23="","",_zhisuan_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="8" t="str">
+      <c r="AL29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ23="","",_zhisuan_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="8" t="str">
+      <c r="AM29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK23="","",_zhisuan_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="8" t="str">
+      <c r="AN29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL23="","",_zhisuan_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="8" t="str">
+      <c r="AO29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM23="","",_zhisuan_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="8" t="str">
+      <c r="AP29" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN23="","",_zhisuan_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="12" t="str">
+      <c r="AQ29" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO23="","",_zhisuan_day_hour!AO23)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B30" s="7">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C30" s="8" t="str">
+    <row r="30" spans="2:43">
+      <c r="B30" s="16">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A24="","",_zhisuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B24="","",_zhisuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C24="","",_zhisuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D24="","",_zhisuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E24="","",_zhisuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="8" t="str">
+      <c r="H30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F24="","",_zhisuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G24="","",_zhisuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="8" t="str">
+      <c r="J30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H24="","",_zhisuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="8" t="str">
+      <c r="K30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I24="","",_zhisuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J24="","",_zhisuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="8" t="str">
+      <c r="M30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K24="","",_zhisuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="8" t="str">
+      <c r="N30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L24="","",_zhisuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="8" t="str">
+      <c r="O30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M24="","",_zhisuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="8" t="str">
+      <c r="P30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N24="","",_zhisuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="8" t="str">
+      <c r="Q30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O24="","",_zhisuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="8" t="str">
+      <c r="R30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P24="","",_zhisuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="8" t="str">
+      <c r="S30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q24="","",_zhisuan_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="8" t="str">
+      <c r="T30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R24="","",_zhisuan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="8" t="str">
+      <c r="U30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S24="","",_zhisuan_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="8" t="str">
+      <c r="V30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T24="","",_zhisuan_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="8" t="str">
+      <c r="W30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U24="","",_zhisuan_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="8" t="str">
+      <c r="X30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V24="","",_zhisuan_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="8" t="str">
+      <c r="Y30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W24="","",_zhisuan_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="8" t="str">
+      <c r="Z30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X24="","",_zhisuan_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="8" t="str">
+      <c r="AA30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y24="","",_zhisuan_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="8" t="str">
+      <c r="AB30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z24="","",_zhisuan_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="8" t="str">
+      <c r="AC30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA24="","",_zhisuan_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="8" t="str">
+      <c r="AD30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB24="","",_zhisuan_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="8" t="str">
+      <c r="AE30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC24="","",_zhisuan_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="8" t="str">
+      <c r="AF30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD24="","",_zhisuan_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="8" t="str">
+      <c r="AG30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE24="","",_zhisuan_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="8" t="str">
+      <c r="AH30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF24="","",_zhisuan_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="8" t="str">
+      <c r="AI30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG24="","",_zhisuan_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="8" t="str">
+      <c r="AJ30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH24="","",_zhisuan_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="8" t="str">
+      <c r="AK30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI24="","",_zhisuan_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="8" t="str">
+      <c r="AL30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ24="","",_zhisuan_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="8" t="str">
+      <c r="AM30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK24="","",_zhisuan_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="8" t="str">
+      <c r="AN30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL24="","",_zhisuan_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="8" t="str">
+      <c r="AO30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM24="","",_zhisuan_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="8" t="str">
+      <c r="AP30" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN24="","",_zhisuan_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="12" t="str">
+      <c r="AQ30" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO24="","",_zhisuan_day_hour!AO24)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B31" s="7">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C31" s="8" t="str">
+    <row r="31" spans="2:43">
+      <c r="B31" s="16">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!A25="","",_zhisuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!B25="","",_zhisuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!C25="","",_zhisuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!D25="","",_zhisuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!E25="","",_zhisuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!F25="","",_zhisuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="8" t="str">
+      <c r="I31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!G25="","",_zhisuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="8" t="str">
+      <c r="J31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!H25="","",_zhisuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="8" t="str">
+      <c r="K31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!I25="","",_zhisuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="8" t="str">
+      <c r="L31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!J25="","",_zhisuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="8" t="str">
+      <c r="M31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!K25="","",_zhisuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="8" t="str">
+      <c r="N31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!L25="","",_zhisuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="8" t="str">
+      <c r="O31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!M25="","",_zhisuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="8" t="str">
+      <c r="P31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!N25="","",_zhisuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="8" t="str">
+      <c r="Q31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!O25="","",_zhisuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="8" t="str">
+      <c r="R31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!P25="","",_zhisuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="8" t="str">
+      <c r="S31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Q25="","",_zhisuan_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="8" t="str">
+      <c r="T31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!R25="","",_zhisuan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="8" t="str">
+      <c r="U31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!S25="","",_zhisuan_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="8" t="str">
+      <c r="V31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!T25="","",_zhisuan_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="8" t="str">
+      <c r="W31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!U25="","",_zhisuan_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="8" t="str">
+      <c r="X31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!V25="","",_zhisuan_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="8" t="str">
+      <c r="Y31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!W25="","",_zhisuan_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="8" t="str">
+      <c r="Z31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!X25="","",_zhisuan_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="8" t="str">
+      <c r="AA31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Y25="","",_zhisuan_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="8" t="str">
+      <c r="AB31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!Z25="","",_zhisuan_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="8" t="str">
+      <c r="AC31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AA25="","",_zhisuan_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="8" t="str">
+      <c r="AD31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AB25="","",_zhisuan_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="8" t="str">
+      <c r="AE31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AC25="","",_zhisuan_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="8" t="str">
+      <c r="AF31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AD25="","",_zhisuan_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="8" t="str">
+      <c r="AG31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AE25="","",_zhisuan_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="8" t="str">
+      <c r="AH31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AF25="","",_zhisuan_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="8" t="str">
+      <c r="AI31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AG25="","",_zhisuan_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="8" t="str">
+      <c r="AJ31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AH25="","",_zhisuan_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="8" t="str">
+      <c r="AK31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AI25="","",_zhisuan_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="8" t="str">
+      <c r="AL31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AJ25="","",_zhisuan_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="8" t="str">
+      <c r="AM31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AK25="","",_zhisuan_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="8" t="str">
+      <c r="AN31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AL25="","",_zhisuan_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="8" t="str">
+      <c r="AO31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AM25="","",_zhisuan_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="8" t="str">
+      <c r="AP31" s="17" t="str">
         <f>IF(_zhisuan_day_hour!AN25="","",_zhisuan_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="12" t="str">
+      <c r="AQ31" s="37" t="str">
         <f>IF(_zhisuan_day_hour!AO25="","",_zhisuan_day_hour!AO25)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="2:43">
+      <c r="B32" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="12"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="37"/>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="2:43">
+      <c r="B33" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="12"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="37"/>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="2:43">
+      <c r="B34" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
-      <c r="AP34" s="8"/>
-      <c r="AQ34" s="12"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="37"/>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="2:43">
+      <c r="B35" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="12"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="37"/>
     </row>
-    <row r="36" spans="2:43" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="22" t="s">
+    <row r="36" ht="72.6" customHeight="1" spans="2:43">
+      <c r="B36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="24" t="s">
         <v>94</v>
       </c>
@@ -6424,98 +7013,100 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="25" t="s">
+      <c r="V36" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="12"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="37"/>
     </row>
-    <row r="37" spans="2:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+    <row r="37" ht="16.5" spans="2:43">
+      <c r="B37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="31" t="s">
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="13"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="38"/>
     </row>
-    <row r="43" spans="2:43" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="77.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="C3:AQ3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AB4:AK4"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:AF36"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="L37:U37"/>
     <mergeCell ref="V37:AF37"/>
@@ -6532,12 +7123,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:AF36"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
@@ -6548,35 +7133,40 @@
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="AB5:AB6"/>
     <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AB4:AK4"/>
-    <mergeCell ref="AL4:AQ4"/>
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="C3:AQ3"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" ht="54" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -6702,20 +7292,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19050" windowHeight="4005"/>
   </bookViews>
   <sheets>
     <sheet name="8.制酸操作（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -495,11 +495,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,35 +568,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -612,37 +591,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,23 +627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,9 +642,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,17 +688,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -743,19 +736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,13 +772,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,25 +808,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,55 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,25 +862,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,13 +904,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,46 +1176,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,16 +1216,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1298,136 +1291,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2309,9 +2302,9 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="23">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="O2" s="23" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>

--- a/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-制酸操作（日）报表设计.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="4005"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="8.制酸操作（日）4.3m无此表" sheetId="1" r:id="rId1"/>
     <sheet name="_zhisuan_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -53,7 +52,86 @@
     <t xml:space="preserve"> 制 酸 操 作 记 录</t>
   </si>
   <si>
-    <t xml:space="preserve"> SGSSG-BSMCSA33-G012-02A</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SGSSG-BSMCSA33-G012-02A</t>
+    </r>
   </si>
   <si>
     <r>
@@ -494,12 +572,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,29 +640,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,14 +655,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,52 +663,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,9 +684,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,14 +699,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,10 +716,94 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -736,19 +826,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +910,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,31 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,96 +1006,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1063,15 +1153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1176,6 +1257,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1206,11 +1307,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,51 +1354,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,140 +1372,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1439,9 +1520,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1488,38 +1566,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,7 +1604,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1614,7 +1689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10252075" y="7387590"/>
+          <a:off x="10252075" y="7349490"/>
           <a:ext cx="3416300" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1808,7 +1883,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="712470"/>
+          <a:off x="5276850" y="674370"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1854,7 +1929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="1124585"/>
+          <a:off x="5276850" y="1086485"/>
           <a:ext cx="0" cy="255270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1900,7 +1975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="712470"/>
+          <a:off x="5276850" y="674370"/>
           <a:ext cx="0" cy="667385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1946,7 +2021,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="712470"/>
+          <a:off x="5276850" y="674370"/>
           <a:ext cx="0" cy="667385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2233,8 +2308,8 @@
   <sheetPr/>
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2242,7 +2317,7 @@
     <col min="3" max="43" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="2:43">
+    <row r="1" customFormat="1" ht="23.1" customHeight="1" spans="2:43">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2288,331 +2363,328 @@
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
     </row>
-    <row r="2" ht="19.5" spans="2:40">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="23" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
+    <row r="2" customFormat="1" ht="16.5" spans="2:40">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
     </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" customFormat="1" spans="1:43">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="34"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="32"/>
     </row>
-    <row r="4" ht="18.95" customHeight="1" spans="1:43">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" customFormat="1" ht="18.95" customHeight="1" spans="1:43">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="35"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="33"/>
     </row>
-    <row r="5" ht="33.6" customHeight="1" spans="1:43">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" customFormat="1" ht="33.6" customHeight="1" spans="1:43">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="30" t="s">
+      <c r="Z5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="14" t="s">
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AC5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AH5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AI5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AK5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="14" t="s">
+      <c r="AL5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AM5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AN5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AO5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="14" t="s">
+      <c r="AP5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="36" t="s">
+      <c r="AQ5" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="26.1" customHeight="1" spans="2:43">
-      <c r="B6" s="10"/>
-      <c r="C6" s="14" t="s">
+    <row r="6" customFormat="1" ht="26.1" customHeight="1" spans="2:43">
+      <c r="B6" s="9"/>
+      <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="30" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="30" t="s">
+      <c r="AA6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="36"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="34"/>
     </row>
-    <row r="7" ht="81" spans="2:44">
-      <c r="B7" s="15" t="s">
+    <row r="7" customFormat="1" ht="81" spans="2:44">
+      <c r="B7" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2740,4354 +2812,4357 @@
       </c>
       <c r="AR7" s="3"/>
     </row>
-    <row r="8" spans="2:43">
-      <c r="B8" s="16">
+    <row r="8" customFormat="1" spans="2:43">
+      <c r="B8" s="15">
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A2="","",_zhisuan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B2="","",_zhisuan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C2="","",_zhisuan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D2="","",_zhisuan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E2="","",_zhisuan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="17" t="str">
+      <c r="H8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F2="","",_zhisuan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="17" t="str">
+      <c r="I8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G2="","",_zhisuan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="17" t="str">
+      <c r="J8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H2="","",_zhisuan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I2="","",_zhisuan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J2="","",_zhisuan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K2="","",_zhisuan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L2="","",_zhisuan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M2="","",_zhisuan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N2="","",_zhisuan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O2="","",_zhisuan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P2="","",_zhisuan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="S8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q2="","",_zhisuan_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="T8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R2="","",_zhisuan_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S2="","",_zhisuan_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T2="","",_zhisuan_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U2="","",_zhisuan_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V2="","",_zhisuan_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="Y8" s="17" t="str">
+      <c r="Y8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W2="","",_zhisuan_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X2="","",_zhisuan_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="AA8" s="17" t="str">
+      <c r="AA8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y2="","",_zhisuan_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AB8" s="17" t="str">
+      <c r="AB8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z2="","",_zhisuan_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AC8" s="17" t="str">
+      <c r="AC8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA2="","",_zhisuan_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB2="","",_zhisuan_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC2="","",_zhisuan_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD2="","",_zhisuan_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE2="","",_zhisuan_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AH8" s="17" t="str">
+      <c r="AH8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF2="","",_zhisuan_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AI8" s="17" t="str">
+      <c r="AI8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG2="","",_zhisuan_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AJ8" s="17" t="str">
+      <c r="AJ8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH2="","",_zhisuan_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AK8" s="17" t="str">
+      <c r="AK8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI2="","",_zhisuan_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AL8" s="17" t="str">
+      <c r="AL8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ2="","",_zhisuan_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM8" s="17" t="str">
+      <c r="AM8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK2="","",_zhisuan_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AN8" s="17" t="str">
+      <c r="AN8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL2="","",_zhisuan_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AO8" s="17" t="str">
+      <c r="AO8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM2="","",_zhisuan_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP8" s="17" t="str">
+      <c r="AP8" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN2="","",_zhisuan_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AQ8" s="37" t="str">
+      <c r="AQ8" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO2="","",_zhisuan_day_hour!AO2)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:43">
-      <c r="B9" s="16">
+    <row r="9" customFormat="1" spans="2:43">
+      <c r="B9" s="15">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A3="","",_zhisuan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B3="","",_zhisuan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C3="","",_zhisuan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D3="","",_zhisuan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E3="","",_zhisuan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="17" t="str">
+      <c r="H9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F3="","",_zhisuan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="17" t="str">
+      <c r="I9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G3="","",_zhisuan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="17" t="str">
+      <c r="J9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H3="","",_zhisuan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I3="","",_zhisuan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J3="","",_zhisuan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K3="","",_zhisuan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L3="","",_zhisuan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M3="","",_zhisuan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="17" t="str">
+      <c r="P9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N3="","",_zhisuan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="17" t="str">
+      <c r="Q9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O3="","",_zhisuan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P3="","",_zhisuan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="17" t="str">
+      <c r="S9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q3="","",_zhisuan_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="17" t="str">
+      <c r="T9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R3="","",_zhisuan_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="17" t="str">
+      <c r="U9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S3="","",_zhisuan_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="17" t="str">
+      <c r="V9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T3="","",_zhisuan_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="17" t="str">
+      <c r="W9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U3="","",_zhisuan_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="17" t="str">
+      <c r="X9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V3="","",_zhisuan_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="17" t="str">
+      <c r="Y9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W3="","",_zhisuan_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="17" t="str">
+      <c r="Z9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X3="","",_zhisuan_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="17" t="str">
+      <c r="AA9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y3="","",_zhisuan_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="17" t="str">
+      <c r="AB9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z3="","",_zhisuan_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="17" t="str">
+      <c r="AC9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA3="","",_zhisuan_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="17" t="str">
+      <c r="AD9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB3="","",_zhisuan_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="17" t="str">
+      <c r="AE9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC3="","",_zhisuan_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="17" t="str">
+      <c r="AF9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD3="","",_zhisuan_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="17" t="str">
+      <c r="AG9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE3="","",_zhisuan_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="17" t="str">
+      <c r="AH9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF3="","",_zhisuan_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="17" t="str">
+      <c r="AI9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG3="","",_zhisuan_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="17" t="str">
+      <c r="AJ9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH3="","",_zhisuan_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="17" t="str">
+      <c r="AK9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI3="","",_zhisuan_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="17" t="str">
+      <c r="AL9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ3="","",_zhisuan_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="17" t="str">
+      <c r="AM9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK3="","",_zhisuan_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="17" t="str">
+      <c r="AN9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL3="","",_zhisuan_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="17" t="str">
+      <c r="AO9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM3="","",_zhisuan_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="17" t="str">
+      <c r="AP9" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN3="","",_zhisuan_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="37" t="str">
+      <c r="AQ9" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO3="","",_zhisuan_day_hour!AO3)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:43">
-      <c r="B10" s="16">
+    <row r="10" customFormat="1" spans="2:43">
+      <c r="B10" s="15">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A4="","",_zhisuan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B4="","",_zhisuan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C4="","",_zhisuan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D4="","",_zhisuan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E4="","",_zhisuan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="17" t="str">
+      <c r="H10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F4="","",_zhisuan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="17" t="str">
+      <c r="I10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G4="","",_zhisuan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="17" t="str">
+      <c r="J10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H4="","",_zhisuan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I4="","",_zhisuan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J4="","",_zhisuan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K4="","",_zhisuan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L4="","",_zhisuan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M4="","",_zhisuan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="17" t="str">
+      <c r="P10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N4="","",_zhisuan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="17" t="str">
+      <c r="Q10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O4="","",_zhisuan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P4="","",_zhisuan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="17" t="str">
+      <c r="S10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q4="","",_zhisuan_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="17" t="str">
+      <c r="T10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R4="","",_zhisuan_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="17" t="str">
+      <c r="U10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S4="","",_zhisuan_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="17" t="str">
+      <c r="V10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T4="","",_zhisuan_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="17" t="str">
+      <c r="W10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U4="","",_zhisuan_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="17" t="str">
+      <c r="X10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V4="","",_zhisuan_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="17" t="str">
+      <c r="Y10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W4="","",_zhisuan_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="17" t="str">
+      <c r="Z10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X4="","",_zhisuan_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="17" t="str">
+      <c r="AA10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y4="","",_zhisuan_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="17" t="str">
+      <c r="AB10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z4="","",_zhisuan_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="17" t="str">
+      <c r="AC10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA4="","",_zhisuan_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="17" t="str">
+      <c r="AD10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB4="","",_zhisuan_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="17" t="str">
+      <c r="AE10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC4="","",_zhisuan_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="17" t="str">
+      <c r="AF10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD4="","",_zhisuan_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="17" t="str">
+      <c r="AG10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE4="","",_zhisuan_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="17" t="str">
+      <c r="AH10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF4="","",_zhisuan_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="17" t="str">
+      <c r="AI10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG4="","",_zhisuan_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="17" t="str">
+      <c r="AJ10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH4="","",_zhisuan_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="17" t="str">
+      <c r="AK10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI4="","",_zhisuan_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="17" t="str">
+      <c r="AL10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ4="","",_zhisuan_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="17" t="str">
+      <c r="AM10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK4="","",_zhisuan_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="17" t="str">
+      <c r="AN10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL4="","",_zhisuan_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="17" t="str">
+      <c r="AO10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM4="","",_zhisuan_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="17" t="str">
+      <c r="AP10" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN4="","",_zhisuan_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="37" t="str">
+      <c r="AQ10" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO4="","",_zhisuan_day_hour!AO4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="14.1" customHeight="1" spans="2:43">
-      <c r="B11" s="16">
+    <row r="11" customFormat="1" ht="14.1" customHeight="1" spans="2:43">
+      <c r="B11" s="15">
         <v>0.125</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A5="","",_zhisuan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B5="","",_zhisuan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C5="","",_zhisuan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D5="","",_zhisuan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E5="","",_zhisuan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="17" t="str">
+      <c r="H11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F5="","",_zhisuan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="17" t="str">
+      <c r="I11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G5="","",_zhisuan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="17" t="str">
+      <c r="J11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H5="","",_zhisuan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I5="","",_zhisuan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J5="","",_zhisuan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K5="","",_zhisuan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L5="","",_zhisuan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M5="","",_zhisuan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N5="","",_zhisuan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O5="","",_zhisuan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P5="","",_zhisuan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="17" t="str">
+      <c r="S11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q5="","",_zhisuan_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="17" t="str">
+      <c r="T11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R5="","",_zhisuan_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="17" t="str">
+      <c r="U11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S5="","",_zhisuan_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="V11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T5="","",_zhisuan_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="17" t="str">
+      <c r="W11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U5="","",_zhisuan_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="17" t="str">
+      <c r="X11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V5="","",_zhisuan_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="17" t="str">
+      <c r="Y11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W5="","",_zhisuan_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="17" t="str">
+      <c r="Z11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X5="","",_zhisuan_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="17" t="str">
+      <c r="AA11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y5="","",_zhisuan_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="17" t="str">
+      <c r="AB11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z5="","",_zhisuan_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="17" t="str">
+      <c r="AC11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA5="","",_zhisuan_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="17" t="str">
+      <c r="AD11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB5="","",_zhisuan_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="17" t="str">
+      <c r="AE11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC5="","",_zhisuan_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="17" t="str">
+      <c r="AF11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD5="","",_zhisuan_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="17" t="str">
+      <c r="AG11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE5="","",_zhisuan_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="17" t="str">
+      <c r="AH11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF5="","",_zhisuan_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="17" t="str">
+      <c r="AI11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG5="","",_zhisuan_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="17" t="str">
+      <c r="AJ11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH5="","",_zhisuan_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="17" t="str">
+      <c r="AK11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI5="","",_zhisuan_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="17" t="str">
+      <c r="AL11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ5="","",_zhisuan_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="17" t="str">
+      <c r="AM11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK5="","",_zhisuan_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="17" t="str">
+      <c r="AN11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL5="","",_zhisuan_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="17" t="str">
+      <c r="AO11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM5="","",_zhisuan_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="17" t="str">
+      <c r="AP11" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN5="","",_zhisuan_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="37" t="str">
+      <c r="AQ11" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO5="","",_zhisuan_day_hour!AO5)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="24.95" customHeight="1" spans="2:43">
-      <c r="B12" s="16">
+    <row r="12" customFormat="1" ht="24.95" customHeight="1" spans="2:43">
+      <c r="B12" s="15">
         <v>0.166666666666667</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A6="","",_zhisuan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B6="","",_zhisuan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C6="","",_zhisuan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D6="","",_zhisuan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="17" t="str">
+      <c r="G12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E6="","",_zhisuan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="17" t="str">
+      <c r="H12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F6="","",_zhisuan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G6="","",_zhisuan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="17" t="str">
+      <c r="J12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H6="","",_zhisuan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I6="","",_zhisuan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J6="","",_zhisuan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="17" t="str">
+      <c r="M12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K6="","",_zhisuan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L6="","",_zhisuan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M6="","",_zhisuan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="P12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N6="","",_zhisuan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="17" t="str">
+      <c r="Q12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O6="","",_zhisuan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="R12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P6="","",_zhisuan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="17" t="str">
+      <c r="S12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q6="","",_zhisuan_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="17" t="str">
+      <c r="T12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R6="","",_zhisuan_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="17" t="str">
+      <c r="U12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S6="","",_zhisuan_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="17" t="str">
+      <c r="V12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T6="","",_zhisuan_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="17" t="str">
+      <c r="W12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U6="","",_zhisuan_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="X12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V6="","",_zhisuan_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="17" t="str">
+      <c r="Y12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W6="","",_zhisuan_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="17" t="str">
+      <c r="Z12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X6="","",_zhisuan_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="17" t="str">
+      <c r="AA12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y6="","",_zhisuan_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="17" t="str">
+      <c r="AB12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z6="","",_zhisuan_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="17" t="str">
+      <c r="AC12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA6="","",_zhisuan_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AD12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB6="","",_zhisuan_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="17" t="str">
+      <c r="AE12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC6="","",_zhisuan_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="17" t="str">
+      <c r="AF12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD6="","",_zhisuan_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="17" t="str">
+      <c r="AG12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE6="","",_zhisuan_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="17" t="str">
+      <c r="AH12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF6="","",_zhisuan_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="17" t="str">
+      <c r="AI12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG6="","",_zhisuan_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="17" t="str">
+      <c r="AJ12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH6="","",_zhisuan_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="17" t="str">
+      <c r="AK12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI6="","",_zhisuan_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="17" t="str">
+      <c r="AL12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ6="","",_zhisuan_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="17" t="str">
+      <c r="AM12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK6="","",_zhisuan_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="17" t="str">
+      <c r="AN12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL6="","",_zhisuan_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="17" t="str">
+      <c r="AO12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM6="","",_zhisuan_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="17" t="str">
+      <c r="AP12" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN6="","",_zhisuan_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="37" t="str">
+      <c r="AQ12" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO6="","",_zhisuan_day_hour!AO6)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:43">
-      <c r="B13" s="16">
+    <row r="13" customFormat="1" spans="2:43">
+      <c r="B13" s="15">
         <v>0.208333333333333</v>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A7="","",_zhisuan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B7="","",_zhisuan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C7="","",_zhisuan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D7="","",_zhisuan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="17" t="str">
+      <c r="G13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E7="","",_zhisuan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="17" t="str">
+      <c r="H13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F7="","",_zhisuan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="17" t="str">
+      <c r="I13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G7="","",_zhisuan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="17" t="str">
+      <c r="J13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H7="","",_zhisuan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I7="","",_zhisuan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J7="","",_zhisuan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K7="","",_zhisuan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L7="","",_zhisuan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M7="","",_zhisuan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="17" t="str">
+      <c r="P13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N7="","",_zhisuan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="17" t="str">
+      <c r="Q13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O7="","",_zhisuan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="17" t="str">
+      <c r="R13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P7="","",_zhisuan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="17" t="str">
+      <c r="S13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q7="","",_zhisuan_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="17" t="str">
+      <c r="T13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R7="","",_zhisuan_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="17" t="str">
+      <c r="U13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S7="","",_zhisuan_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="17" t="str">
+      <c r="V13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T7="","",_zhisuan_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="17" t="str">
+      <c r="W13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U7="","",_zhisuan_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="17" t="str">
+      <c r="X13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V7="","",_zhisuan_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="17" t="str">
+      <c r="Y13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W7="","",_zhisuan_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="17" t="str">
+      <c r="Z13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X7="","",_zhisuan_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="17" t="str">
+      <c r="AA13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y7="","",_zhisuan_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="17" t="str">
+      <c r="AB13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z7="","",_zhisuan_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="17" t="str">
+      <c r="AC13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA7="","",_zhisuan_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="17" t="str">
+      <c r="AD13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB7="","",_zhisuan_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="17" t="str">
+      <c r="AE13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC7="","",_zhisuan_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="17" t="str">
+      <c r="AF13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD7="","",_zhisuan_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="17" t="str">
+      <c r="AG13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE7="","",_zhisuan_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="17" t="str">
+      <c r="AH13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF7="","",_zhisuan_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="17" t="str">
+      <c r="AI13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG7="","",_zhisuan_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="17" t="str">
+      <c r="AJ13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH7="","",_zhisuan_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="17" t="str">
+      <c r="AK13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI7="","",_zhisuan_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="17" t="str">
+      <c r="AL13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ7="","",_zhisuan_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="17" t="str">
+      <c r="AM13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK7="","",_zhisuan_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="17" t="str">
+      <c r="AN13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL7="","",_zhisuan_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="17" t="str">
+      <c r="AO13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM7="","",_zhisuan_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="17" t="str">
+      <c r="AP13" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN7="","",_zhisuan_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="37" t="str">
+      <c r="AQ13" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO7="","",_zhisuan_day_hour!AO7)</f>
         <v/>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="2:44">
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.25</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A8="","",_zhisuan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B8="","",_zhisuan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C8="","",_zhisuan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D8="","",_zhisuan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="17" t="str">
+      <c r="G14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E8="","",_zhisuan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="17" t="str">
+      <c r="H14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F8="","",_zhisuan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="I14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G8="","",_zhisuan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="17" t="str">
+      <c r="J14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H8="","",_zhisuan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I8="","",_zhisuan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J8="","",_zhisuan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K8="","",_zhisuan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L8="","",_zhisuan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M8="","",_zhisuan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N8="","",_zhisuan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O8="","",_zhisuan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P8="","",_zhisuan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="S14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q8="","",_zhisuan_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R8="","",_zhisuan_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S8="","",_zhisuan_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T8="","",_zhisuan_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U8="","",_zhisuan_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V8="","",_zhisuan_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="17" t="str">
+      <c r="Y14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W8="","",_zhisuan_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X8="","",_zhisuan_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="17" t="str">
+      <c r="AA14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y8="","",_zhisuan_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="17" t="str">
+      <c r="AB14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z8="","",_zhisuan_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="17" t="str">
+      <c r="AC14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA8="","",_zhisuan_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB8="","",_zhisuan_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC8="","",_zhisuan_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD8="","",_zhisuan_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE8="","",_zhisuan_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="17" t="str">
+      <c r="AH14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF8="","",_zhisuan_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="17" t="str">
+      <c r="AI14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG8="","",_zhisuan_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="17" t="str">
+      <c r="AJ14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH8="","",_zhisuan_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="17" t="str">
+      <c r="AK14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI8="","",_zhisuan_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="17" t="str">
+      <c r="AL14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ8="","",_zhisuan_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="17" t="str">
+      <c r="AM14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK8="","",_zhisuan_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="17" t="str">
+      <c r="AN14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL8="","",_zhisuan_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="17" t="str">
+      <c r="AO14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM8="","",_zhisuan_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="17" t="str">
+      <c r="AP14" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN8="","",_zhisuan_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="37" t="str">
+      <c r="AQ14" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO8="","",_zhisuan_day_hour!AO8)</f>
         <v/>
       </c>
       <c r="AR14"/>
     </row>
-    <row r="15" spans="2:43">
-      <c r="B15" s="16">
+    <row r="15" customFormat="1" spans="2:43">
+      <c r="B15" s="15">
         <v>0.291666666666667</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A9="","",_zhisuan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B9="","",_zhisuan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C9="","",_zhisuan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D9="","",_zhisuan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="17" t="str">
+      <c r="G15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E9="","",_zhisuan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="17" t="str">
+      <c r="H15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F9="","",_zhisuan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="17" t="str">
+      <c r="I15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G9="","",_zhisuan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="17" t="str">
+      <c r="J15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H9="","",_zhisuan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I9="","",_zhisuan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J9="","",_zhisuan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="17" t="str">
+      <c r="M15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K9="","",_zhisuan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L9="","",_zhisuan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M9="","",_zhisuan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="str">
+      <c r="P15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N9="","",_zhisuan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="17" t="str">
+      <c r="Q15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O9="","",_zhisuan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="17" t="str">
+      <c r="R15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P9="","",_zhisuan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="str">
+      <c r="S15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q9="","",_zhisuan_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="17" t="str">
+      <c r="T15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R9="","",_zhisuan_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="17" t="str">
+      <c r="U15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S9="","",_zhisuan_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="17" t="str">
+      <c r="V15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T9="","",_zhisuan_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="17" t="str">
+      <c r="W15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U9="","",_zhisuan_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="17" t="str">
+      <c r="X15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V9="","",_zhisuan_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="17" t="str">
+      <c r="Y15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W9="","",_zhisuan_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="17" t="str">
+      <c r="Z15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X9="","",_zhisuan_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="17" t="str">
+      <c r="AA15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y9="","",_zhisuan_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="17" t="str">
+      <c r="AB15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z9="","",_zhisuan_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="17" t="str">
+      <c r="AC15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA9="","",_zhisuan_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="17" t="str">
+      <c r="AD15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB9="","",_zhisuan_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="17" t="str">
+      <c r="AE15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC9="","",_zhisuan_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="17" t="str">
+      <c r="AF15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD9="","",_zhisuan_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="17" t="str">
+      <c r="AG15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE9="","",_zhisuan_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="17" t="str">
+      <c r="AH15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF9="","",_zhisuan_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="17" t="str">
+      <c r="AI15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG9="","",_zhisuan_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="17" t="str">
+      <c r="AJ15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH9="","",_zhisuan_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="17" t="str">
+      <c r="AK15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI9="","",_zhisuan_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="17" t="str">
+      <c r="AL15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ9="","",_zhisuan_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="17" t="str">
+      <c r="AM15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK9="","",_zhisuan_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="17" t="str">
+      <c r="AN15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL9="","",_zhisuan_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="17" t="str">
+      <c r="AO15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM9="","",_zhisuan_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="17" t="str">
+      <c r="AP15" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN9="","",_zhisuan_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="37" t="str">
+      <c r="AQ15" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO9="","",_zhisuan_day_hour!AO9)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:43">
-      <c r="B16" s="16">
+    <row r="16" customFormat="1" spans="2:43">
+      <c r="B16" s="15">
         <v>0.333333333333333</v>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A10="","",_zhisuan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B10="","",_zhisuan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C10="","",_zhisuan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D10="","",_zhisuan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="17" t="str">
+      <c r="G16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E10="","",_zhisuan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="17" t="str">
+      <c r="H16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F10="","",_zhisuan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="17" t="str">
+      <c r="I16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G10="","",_zhisuan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="17" t="str">
+      <c r="J16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H10="","",_zhisuan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I10="","",_zhisuan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J10="","",_zhisuan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="17" t="str">
+      <c r="M16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K10="","",_zhisuan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L10="","",_zhisuan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M10="","",_zhisuan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="str">
+      <c r="P16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N10="","",_zhisuan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="17" t="str">
+      <c r="Q16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O10="","",_zhisuan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="17" t="str">
+      <c r="R16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P10="","",_zhisuan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="str">
+      <c r="S16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q10="","",_zhisuan_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="17" t="str">
+      <c r="T16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R10="","",_zhisuan_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="17" t="str">
+      <c r="U16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S10="","",_zhisuan_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="V16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T10="","",_zhisuan_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="17" t="str">
+      <c r="W16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U10="","",_zhisuan_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="17" t="str">
+      <c r="X16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V10="","",_zhisuan_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="17" t="str">
+      <c r="Y16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W10="","",_zhisuan_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="17" t="str">
+      <c r="Z16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X10="","",_zhisuan_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="17" t="str">
+      <c r="AA16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y10="","",_zhisuan_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="17" t="str">
+      <c r="AB16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z10="","",_zhisuan_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="17" t="str">
+      <c r="AC16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA10="","",_zhisuan_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="17" t="str">
+      <c r="AD16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB10="","",_zhisuan_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="17" t="str">
+      <c r="AE16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC10="","",_zhisuan_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="17" t="str">
+      <c r="AF16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD10="","",_zhisuan_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="17" t="str">
+      <c r="AG16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE10="","",_zhisuan_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="17" t="str">
+      <c r="AH16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF10="","",_zhisuan_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="17" t="str">
+      <c r="AI16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG10="","",_zhisuan_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="17" t="str">
+      <c r="AJ16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH10="","",_zhisuan_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="17" t="str">
+      <c r="AK16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI10="","",_zhisuan_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="17" t="str">
+      <c r="AL16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ10="","",_zhisuan_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="17" t="str">
+      <c r="AM16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK10="","",_zhisuan_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="17" t="str">
+      <c r="AN16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL10="","",_zhisuan_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="17" t="str">
+      <c r="AO16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM10="","",_zhisuan_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="17" t="str">
+      <c r="AP16" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN10="","",_zhisuan_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="37" t="str">
+      <c r="AQ16" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO10="","",_zhisuan_day_hour!AO10)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:43">
-      <c r="B17" s="16">
+    <row r="17" customFormat="1" spans="2:43">
+      <c r="B17" s="15">
         <v>0.375</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A11="","",_zhisuan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B11="","",_zhisuan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C11="","",_zhisuan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="17" t="str">
+      <c r="F17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D11="","",_zhisuan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="17" t="str">
+      <c r="G17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E11="","",_zhisuan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="17" t="str">
+      <c r="H17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F11="","",_zhisuan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="17" t="str">
+      <c r="I17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G11="","",_zhisuan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="17" t="str">
+      <c r="J17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H11="","",_zhisuan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I11="","",_zhisuan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J11="","",_zhisuan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="17" t="str">
+      <c r="M17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K11="","",_zhisuan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L11="","",_zhisuan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M11="","",_zhisuan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="str">
+      <c r="P17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N11="","",_zhisuan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="17" t="str">
+      <c r="Q17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O11="","",_zhisuan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="17" t="str">
+      <c r="R17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P11="","",_zhisuan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="str">
+      <c r="S17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q11="","",_zhisuan_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="17" t="str">
+      <c r="T17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R11="","",_zhisuan_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="17" t="str">
+      <c r="U17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S11="","",_zhisuan_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="17" t="str">
+      <c r="V17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T11="","",_zhisuan_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="17" t="str">
+      <c r="W17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U11="","",_zhisuan_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="17" t="str">
+      <c r="X17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V11="","",_zhisuan_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="17" t="str">
+      <c r="Y17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W11="","",_zhisuan_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="17" t="str">
+      <c r="Z17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X11="","",_zhisuan_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="17" t="str">
+      <c r="AA17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y11="","",_zhisuan_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="17" t="str">
+      <c r="AB17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z11="","",_zhisuan_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="17" t="str">
+      <c r="AC17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA11="","",_zhisuan_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="17" t="str">
+      <c r="AD17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB11="","",_zhisuan_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="17" t="str">
+      <c r="AE17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC11="","",_zhisuan_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="17" t="str">
+      <c r="AF17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD11="","",_zhisuan_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="17" t="str">
+      <c r="AG17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE11="","",_zhisuan_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="17" t="str">
+      <c r="AH17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF11="","",_zhisuan_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="17" t="str">
+      <c r="AI17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG11="","",_zhisuan_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="17" t="str">
+      <c r="AJ17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH11="","",_zhisuan_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="17" t="str">
+      <c r="AK17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI11="","",_zhisuan_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="17" t="str">
+      <c r="AL17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ11="","",_zhisuan_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="17" t="str">
+      <c r="AM17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK11="","",_zhisuan_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="17" t="str">
+      <c r="AN17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL11="","",_zhisuan_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="17" t="str">
+      <c r="AO17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM11="","",_zhisuan_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="17" t="str">
+      <c r="AP17" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN11="","",_zhisuan_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="37" t="str">
+      <c r="AQ17" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO11="","",_zhisuan_day_hour!AO11)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:43">
-      <c r="B18" s="16">
+    <row r="18" customFormat="1" spans="2:43">
+      <c r="B18" s="15">
         <v>0.416666666666666</v>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A12="","",_zhisuan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B12="","",_zhisuan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C12="","",_zhisuan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D12="","",_zhisuan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="17" t="str">
+      <c r="G18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E12="","",_zhisuan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="17" t="str">
+      <c r="H18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F12="","",_zhisuan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G12="","",_zhisuan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H12="","",_zhisuan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I12="","",_zhisuan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J12="","",_zhisuan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K12="","",_zhisuan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L12="","",_zhisuan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M12="","",_zhisuan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N12="","",_zhisuan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="17" t="str">
+      <c r="Q18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O12="","",_zhisuan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="17" t="str">
+      <c r="R18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P12="","",_zhisuan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q12="","",_zhisuan_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="17" t="str">
+      <c r="T18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R12="","",_zhisuan_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="17" t="str">
+      <c r="U18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S12="","",_zhisuan_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="V18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T12="","",_zhisuan_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="17" t="str">
+      <c r="W18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U12="","",_zhisuan_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="X18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V12="","",_zhisuan_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="17" t="str">
+      <c r="Y18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W12="","",_zhisuan_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="17" t="str">
+      <c r="Z18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X12="","",_zhisuan_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="17" t="str">
+      <c r="AA18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y12="","",_zhisuan_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="17" t="str">
+      <c r="AB18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z12="","",_zhisuan_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="17" t="str">
+      <c r="AC18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA12="","",_zhisuan_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB12="","",_zhisuan_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC12="","",_zhisuan_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD12="","",_zhisuan_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="17" t="str">
+      <c r="AG18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE12="","",_zhisuan_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="17" t="str">
+      <c r="AH18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF12="","",_zhisuan_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="17" t="str">
+      <c r="AI18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG12="","",_zhisuan_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="17" t="str">
+      <c r="AJ18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH12="","",_zhisuan_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="17" t="str">
+      <c r="AK18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI12="","",_zhisuan_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="17" t="str">
+      <c r="AL18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ12="","",_zhisuan_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="17" t="str">
+      <c r="AM18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK12="","",_zhisuan_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="17" t="str">
+      <c r="AN18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL12="","",_zhisuan_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="17" t="str">
+      <c r="AO18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM12="","",_zhisuan_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="17" t="str">
+      <c r="AP18" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN12="","",_zhisuan_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="37" t="str">
+      <c r="AQ18" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO12="","",_zhisuan_day_hour!AO12)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:43">
-      <c r="B19" s="16">
+    <row r="19" customFormat="1" spans="2:43">
+      <c r="B19" s="15">
         <v>0.458333333333333</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A13="","",_zhisuan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B13="","",_zhisuan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C13="","",_zhisuan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="17" t="str">
+      <c r="F19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D13="","",_zhisuan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="17" t="str">
+      <c r="G19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E13="","",_zhisuan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="17" t="str">
+      <c r="H19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F13="","",_zhisuan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="17" t="str">
+      <c r="I19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G13="","",_zhisuan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="17" t="str">
+      <c r="J19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H13="","",_zhisuan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="17" t="str">
+      <c r="K19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I13="","",_zhisuan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J13="","",_zhisuan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="17" t="str">
+      <c r="M19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K13="","",_zhisuan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="17" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L13="","",_zhisuan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M13="","",_zhisuan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="17" t="str">
+      <c r="P19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N13="","",_zhisuan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="17" t="str">
+      <c r="Q19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O13="","",_zhisuan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="17" t="str">
+      <c r="R19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P13="","",_zhisuan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q13="","",_zhisuan_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="17" t="str">
+      <c r="T19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R13="","",_zhisuan_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="17" t="str">
+      <c r="U19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S13="","",_zhisuan_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="17" t="str">
+      <c r="V19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T13="","",_zhisuan_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="17" t="str">
+      <c r="W19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U13="","",_zhisuan_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="17" t="str">
+      <c r="X19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V13="","",_zhisuan_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="17" t="str">
+      <c r="Y19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W13="","",_zhisuan_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="17" t="str">
+      <c r="Z19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X13="","",_zhisuan_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="17" t="str">
+      <c r="AA19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y13="","",_zhisuan_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="17" t="str">
+      <c r="AB19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z13="","",_zhisuan_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="17" t="str">
+      <c r="AC19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA13="","",_zhisuan_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="17" t="str">
+      <c r="AD19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB13="","",_zhisuan_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="17" t="str">
+      <c r="AE19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC13="","",_zhisuan_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="17" t="str">
+      <c r="AF19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD13="","",_zhisuan_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="17" t="str">
+      <c r="AG19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE13="","",_zhisuan_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="17" t="str">
+      <c r="AH19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF13="","",_zhisuan_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="17" t="str">
+      <c r="AI19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG13="","",_zhisuan_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="17" t="str">
+      <c r="AJ19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH13="","",_zhisuan_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="17" t="str">
+      <c r="AK19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI13="","",_zhisuan_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="17" t="str">
+      <c r="AL19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ13="","",_zhisuan_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="17" t="str">
+      <c r="AM19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK13="","",_zhisuan_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="17" t="str">
+      <c r="AN19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL13="","",_zhisuan_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="17" t="str">
+      <c r="AO19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM13="","",_zhisuan_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="17" t="str">
+      <c r="AP19" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN13="","",_zhisuan_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="37" t="str">
+      <c r="AQ19" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO13="","",_zhisuan_day_hour!AO13)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:43">
-      <c r="B20" s="16">
+    <row r="20" customFormat="1" spans="2:43">
+      <c r="B20" s="15">
         <v>0.5</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A14="","",_zhisuan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B14="","",_zhisuan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C14="","",_zhisuan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="17" t="str">
+      <c r="F20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D14="","",_zhisuan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="17" t="str">
+      <c r="G20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E14="","",_zhisuan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="17" t="str">
+      <c r="H20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F14="","",_zhisuan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="17" t="str">
+      <c r="I20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G14="","",_zhisuan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="17" t="str">
+      <c r="J20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H14="","",_zhisuan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="17" t="str">
+      <c r="K20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I14="","",_zhisuan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J14="","",_zhisuan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="17" t="str">
+      <c r="M20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K14="","",_zhisuan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="17" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L14="","",_zhisuan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M14="","",_zhisuan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="17" t="str">
+      <c r="P20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N14="","",_zhisuan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="17" t="str">
+      <c r="Q20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O14="","",_zhisuan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="17" t="str">
+      <c r="R20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P14="","",_zhisuan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="str">
+      <c r="S20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q14="","",_zhisuan_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="17" t="str">
+      <c r="T20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R14="","",_zhisuan_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="17" t="str">
+      <c r="U20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S14="","",_zhisuan_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="17" t="str">
+      <c r="V20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T14="","",_zhisuan_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="17" t="str">
+      <c r="W20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U14="","",_zhisuan_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="17" t="str">
+      <c r="X20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V14="","",_zhisuan_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="17" t="str">
+      <c r="Y20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W14="","",_zhisuan_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="17" t="str">
+      <c r="Z20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X14="","",_zhisuan_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="17" t="str">
+      <c r="AA20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y14="","",_zhisuan_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="17" t="str">
+      <c r="AB20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z14="","",_zhisuan_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="17" t="str">
+      <c r="AC20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA14="","",_zhisuan_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="17" t="str">
+      <c r="AD20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB14="","",_zhisuan_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="17" t="str">
+      <c r="AE20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC14="","",_zhisuan_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="17" t="str">
+      <c r="AF20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD14="","",_zhisuan_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="17" t="str">
+      <c r="AG20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE14="","",_zhisuan_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="17" t="str">
+      <c r="AH20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF14="","",_zhisuan_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="17" t="str">
+      <c r="AI20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG14="","",_zhisuan_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="17" t="str">
+      <c r="AJ20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH14="","",_zhisuan_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="17" t="str">
+      <c r="AK20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI14="","",_zhisuan_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="17" t="str">
+      <c r="AL20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ14="","",_zhisuan_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="17" t="str">
+      <c r="AM20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK14="","",_zhisuan_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="17" t="str">
+      <c r="AN20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL14="","",_zhisuan_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="17" t="str">
+      <c r="AO20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM14="","",_zhisuan_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="17" t="str">
+      <c r="AP20" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN14="","",_zhisuan_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="37" t="str">
+      <c r="AQ20" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO14="","",_zhisuan_day_hour!AO14)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:43">
-      <c r="B21" s="16">
+    <row r="21" customFormat="1" spans="2:43">
+      <c r="B21" s="15">
         <v>0.541666666666666</v>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A15="","",_zhisuan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B15="","",_zhisuan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C15="","",_zhisuan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D15="","",_zhisuan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="17" t="str">
+      <c r="G21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E15="","",_zhisuan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="17" t="str">
+      <c r="H21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F15="","",_zhisuan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="17" t="str">
+      <c r="I21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G15="","",_zhisuan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="17" t="str">
+      <c r="J21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H15="","",_zhisuan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="17" t="str">
+      <c r="K21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I15="","",_zhisuan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="17" t="str">
+      <c r="L21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J15="","",_zhisuan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="17" t="str">
+      <c r="M21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K15="","",_zhisuan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="17" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L15="","",_zhisuan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M15="","",_zhisuan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="17" t="str">
+      <c r="P21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N15="","",_zhisuan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="17" t="str">
+      <c r="Q21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O15="","",_zhisuan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="17" t="str">
+      <c r="R21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P15="","",_zhisuan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="str">
+      <c r="S21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q15="","",_zhisuan_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="17" t="str">
+      <c r="T21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R15="","",_zhisuan_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="17" t="str">
+      <c r="U21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S15="","",_zhisuan_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="17" t="str">
+      <c r="V21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T15="","",_zhisuan_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="17" t="str">
+      <c r="W21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U15="","",_zhisuan_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="17" t="str">
+      <c r="X21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V15="","",_zhisuan_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="17" t="str">
+      <c r="Y21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W15="","",_zhisuan_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="17" t="str">
+      <c r="Z21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X15="","",_zhisuan_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="17" t="str">
+      <c r="AA21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y15="","",_zhisuan_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="17" t="str">
+      <c r="AB21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z15="","",_zhisuan_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="17" t="str">
+      <c r="AC21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA15="","",_zhisuan_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="17" t="str">
+      <c r="AD21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB15="","",_zhisuan_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="17" t="str">
+      <c r="AE21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC15="","",_zhisuan_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="17" t="str">
+      <c r="AF21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD15="","",_zhisuan_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="17" t="str">
+      <c r="AG21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE15="","",_zhisuan_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="17" t="str">
+      <c r="AH21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF15="","",_zhisuan_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="17" t="str">
+      <c r="AI21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG15="","",_zhisuan_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="17" t="str">
+      <c r="AJ21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH15="","",_zhisuan_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="17" t="str">
+      <c r="AK21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI15="","",_zhisuan_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="17" t="str">
+      <c r="AL21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ15="","",_zhisuan_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="17" t="str">
+      <c r="AM21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK15="","",_zhisuan_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="17" t="str">
+      <c r="AN21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL15="","",_zhisuan_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="17" t="str">
+      <c r="AO21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM15="","",_zhisuan_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="17" t="str">
+      <c r="AP21" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN15="","",_zhisuan_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="37" t="str">
+      <c r="AQ21" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO15="","",_zhisuan_day_hour!AO15)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:43">
-      <c r="B22" s="16">
+    <row r="22" customFormat="1" spans="2:43">
+      <c r="B22" s="15">
         <v>0.583333333333333</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A16="","",_zhisuan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B16="","",_zhisuan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C16="","",_zhisuan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D16="","",_zhisuan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="17" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E16="","",_zhisuan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="17" t="str">
+      <c r="H22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F16="","",_zhisuan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="17" t="str">
+      <c r="I22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G16="","",_zhisuan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="17" t="str">
+      <c r="J22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H16="","",_zhisuan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="17" t="str">
+      <c r="K22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I16="","",_zhisuan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="17" t="str">
+      <c r="L22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J16="","",_zhisuan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="17" t="str">
+      <c r="M22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K16="","",_zhisuan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="17" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L16="","",_zhisuan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="17" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M16="","",_zhisuan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="17" t="str">
+      <c r="P22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N16="","",_zhisuan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="17" t="str">
+      <c r="Q22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O16="","",_zhisuan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="17" t="str">
+      <c r="R22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P16="","",_zhisuan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="17" t="str">
+      <c r="S22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q16="","",_zhisuan_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="17" t="str">
+      <c r="T22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R16="","",_zhisuan_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="17" t="str">
+      <c r="U22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S16="","",_zhisuan_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="17" t="str">
+      <c r="V22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T16="","",_zhisuan_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="17" t="str">
+      <c r="W22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U16="","",_zhisuan_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="17" t="str">
+      <c r="X22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V16="","",_zhisuan_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="17" t="str">
+      <c r="Y22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W16="","",_zhisuan_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="17" t="str">
+      <c r="Z22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X16="","",_zhisuan_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="17" t="str">
+      <c r="AA22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y16="","",_zhisuan_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="17" t="str">
+      <c r="AB22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z16="","",_zhisuan_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="17" t="str">
+      <c r="AC22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA16="","",_zhisuan_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="17" t="str">
+      <c r="AD22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB16="","",_zhisuan_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="17" t="str">
+      <c r="AE22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC16="","",_zhisuan_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD16="","",_zhisuan_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="17" t="str">
+      <c r="AG22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE16="","",_zhisuan_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="17" t="str">
+      <c r="AH22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF16="","",_zhisuan_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="17" t="str">
+      <c r="AI22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG16="","",_zhisuan_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="17" t="str">
+      <c r="AJ22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH16="","",_zhisuan_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="17" t="str">
+      <c r="AK22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI16="","",_zhisuan_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="17" t="str">
+      <c r="AL22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ16="","",_zhisuan_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="17" t="str">
+      <c r="AM22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK16="","",_zhisuan_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="17" t="str">
+      <c r="AN22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL16="","",_zhisuan_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="17" t="str">
+      <c r="AO22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM16="","",_zhisuan_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="17" t="str">
+      <c r="AP22" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN16="","",_zhisuan_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="37" t="str">
+      <c r="AQ22" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO16="","",_zhisuan_day_hour!AO16)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:43">
-      <c r="B23" s="16">
+    <row r="23" customFormat="1" spans="2:43">
+      <c r="B23" s="15">
         <v>0.625</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A17="","",_zhisuan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B17="","",_zhisuan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C17="","",_zhisuan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="17" t="str">
+      <c r="F23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D17="","",_zhisuan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="17" t="str">
+      <c r="G23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E17="","",_zhisuan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="17" t="str">
+      <c r="H23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F17="","",_zhisuan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="17" t="str">
+      <c r="I23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G17="","",_zhisuan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="17" t="str">
+      <c r="J23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H17="","",_zhisuan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="17" t="str">
+      <c r="K23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I17="","",_zhisuan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="17" t="str">
+      <c r="L23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J17="","",_zhisuan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="17" t="str">
+      <c r="M23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K17="","",_zhisuan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="17" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L17="","",_zhisuan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="17" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M17="","",_zhisuan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="17" t="str">
+      <c r="P23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N17="","",_zhisuan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="17" t="str">
+      <c r="Q23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O17="","",_zhisuan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="17" t="str">
+      <c r="R23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P17="","",_zhisuan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="17" t="str">
+      <c r="S23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q17="","",_zhisuan_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="17" t="str">
+      <c r="T23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R17="","",_zhisuan_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="17" t="str">
+      <c r="U23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S17="","",_zhisuan_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="17" t="str">
+      <c r="V23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T17="","",_zhisuan_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="17" t="str">
+      <c r="W23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U17="","",_zhisuan_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="17" t="str">
+      <c r="X23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V17="","",_zhisuan_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="17" t="str">
+      <c r="Y23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W17="","",_zhisuan_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="17" t="str">
+      <c r="Z23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X17="","",_zhisuan_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="17" t="str">
+      <c r="AA23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y17="","",_zhisuan_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="17" t="str">
+      <c r="AB23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z17="","",_zhisuan_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="17" t="str">
+      <c r="AC23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA17="","",_zhisuan_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="17" t="str">
+      <c r="AD23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB17="","",_zhisuan_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="17" t="str">
+      <c r="AE23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC17="","",_zhisuan_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="17" t="str">
+      <c r="AF23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD17="","",_zhisuan_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="17" t="str">
+      <c r="AG23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE17="","",_zhisuan_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="17" t="str">
+      <c r="AH23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF17="","",_zhisuan_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="17" t="str">
+      <c r="AI23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG17="","",_zhisuan_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="17" t="str">
+      <c r="AJ23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH17="","",_zhisuan_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="17" t="str">
+      <c r="AK23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI17="","",_zhisuan_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="17" t="str">
+      <c r="AL23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ17="","",_zhisuan_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="17" t="str">
+      <c r="AM23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK17="","",_zhisuan_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="17" t="str">
+      <c r="AN23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL17="","",_zhisuan_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="17" t="str">
+      <c r="AO23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM17="","",_zhisuan_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="17" t="str">
+      <c r="AP23" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN17="","",_zhisuan_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="37" t="str">
+      <c r="AQ23" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO17="","",_zhisuan_day_hour!AO17)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:43">
-      <c r="B24" s="16">
+    <row r="24" customFormat="1" spans="2:43">
+      <c r="B24" s="15">
         <v>0.666666666666667</v>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A18="","",_zhisuan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B18="","",_zhisuan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C18="","",_zhisuan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="17" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D18="","",_zhisuan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="17" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E18="","",_zhisuan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="17" t="str">
+      <c r="H24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F18="","",_zhisuan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="17" t="str">
+      <c r="I24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G18="","",_zhisuan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="17" t="str">
+      <c r="J24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H18="","",_zhisuan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="17" t="str">
+      <c r="K24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I18="","",_zhisuan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="17" t="str">
+      <c r="L24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J18="","",_zhisuan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="17" t="str">
+      <c r="M24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K18="","",_zhisuan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="17" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L18="","",_zhisuan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="17" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M18="","",_zhisuan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="17" t="str">
+      <c r="P24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N18="","",_zhisuan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="17" t="str">
+      <c r="Q24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O18="","",_zhisuan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="17" t="str">
+      <c r="R24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P18="","",_zhisuan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="17" t="str">
+      <c r="S24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q18="","",_zhisuan_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="17" t="str">
+      <c r="T24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R18="","",_zhisuan_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="17" t="str">
+      <c r="U24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S18="","",_zhisuan_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="17" t="str">
+      <c r="V24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T18="","",_zhisuan_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="17" t="str">
+      <c r="W24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U18="","",_zhisuan_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="17" t="str">
+      <c r="X24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V18="","",_zhisuan_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="17" t="str">
+      <c r="Y24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W18="","",_zhisuan_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="17" t="str">
+      <c r="Z24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X18="","",_zhisuan_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="17" t="str">
+      <c r="AA24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y18="","",_zhisuan_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="17" t="str">
+      <c r="AB24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z18="","",_zhisuan_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="17" t="str">
+      <c r="AC24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA18="","",_zhisuan_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="17" t="str">
+      <c r="AD24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB18="","",_zhisuan_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="17" t="str">
+      <c r="AE24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC18="","",_zhisuan_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="17" t="str">
+      <c r="AF24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD18="","",_zhisuan_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="17" t="str">
+      <c r="AG24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE18="","",_zhisuan_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="17" t="str">
+      <c r="AH24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF18="","",_zhisuan_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="17" t="str">
+      <c r="AI24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG18="","",_zhisuan_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="17" t="str">
+      <c r="AJ24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH18="","",_zhisuan_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="17" t="str">
+      <c r="AK24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI18="","",_zhisuan_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="17" t="str">
+      <c r="AL24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ18="","",_zhisuan_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="17" t="str">
+      <c r="AM24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK18="","",_zhisuan_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="17" t="str">
+      <c r="AN24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL18="","",_zhisuan_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="17" t="str">
+      <c r="AO24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM18="","",_zhisuan_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="17" t="str">
+      <c r="AP24" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN18="","",_zhisuan_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="37" t="str">
+      <c r="AQ24" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO18="","",_zhisuan_day_hour!AO18)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:43">
-      <c r="B25" s="16">
+    <row r="25" customFormat="1" spans="2:43">
+      <c r="B25" s="15">
         <v>0.708333333333333</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A19="","",_zhisuan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B19="","",_zhisuan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C19="","",_zhisuan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="F25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D19="","",_zhisuan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="17" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E19="","",_zhisuan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="17" t="str">
+      <c r="H25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F19="","",_zhisuan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="17" t="str">
+      <c r="I25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G19="","",_zhisuan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="17" t="str">
+      <c r="J25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H19="","",_zhisuan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="17" t="str">
+      <c r="K25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I19="","",_zhisuan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="17" t="str">
+      <c r="L25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J19="","",_zhisuan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="17" t="str">
+      <c r="M25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K19="","",_zhisuan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="17" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L19="","",_zhisuan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="17" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M19="","",_zhisuan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="17" t="str">
+      <c r="P25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N19="","",_zhisuan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="17" t="str">
+      <c r="Q25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O19="","",_zhisuan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="17" t="str">
+      <c r="R25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P19="","",_zhisuan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q19="","",_zhisuan_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="17" t="str">
+      <c r="T25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R19="","",_zhisuan_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="17" t="str">
+      <c r="U25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S19="","",_zhisuan_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="17" t="str">
+      <c r="V25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T19="","",_zhisuan_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="17" t="str">
+      <c r="W25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U19="","",_zhisuan_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="17" t="str">
+      <c r="X25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V19="","",_zhisuan_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="17" t="str">
+      <c r="Y25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W19="","",_zhisuan_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="17" t="str">
+      <c r="Z25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X19="","",_zhisuan_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="17" t="str">
+      <c r="AA25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y19="","",_zhisuan_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="17" t="str">
+      <c r="AB25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z19="","",_zhisuan_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="17" t="str">
+      <c r="AC25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA19="","",_zhisuan_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB19="","",_zhisuan_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC19="","",_zhisuan_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD19="","",_zhisuan_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="17" t="str">
+      <c r="AG25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE19="","",_zhisuan_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="17" t="str">
+      <c r="AH25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF19="","",_zhisuan_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="17" t="str">
+      <c r="AI25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG19="","",_zhisuan_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="17" t="str">
+      <c r="AJ25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH19="","",_zhisuan_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="17" t="str">
+      <c r="AK25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI19="","",_zhisuan_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="17" t="str">
+      <c r="AL25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ19="","",_zhisuan_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="17" t="str">
+      <c r="AM25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK19="","",_zhisuan_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="17" t="str">
+      <c r="AN25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL19="","",_zhisuan_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="17" t="str">
+      <c r="AO25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM19="","",_zhisuan_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="17" t="str">
+      <c r="AP25" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN19="","",_zhisuan_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="37" t="str">
+      <c r="AQ25" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO19="","",_zhisuan_day_hour!AO19)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:43">
-      <c r="B26" s="16">
+    <row r="26" customFormat="1" spans="2:43">
+      <c r="B26" s="15">
         <v>0.75</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A20="","",_zhisuan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B20="","",_zhisuan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C20="","",_zhisuan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="17" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D20="","",_zhisuan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="17" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E20="","",_zhisuan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F20="","",_zhisuan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="17" t="str">
+      <c r="I26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G20="","",_zhisuan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="17" t="str">
+      <c r="J26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H20="","",_zhisuan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="17" t="str">
+      <c r="K26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I20="","",_zhisuan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="17" t="str">
+      <c r="L26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J20="","",_zhisuan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="17" t="str">
+      <c r="M26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K20="","",_zhisuan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="17" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L20="","",_zhisuan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="O26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M20="","",_zhisuan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="17" t="str">
+      <c r="P26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N20="","",_zhisuan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="17" t="str">
+      <c r="Q26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O20="","",_zhisuan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="17" t="str">
+      <c r="R26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P20="","",_zhisuan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q20="","",_zhisuan_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="17" t="str">
+      <c r="T26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R20="","",_zhisuan_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="17" t="str">
+      <c r="U26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S20="","",_zhisuan_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="17" t="str">
+      <c r="V26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T20="","",_zhisuan_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="17" t="str">
+      <c r="W26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U20="","",_zhisuan_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="17" t="str">
+      <c r="X26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V20="","",_zhisuan_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="17" t="str">
+      <c r="Y26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W20="","",_zhisuan_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="17" t="str">
+      <c r="Z26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X20="","",_zhisuan_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="17" t="str">
+      <c r="AA26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y20="","",_zhisuan_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="17" t="str">
+      <c r="AB26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z20="","",_zhisuan_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="17" t="str">
+      <c r="AC26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA20="","",_zhisuan_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="17" t="str">
+      <c r="AD26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB20="","",_zhisuan_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="17" t="str">
+      <c r="AE26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC20="","",_zhisuan_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="17" t="str">
+      <c r="AF26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD20="","",_zhisuan_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="17" t="str">
+      <c r="AG26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE20="","",_zhisuan_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="17" t="str">
+      <c r="AH26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF20="","",_zhisuan_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="17" t="str">
+      <c r="AI26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG20="","",_zhisuan_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="17" t="str">
+      <c r="AJ26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH20="","",_zhisuan_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="17" t="str">
+      <c r="AK26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI20="","",_zhisuan_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="17" t="str">
+      <c r="AL26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ20="","",_zhisuan_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="17" t="str">
+      <c r="AM26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK20="","",_zhisuan_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="17" t="str">
+      <c r="AN26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL20="","",_zhisuan_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="17" t="str">
+      <c r="AO26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM20="","",_zhisuan_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="17" t="str">
+      <c r="AP26" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN20="","",_zhisuan_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="37" t="str">
+      <c r="AQ26" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO20="","",_zhisuan_day_hour!AO20)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:43">
-      <c r="B27" s="16">
+    <row r="27" customFormat="1" spans="2:43">
+      <c r="B27" s="15">
         <v>0.791666666666667</v>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A21="","",_zhisuan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B21="","",_zhisuan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C21="","",_zhisuan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="17" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D21="","",_zhisuan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="17" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E21="","",_zhisuan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F21="","",_zhisuan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="17" t="str">
+      <c r="I27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G21="","",_zhisuan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="17" t="str">
+      <c r="J27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H21="","",_zhisuan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="17" t="str">
+      <c r="K27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I21="","",_zhisuan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J21="","",_zhisuan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="17" t="str">
+      <c r="M27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K21="","",_zhisuan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="17" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L21="","",_zhisuan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="17" t="str">
+      <c r="O27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M21="","",_zhisuan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="17" t="str">
+      <c r="P27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N21="","",_zhisuan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="17" t="str">
+      <c r="Q27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O21="","",_zhisuan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="17" t="str">
+      <c r="R27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P21="","",_zhisuan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="17" t="str">
+      <c r="S27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q21="","",_zhisuan_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="17" t="str">
+      <c r="T27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R21="","",_zhisuan_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="17" t="str">
+      <c r="U27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S21="","",_zhisuan_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="17" t="str">
+      <c r="V27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T21="","",_zhisuan_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="17" t="str">
+      <c r="W27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U21="","",_zhisuan_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="17" t="str">
+      <c r="X27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V21="","",_zhisuan_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="17" t="str">
+      <c r="Y27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W21="","",_zhisuan_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="17" t="str">
+      <c r="Z27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X21="","",_zhisuan_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="17" t="str">
+      <c r="AA27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y21="","",_zhisuan_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="17" t="str">
+      <c r="AB27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z21="","",_zhisuan_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="17" t="str">
+      <c r="AC27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA21="","",_zhisuan_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="17" t="str">
+      <c r="AD27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB21="","",_zhisuan_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="17" t="str">
+      <c r="AE27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC21="","",_zhisuan_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="17" t="str">
+      <c r="AF27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD21="","",_zhisuan_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="17" t="str">
+      <c r="AG27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE21="","",_zhisuan_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="17" t="str">
+      <c r="AH27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF21="","",_zhisuan_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="17" t="str">
+      <c r="AI27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG21="","",_zhisuan_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="17" t="str">
+      <c r="AJ27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH21="","",_zhisuan_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="17" t="str">
+      <c r="AK27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI21="","",_zhisuan_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="17" t="str">
+      <c r="AL27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ21="","",_zhisuan_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="17" t="str">
+      <c r="AM27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK21="","",_zhisuan_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="17" t="str">
+      <c r="AN27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL21="","",_zhisuan_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="17" t="str">
+      <c r="AO27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM21="","",_zhisuan_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="17" t="str">
+      <c r="AP27" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN21="","",_zhisuan_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="37" t="str">
+      <c r="AQ27" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO21="","",_zhisuan_day_hour!AO21)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:43">
-      <c r="B28" s="16">
+    <row r="28" customFormat="1" spans="2:43">
+      <c r="B28" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A22="","",_zhisuan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B22="","",_zhisuan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C22="","",_zhisuan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="17" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D22="","",_zhisuan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="17" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E22="","",_zhisuan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="17" t="str">
+      <c r="H28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F22="","",_zhisuan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="17" t="str">
+      <c r="I28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G22="","",_zhisuan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="17" t="str">
+      <c r="J28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H22="","",_zhisuan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="17" t="str">
+      <c r="K28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I22="","",_zhisuan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="17" t="str">
+      <c r="L28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J22="","",_zhisuan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="17" t="str">
+      <c r="M28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K22="","",_zhisuan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="17" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L22="","",_zhisuan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="17" t="str">
+      <c r="O28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M22="","",_zhisuan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="17" t="str">
+      <c r="P28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N22="","",_zhisuan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="17" t="str">
+      <c r="Q28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O22="","",_zhisuan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="17" t="str">
+      <c r="R28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P22="","",_zhisuan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="17" t="str">
+      <c r="S28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q22="","",_zhisuan_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="17" t="str">
+      <c r="T28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R22="","",_zhisuan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="17" t="str">
+      <c r="U28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S22="","",_zhisuan_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="17" t="str">
+      <c r="V28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T22="","",_zhisuan_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="17" t="str">
+      <c r="W28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U22="","",_zhisuan_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="17" t="str">
+      <c r="X28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V22="","",_zhisuan_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="17" t="str">
+      <c r="Y28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W22="","",_zhisuan_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="17" t="str">
+      <c r="Z28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X22="","",_zhisuan_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="17" t="str">
+      <c r="AA28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y22="","",_zhisuan_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="17" t="str">
+      <c r="AB28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z22="","",_zhisuan_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="17" t="str">
+      <c r="AC28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA22="","",_zhisuan_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="17" t="str">
+      <c r="AD28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB22="","",_zhisuan_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="17" t="str">
+      <c r="AE28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC22="","",_zhisuan_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="17" t="str">
+      <c r="AF28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD22="","",_zhisuan_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="17" t="str">
+      <c r="AG28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE22="","",_zhisuan_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="17" t="str">
+      <c r="AH28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF22="","",_zhisuan_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="17" t="str">
+      <c r="AI28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG22="","",_zhisuan_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="17" t="str">
+      <c r="AJ28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH22="","",_zhisuan_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="17" t="str">
+      <c r="AK28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI22="","",_zhisuan_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="17" t="str">
+      <c r="AL28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ22="","",_zhisuan_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="17" t="str">
+      <c r="AM28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK22="","",_zhisuan_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="17" t="str">
+      <c r="AN28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL22="","",_zhisuan_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="17" t="str">
+      <c r="AO28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM22="","",_zhisuan_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="17" t="str">
+      <c r="AP28" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN22="","",_zhisuan_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="37" t="str">
+      <c r="AQ28" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO22="","",_zhisuan_day_hour!AO22)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:43">
-      <c r="B29" s="16">
+    <row r="29" customFormat="1" spans="2:43">
+      <c r="B29" s="15">
         <v>0.875</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A23="","",_zhisuan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B23="","",_zhisuan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="17" t="str">
+      <c r="E29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C23="","",_zhisuan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="17" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D23="","",_zhisuan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="17" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E23="","",_zhisuan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="17" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F23="","",_zhisuan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="17" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G23="","",_zhisuan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="17" t="str">
+      <c r="J29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H23="","",_zhisuan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="17" t="str">
+      <c r="K29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I23="","",_zhisuan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="17" t="str">
+      <c r="L29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J23="","",_zhisuan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="17" t="str">
+      <c r="M29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K23="","",_zhisuan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="17" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L23="","",_zhisuan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="17" t="str">
+      <c r="O29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M23="","",_zhisuan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="17" t="str">
+      <c r="P29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N23="","",_zhisuan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="17" t="str">
+      <c r="Q29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O23="","",_zhisuan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="17" t="str">
+      <c r="R29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P23="","",_zhisuan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="17" t="str">
+      <c r="S29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q23="","",_zhisuan_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="17" t="str">
+      <c r="T29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R23="","",_zhisuan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="17" t="str">
+      <c r="U29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S23="","",_zhisuan_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="17" t="str">
+      <c r="V29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T23="","",_zhisuan_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="17" t="str">
+      <c r="W29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U23="","",_zhisuan_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="17" t="str">
+      <c r="X29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V23="","",_zhisuan_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="17" t="str">
+      <c r="Y29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W23="","",_zhisuan_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="17" t="str">
+      <c r="Z29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X23="","",_zhisuan_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="17" t="str">
+      <c r="AA29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y23="","",_zhisuan_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="17" t="str">
+      <c r="AB29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z23="","",_zhisuan_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="17" t="str">
+      <c r="AC29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA23="","",_zhisuan_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="17" t="str">
+      <c r="AD29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB23="","",_zhisuan_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="17" t="str">
+      <c r="AE29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC23="","",_zhisuan_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="17" t="str">
+      <c r="AF29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD23="","",_zhisuan_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="17" t="str">
+      <c r="AG29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE23="","",_zhisuan_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="17" t="str">
+      <c r="AH29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF23="","",_zhisuan_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="17" t="str">
+      <c r="AI29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG23="","",_zhisuan_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="17" t="str">
+      <c r="AJ29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH23="","",_zhisuan_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="17" t="str">
+      <c r="AK29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI23="","",_zhisuan_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="17" t="str">
+      <c r="AL29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ23="","",_zhisuan_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="17" t="str">
+      <c r="AM29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK23="","",_zhisuan_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="17" t="str">
+      <c r="AN29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL23="","",_zhisuan_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="17" t="str">
+      <c r="AO29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM23="","",_zhisuan_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="17" t="str">
+      <c r="AP29" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN23="","",_zhisuan_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="37" t="str">
+      <c r="AQ29" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO23="","",_zhisuan_day_hour!AO23)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:43">
-      <c r="B30" s="16">
+    <row r="30" customFormat="1" spans="2:43">
+      <c r="B30" s="15">
         <v>0.916666666666667</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A24="","",_zhisuan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B24="","",_zhisuan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C24="","",_zhisuan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="17" t="str">
+      <c r="F30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D24="","",_zhisuan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="17" t="str">
+      <c r="G30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E24="","",_zhisuan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="17" t="str">
+      <c r="H30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F24="","",_zhisuan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="17" t="str">
+      <c r="I30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G24="","",_zhisuan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="17" t="str">
+      <c r="J30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H24="","",_zhisuan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="17" t="str">
+      <c r="K30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I24="","",_zhisuan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="17" t="str">
+      <c r="L30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J24="","",_zhisuan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="17" t="str">
+      <c r="M30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K24="","",_zhisuan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="17" t="str">
+      <c r="N30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L24="","",_zhisuan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="17" t="str">
+      <c r="O30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M24="","",_zhisuan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="17" t="str">
+      <c r="P30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N24="","",_zhisuan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="17" t="str">
+      <c r="Q30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O24="","",_zhisuan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="17" t="str">
+      <c r="R30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P24="","",_zhisuan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="17" t="str">
+      <c r="S30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q24="","",_zhisuan_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="17" t="str">
+      <c r="T30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R24="","",_zhisuan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="17" t="str">
+      <c r="U30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S24="","",_zhisuan_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="17" t="str">
+      <c r="V30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T24="","",_zhisuan_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="17" t="str">
+      <c r="W30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U24="","",_zhisuan_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="17" t="str">
+      <c r="X30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V24="","",_zhisuan_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="17" t="str">
+      <c r="Y30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W24="","",_zhisuan_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="17" t="str">
+      <c r="Z30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X24="","",_zhisuan_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="17" t="str">
+      <c r="AA30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y24="","",_zhisuan_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="17" t="str">
+      <c r="AB30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z24="","",_zhisuan_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="17" t="str">
+      <c r="AC30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA24="","",_zhisuan_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="17" t="str">
+      <c r="AD30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB24="","",_zhisuan_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="17" t="str">
+      <c r="AE30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC24="","",_zhisuan_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="17" t="str">
+      <c r="AF30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD24="","",_zhisuan_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="17" t="str">
+      <c r="AG30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE24="","",_zhisuan_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="17" t="str">
+      <c r="AH30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF24="","",_zhisuan_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="17" t="str">
+      <c r="AI30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG24="","",_zhisuan_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="17" t="str">
+      <c r="AJ30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH24="","",_zhisuan_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="17" t="str">
+      <c r="AK30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI24="","",_zhisuan_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="17" t="str">
+      <c r="AL30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ24="","",_zhisuan_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="17" t="str">
+      <c r="AM30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK24="","",_zhisuan_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="17" t="str">
+      <c r="AN30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL24="","",_zhisuan_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="17" t="str">
+      <c r="AO30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM24="","",_zhisuan_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="17" t="str">
+      <c r="AP30" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN24="","",_zhisuan_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="37" t="str">
+      <c r="AQ30" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO24="","",_zhisuan_day_hour!AO24)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:43">
-      <c r="B31" s="16">
+    <row r="31" customFormat="1" spans="2:43">
+      <c r="B31" s="15">
         <v>0.958333333333333</v>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!A25="","",_zhisuan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!B25="","",_zhisuan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="17" t="str">
+      <c r="E31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!C25="","",_zhisuan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="17" t="str">
+      <c r="F31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!D25="","",_zhisuan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="17" t="str">
+      <c r="G31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!E25="","",_zhisuan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="17" t="str">
+      <c r="H31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!F25="","",_zhisuan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="17" t="str">
+      <c r="I31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!G25="","",_zhisuan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="17" t="str">
+      <c r="J31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!H25="","",_zhisuan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="17" t="str">
+      <c r="K31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!I25="","",_zhisuan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!J25="","",_zhisuan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="17" t="str">
+      <c r="M31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!K25="","",_zhisuan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="17" t="str">
+      <c r="N31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!L25="","",_zhisuan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="17" t="str">
+      <c r="O31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!M25="","",_zhisuan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="17" t="str">
+      <c r="P31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!N25="","",_zhisuan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="17" t="str">
+      <c r="Q31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!O25="","",_zhisuan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="17" t="str">
+      <c r="R31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!P25="","",_zhisuan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="17" t="str">
+      <c r="S31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Q25="","",_zhisuan_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="17" t="str">
+      <c r="T31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!R25="","",_zhisuan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="17" t="str">
+      <c r="U31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!S25="","",_zhisuan_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="17" t="str">
+      <c r="V31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!T25="","",_zhisuan_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="17" t="str">
+      <c r="W31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!U25="","",_zhisuan_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="17" t="str">
+      <c r="X31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!V25="","",_zhisuan_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="17" t="str">
+      <c r="Y31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!W25="","",_zhisuan_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="17" t="str">
+      <c r="Z31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!X25="","",_zhisuan_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="17" t="str">
+      <c r="AA31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Y25="","",_zhisuan_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="17" t="str">
+      <c r="AB31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!Z25="","",_zhisuan_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="17" t="str">
+      <c r="AC31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AA25="","",_zhisuan_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="17" t="str">
+      <c r="AD31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AB25="","",_zhisuan_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="17" t="str">
+      <c r="AE31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AC25="","",_zhisuan_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="17" t="str">
+      <c r="AF31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AD25="","",_zhisuan_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="17" t="str">
+      <c r="AG31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AE25="","",_zhisuan_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="17" t="str">
+      <c r="AH31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AF25="","",_zhisuan_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="17" t="str">
+      <c r="AI31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AG25="","",_zhisuan_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="17" t="str">
+      <c r="AJ31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AH25="","",_zhisuan_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="17" t="str">
+      <c r="AK31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AI25="","",_zhisuan_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="17" t="str">
+      <c r="AL31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AJ25="","",_zhisuan_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="17" t="str">
+      <c r="AM31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AK25="","",_zhisuan_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="17" t="str">
+      <c r="AN31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AL25="","",_zhisuan_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="17" t="str">
+      <c r="AO31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AM25="","",_zhisuan_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="17" t="str">
+      <c r="AP31" s="16" t="str">
         <f>IF(_zhisuan_day_hour!AN25="","",_zhisuan_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="37" t="str">
+      <c r="AQ31" s="35" t="str">
         <f>IF(_zhisuan_day_hour!AO25="","",_zhisuan_day_hour!AO25)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:43">
-      <c r="B32" s="18" t="s">
+    <row r="32" customFormat="1" spans="2:43">
+      <c r="B32" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="37"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="35"/>
     </row>
-    <row r="33" spans="2:43">
-      <c r="B33" s="18" t="s">
+    <row r="33" customFormat="1" spans="2:43">
+      <c r="B33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="37"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="35"/>
     </row>
-    <row r="34" spans="2:43">
-      <c r="B34" s="18" t="s">
+    <row r="34" customFormat="1" spans="2:43">
+      <c r="B34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="37"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="35"/>
     </row>
-    <row r="35" spans="2:43">
-      <c r="B35" s="18" t="s">
+    <row r="35" customFormat="1" spans="2:43">
+      <c r="B35" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="37"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="35"/>
     </row>
-    <row r="36" ht="72.6" customHeight="1" spans="2:43">
-      <c r="B36" s="19" t="s">
+    <row r="36" customFormat="1" ht="72.6" customHeight="1" spans="2:43">
+      <c r="B36" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="24" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="26" t="s">
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="17"/>
-      <c r="AQ36" s="37"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="35"/>
     </row>
-    <row r="37" ht="16.5" spans="2:43">
-      <c r="B37" s="21" t="s">
+    <row r="37" customFormat="1" ht="16.5" spans="2:43">
+      <c r="B37" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="25" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="28" t="s">
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="38"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="36"/>
     </row>
-    <row r="43" ht="77.1" customHeight="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1" ht="77.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="54">
     <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="B2:AN2"/>
     <mergeCell ref="C3:AQ3"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:Q4"/>
@@ -7159,7 +7234,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="54" spans="1:41">
+    <row r="1" customFormat="1" ht="54" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -7288,20 +7363,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>